--- a/DDAf_2022_Liste_des_indicateurs.xlsx
+++ b/DDAf_2022_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11150"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -18219,7 +18219,7 @@
     <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B267" r:id="rId1"/>
     <hyperlink ref="B269" r:id="rId2"/>
-    <hyperlink ref="B270" r:id="rId3" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
+    <hyperlink ref="B270" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/DDAf_2022_Liste_des_indicateurs.xlsx
+++ b/DDAf_2022_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Liste_des_indicateurs.xlsx
+++ b/DDAf_2022_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -3967,7 +3967,7 @@
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.54296875" customWidth="1"/>
     <col min="5" max="5" width="88.81640625" style="29" customWidth="1"/>
     <col min="6" max="9" width="20.36328125" customWidth="1"/>
@@ -7258,7 +7258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="19" t="s">
         <v>244</v>

--- a/DDAf_2022_Liste_des_indicateurs.xlsx
+++ b/DDAf_2022_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -88,8 +88,7 @@
   </si>
   <si>
     <t>Tiré de la révision des perspectives de la population mondiale de 2019, Département des affaires économiques et sociales des Nations Unies.
-Population dans un pays, un territoire ou une région au 1 er juillet de l'année indiquée. Jusqu'en 2015, les données sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+Population dans un pays, un territoire ou une région au 1 er juillet de l'année indiquée. Jusqu'en 2015, les données sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Personnes</t>
@@ -119,8 +118,7 @@
     <t>Produit intérieur brut nominal en dollars US en parité de pouvoir d'achat</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Les parités de pouvoir d'achat (PPA) sont les taux de conversion monétaire qui permettent d'égaliser les pouvoirs d'achat des différentes monnaies en éliminant les différences de niveaux des prix entre pays. Cela permet d'établir une valeur théorique du PIB en dollars américains dans un cadre où le dollar américain renvoie au même pouvoir d'achat dans chaque pays. Ces données sont utilisées pour des comparaisons internationales mais ne sont pas valables que pour des comparaisons interannuelles, car elles ne reflètent pas la croissance économique réelle. Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Voir l'annexe statistique pour les dernières Perspectives de l'économie mondiale pour plus d'informations :
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Les parités de pouvoir d'achat (PPA) sont les taux de conversion monétaire qui permettent d'égaliser les pouvoirs d'achat des différentes monnaies en éliminant les différences de niveaux des prix entre pays. Cela permet d'établir une valeur théorique du PIB en dollars américains dans un cadre où le dollar américain renvoie au même pouvoir d'achat dans chaque pays. Ces données sont utilisées pour des comparaisons internationales mais ne sont pas valables que pour des comparaisons interannuelles, car elles ne reflètent pas la croissance économique réelle. Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Voir l'annexe statistique pour les dernières Perspectives de l'économie mondiale pour plus d'informations : https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>Dollars PPA</t>
@@ -138,8 +136,7 @@
     <t>Produit intérieur brut en dollars américains</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Voir l'annexe statistique pour les dernières Perspectives de l'économie mondiale pour plus d'informations :
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Voir l'annexe statistique pour les dernières Perspectives de l'économie mondiale pour plus d'informations : https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>Dollars US</t>
@@ -154,8 +151,7 @@
     <t>Croissance réelle du PIB (%)</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. La croissance du PIB est exprimée en dollars constants. Voir l'annexe statistique pour les dernières Perspectives de l'économie mondiale pour plus d'informations :
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. La croissance du PIB est exprimée en dollars constants. Voir l'annexe statistique pour les dernières Perspectives de l'économie mondiale pour plus d'informations : https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>Pourcentage</t>
@@ -173,8 +169,7 @@
     <t>PIB en parité de pouvoir d'achat (PPA) en dollars US par habitant</t>
   </si>
   <si>
-    <t>Les personnes occupant un emploi ou la population active occupée comprennent toutes les personnes en âge de travailler qui, pendant une courte période de référence, ont exercé une activité quelconque pour produire des biens ou fournir des services à titre onéreux ou rémunéré. Pour plus d'information, voir :
-https://www.ilo.org/global/statistics-and-databases/statistics-overview-and-topics/WCMS_470295/lang--en/index.htm</t>
+    <t>Les personnes occupant un emploi ou la population active occupée comprennent toutes les personnes en âge de travailler qui, pendant une courte période de référence, ont exercé une activité quelconque pour produire des biens ou fournir des services à titre onéreux ou rémunéré. Pour plus d'information, voir : https://www.ilo.org/global/statistics-and-databases/statistics-overview-and-topics/WCMS_470295/lang--en/index.htm</t>
   </si>
   <si>
     <t>Unités</t>
@@ -189,8 +184,7 @@
     <t>Emploi en % de la population âgée de 15 ans et plus</t>
   </si>
   <si>
-    <t>Estimations modélisées par l'OIT, novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou en absence temporaire de travail, ou d'un aménagement du temps de travail.
-https://www.ilo.org/ilostat-files/Documents/TEM.pdf</t>
+    <t>Estimations modélisées par l'OIT, novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou en absence temporaire de travail, ou d'un aménagement du temps de travail. https://www.ilo.org/ilostat-files/Documents/TEM.pdf</t>
   </si>
   <si>
     <t>2000-2020</t>
@@ -208,8 +202,7 @@
     <t>Coefficient de Gini (estimations de la Banque Mondiale)</t>
   </si>
   <si>
-    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : "La base de données de suivi de la pauvreté de la Banque mondiale, comparable au plan international, s'appuie désormais sur des données détaillées sur le revenu ou sur la consommation tirées de plus de mille six cents enquêtes sur les ménages menées dans 164 pays dans six régions et 25 autres pays à revenu élevé (économies industrialisées). Les données sur la répartition des revenus sont publiées pour tous les pays pour lesquels des données sont disponibles, tandis que les données sur la pauvreté sont publiées uniquement pour les pays à revenu faible et intermédiaire et ceux pouvant prétendre à un prêt de la Banque mondiale (comme le Chili) et les pays récemment sortis (comme l'Estonie). Voir PovcalNet pour les définitions des régions géographiques et des pays industrialisés. Pour la Banque mondiale, le Groupe de recherche sur le développement, les données son basées sur des enquêtes primaires de ménages fournies par des organismes statistiques publics et des départements-pays de la Banque mondiale."
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : "La base de données de suivi de la pauvreté de la Banque mondiale, comparable au plan international, s'appuie désormais sur des données détaillées sur le revenu ou sur la consommation tirées de plus de mille six cents enquêtes sur les ménages menées dans 164 pays dans six régions et 25 autres pays à revenu élevé (économies industrialisées). Les données sur la répartition des revenus sont publiées pour tous les pays pour lesquels des données sont disponibles, tandis que les données sur la pauvreté sont publiées uniquement pour les pays à revenu faible et intermédiaire et ceux pouvant prétendre à un prêt de la Banque mondiale (comme le Chili) et les pays récemment sortis (comme l'Estonie). Voir PovcalNet pour les définitions des régions géographiques et des pays industrialisés. Pour la Banque mondiale, le Groupe de recherche sur le développement, les données son basées sur des enquêtes primaires de ménages fournies par des organismes statistiques publics et des départements-pays de la Banque mondiale." http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>Indice</t>
@@ -230,8 +223,7 @@
     <t>% de la population en extrême pauvreté ($1.90 par jour)</t>
   </si>
   <si>
-    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : "Le ratio de pauvreté par habitant à 1.90 USD par jour correspond au pourcentage de la population vivant avec moins de 1.90 USD par jour aux prix internationaux de 2011. En raison de la révision des taux de change en PPA, les taux de pauvreté pour les différents pays ne peuvent pas être comparés aux taux de pauvreté recensés lors des éditions précédentes. Banque mondiale, Groupe de recherche en Développement. Les données sont obtenues à partir des enquêtes auprès des ménages en provenance des agences de statistique et des départements pays de la Banque Mondiale. Les données sur les économies à revenu élevé sont extraites de la base de données Luxembourg Income Study. Pour davantage d'informations et pour des précisions sur la méthodologie, veuillez consulter PovcalNet :
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : "Le ratio de pauvreté par habitant à 1.90 USD par jour correspond au pourcentage de la population vivant avec moins de 1.90 USD par jour aux prix internationaux de 2011. En raison de la révision des taux de change en PPA, les taux de pauvreté pour les différents pays ne peuvent pas être comparés aux taux de pauvreté recensés lors des éditions précédentes. Banque mondiale, Groupe de recherche en Développement. Les données sont obtenues à partir des enquêtes auprès des ménages en provenance des agences de statistique et des départements pays de la Banque Mondiale. Les données sur les économies à revenu élevé sont extraites de la base de données Luxembourg Income Study. Pour davantage d'informations et pour des précisions sur la méthodologie, veuillez consulter PovcalNet : http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>HDI</t>
@@ -243,8 +235,7 @@
     <t>Indice de développement humain (IDH)</t>
   </si>
   <si>
-    <t>A partir du Programme des Nations Unies pour le développement. D'après les documents de la Banque Mondiale : "L'indice de développement humain (IDH) est une mesure synthétique des réalisations moyennes dans les dimensions clés du développement humain : une vie longue et en bonne santé, de bonnes connaissances et un niveau de vie décent. L'IDH est la moyenne géométrique des valeurs normalisées pour chacune des trois dimensions ". Pour plus d'information, voir :
-http://hdr.undp.org/en/content/human-development-index-hdi</t>
+    <t>A partir du Programme des Nations Unies pour le développement. D'après les documents de la Banque Mondiale : "L'indice de développement humain (IDH) est une mesure synthétique des réalisations moyennes dans les dimensions clés du développement humain : une vie longue et en bonne santé, de bonnes connaissances et un niveau de vie décent. L'IDH est la moyenne géométrique des valeurs normalisées pour chacune des trois dimensions ". Pour plus d'information, voir : http://hdr.undp.org/en/content/human-development-index-hdi</t>
   </si>
   <si>
     <t>Données en ligne sur le développement humain du Programme des Nations Unies pour le développement (édition 2020)</t>
@@ -256,8 +247,7 @@
     <t>Indice de développement humain ajusté selon les inégalités (IDHI)</t>
   </si>
   <si>
-    <t>A partir du Programme des Nations Unies pour le développement. D'après les documents de la Banque Mondiale : "L'IHDI combine les réalisations moyennes d'un pays en matière de santé, d'éducation et de revenus qui sont réparties au sein dei la population du pays en "actualisant" la valeur moyenne de chaque dimension en fonction de son niveau d'inégalité."
-http://hdr.undp.org/en/content/inequality-adjusted-human-development-index-ihdi</t>
+    <t>A partir du Programme des Nations Unies pour le développement. D'après les documents de la Banque Mondiale : "L'IHDI combine les réalisations moyennes d'un pays en matière de santé, d'éducation et de revenus qui sont réparties au sein dei la population du pays en "actualisant" la valeur moyenne de chaque dimension en fonction de son niveau d'inégalité." http://hdr.undp.org/en/content/inequality-adjusted-human-development-index-ihdi</t>
   </si>
   <si>
     <t>2010-2019</t>
@@ -272,8 +262,7 @@
     <t>Croissance de la population (%)</t>
   </si>
   <si>
-    <t>Population dans un pays, un territoire ou une région au 1 er juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Pour plus d'information, voir :
-http://www.un.org/en/development/desa/population/</t>
+    <t>Population dans un pays, un territoire ou une région au 1 er juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Pour plus d'information, voir : http://www.un.org/en/development/desa/population/</t>
   </si>
   <si>
     <t>RlGDPPrCpGr</t>
@@ -285,8 +274,7 @@
     <t>Croissance réelle du PIB par habitant (%)</t>
   </si>
   <si>
-    <t>Calculs des auteurs basés sur les estimations de la croissance du PIB réel issues des Perspectives de l'économie mondiale et des estimations de la croissance démographique d'après Perspectives démographiques du monde. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Voir les notes sur la croissance démographique et la croissance du PIB réel pour plus d’informations.
-https://population.un.org/wup/</t>
+    <t>Calculs des auteurs basés sur les estimations de la croissance du PIB réel issues des Perspectives de l'économie mondiale et des estimations de la croissance démographique d'après Perspectives démographiques du monde. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Voir les notes sur la croissance démographique et la croissance du PIB réel pour plus d’informations. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>Population et PIB(PPA)</t>
@@ -304,8 +292,7 @@
     <t>Population urbaine (milliers)</t>
   </si>
   <si>
-    <t>Estimation de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Les populations urbaines au 1er Juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Urbanization Prospects produites sur une période de cinq ans. Pour plus d'information, voir :
-https://population.un.org/wup/</t>
+    <t>Estimation de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Les populations urbaines au 1er Juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Urbanization Prospects produites sur une période de cinq ans. Pour plus d'information, voir : https://population.un.org/wup/</t>
   </si>
   <si>
     <t>Perspectives de l'urbanisation mondiale: la révision de 2018, ONU</t>
@@ -317,8 +304,7 @@
     <t>Population rurale (milliers)</t>
   </si>
   <si>
-    <t>Estimations de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Les populations rurales au 1er Juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir :
-https://population.un.org/wup/</t>
+    <t>Estimations de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Les populations rurales au 1er Juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir : https://population.un.org/wup/</t>
   </si>
   <si>
     <t>IntermCitPop</t>
@@ -328,8 +314,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA). 
-La somme des estimations de population pour des villes entre 300,000 et un million d'habitants. Les populations sont au 1er Juillet de l'année indiquée. Les chiffres sont communiqués par l'UNDESA sur une base quinquennale, une interpolation est donc utilisée pour produire des chiffres annuels.
-https://population.un.org/wup/</t>
+La somme des estimations de population pour des villes entre 300,000 et un million d'habitants. Les populations sont au 1er Juillet de l'année indiquée. Les chiffres sont communiqués par l'UNDESA sur une base quinquennale, une interpolation est donc utilisée pour produire des chiffres annuels. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>2000-2030</t>
@@ -341,8 +326,7 @@
     <t>Nombre d'agglomérations urbaines de 300 000 à un million d'habitants</t>
   </si>
   <si>
-    <t>Le nombre de villes dans les World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA), ayant 300,000 et un million d'habitants.
-https://population.un.org/wup/</t>
+    <t>Le nombre de villes dans les World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA), ayant 300,000 et un million d'habitants. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -355,8 +339,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA). 
-La somme des estimations de population pour des villes individuelles de plus d'un million d'habitants. Les populations sont reportées au 1er Juillet de l'année indiquée. Les chiffres sont communiqués par l'UNDESA sur une base quinquennale, une interpolation est donc utilisée pour produire des chiffres annuels.
-https://population.un.org/wup/</t>
+La somme des estimations de population pour des villes individuelles de plus d'un million d'habitants. Les populations sont reportées au 1er Juillet de l'année indiquée. Les chiffres sont communiqués par l'UNDESA sur une base quinquennale, une interpolation est donc utilisée pour produire des chiffres annuels. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>PrimCitNum</t>
@@ -365,8 +348,7 @@
     <t>Nombre d'agglomérations urbaines de plus d'un million d'habitants</t>
   </si>
   <si>
-    <t>Le nombre de villes dans les World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA), ayant au moins 1 million d'habitants.
-https://population.un.org/wup/</t>
+    <t>Le nombre de villes dans les World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA), ayant au moins 1 million d'habitants. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>OldDepRatio</t>
@@ -375,8 +357,7 @@
     <t>Taux de dépendance des personnes âgées 65+/(15-64)*100</t>
   </si>
   <si>
-    <t>Estimations par la Division de la population du Département des affaires économiques et sociales des Nations Unies. Ratio de la population estimée âgée de 65 ans et plus relative à la population estimée âgée de 15 à 64 ans inclusive, multiplié par 100. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Estimations par la Division de la population du Département des affaires économiques et sociales des Nations Unies. Ratio de la population estimée âgée de 65 ans et plus relative à la population estimée âgée de 15 à 64 ans inclusive, multiplié par 100. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -394,8 +375,7 @@
     <t>Taux de dépendance des enfants à charge &lt;15/(15-64)*100</t>
   </si>
   <si>
-    <t>Estimations par la Division de la population du Département des affaires économiques et sociales des Nations Unies. Ratio de la population estimée âgée de 65 ans et plus relative à la population estimée âgée de 15 à 64 ans inclusive, multiplié par 100. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Estimations par la Division de la population du Département des affaires économiques et sociales des Nations Unies. Ratio de la population estimée âgée de 65 ans et plus relative à la population estimée âgée de 15 à 64 ans inclusive, multiplié par 100. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>TotDepRatio</t>
@@ -404,8 +384,7 @@
     <t>Taux de dépendance total (taux de dépendance des enfants à charge + taux de dépendance des personnes âgées)</t>
   </si>
   <si>
-    <t>Calculs de l'auteur basés sur les estimations de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Somme des ratios de dépendance des enfants et des ratios de dépendance des personnes âgées. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Calculs de l'auteur basés sur les estimations de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Somme des ratios de dépendance des enfants et des ratios de dépendance des personnes âgées. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>LitRt15T24</t>
@@ -417,8 +396,7 @@
     <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, les deux sexes (%)</t>
   </si>
   <si>
-    <t>A partir de l'Institut de statistiques de l'UNESCO Objectifs de développement durable 1 et 4 : 4.6.2 Taux d’alphabétisme des jeunes/adultes Selon le site Web de l'Institut de statistique de l'UNESCO, il s'agit du pourcentage de personnes âgées de 15 à 24 ans qui savent lire et écrire avec compréhension une courte déclaration simple sur leur vie quotidienne. En règle générale, le terme «alphabétisation» englobe également le «calcul», la capacité de faire des calculs arithmétiques simples. Le taux d'alphabétisation des jeunes reflète les résultats du système d'enseignement primaire au cours des 10 dernières années et est souvent considéré comme une mesure indirecte du progrès social et de la réussite économique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir :
-http://data.uis.unesco.org/</t>
+    <t>A partir de l'Institut de statistiques de l'UNESCO Objectifs de développement durable 1 et 4 : 4.6.2 Taux d’alphabétisme des jeunes/adultes Selon le site Web de l'Institut de statistique de l'UNESCO, il s'agit du pourcentage de personnes âgées de 15 à 24 ans qui savent lire et écrire avec compréhension une courte déclaration simple sur leur vie quotidienne. En règle générale, le terme «alphabétisation» englobe également le «calcul», la capacité de faire des calculs arithmétiques simples. Le taux d'alphabétisation des jeunes reflète les résultats du système d'enseignement primaire au cours des 10 dernières années et est souvent considéré comme une mesure indirecte du progrès social et de la réussite économique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir : http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>Base de données de l'Institut de statistique de l'UNESCO (ISU) (récupéré le 17/11/2021)</t>
@@ -430,8 +408,7 @@
     <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe féminin (%)</t>
   </si>
   <si>
-    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisation des jeunes femmes est le pourcentage de femmes âgées de 15 à 24 ans qui savent lire et écrire en comprenant une courte déclaration sur sa vie quotidienne. En règle générale, le terme «alphabétisation» englobe également le «calcul», la capacité de faire des calculs arithmétiques simples. Le taux d'alphabétisation des jeunes reflète les résultats du système d'enseignement primaire au cours des 10 dernières années et est souvent considéré comme une mesure indirecte du progrès social et de la réussite économique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir :
-http://data.uis.unesco.org/</t>
+    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisation des jeunes femmes est le pourcentage de femmes âgées de 15 à 24 ans qui savent lire et écrire en comprenant une courte déclaration sur sa vie quotidienne. En règle générale, le terme «alphabétisation» englobe également le «calcul», la capacité de faire des calculs arithmétiques simples. Le taux d'alphabétisation des jeunes reflète les résultats du système d'enseignement primaire au cours des 10 dernières années et est souvent considéré comme une mesure indirecte du progrès social et de la réussite économique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir : http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T24M</t>
@@ -440,8 +417,7 @@
     <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe masculin (%)</t>
   </si>
   <si>
-    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisation des jeunes hommes est le pourcentage d'hommes de 15 à 24 ans qui savent lire et écrire en comprenant une courte déclaration sur leur vie quotidienne. En général, « l'alphabétisation » englobe également « numératie », la capacité de faire des calculs arithmétiques simples. Le taux d'alphabétisation des jeunes reflète les résultats du système d'enseignement primaire au cours des 10 dernières années, et est souvent considéré comme une mesure approximative du progrès social et de la performance économique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir :
-http://data.uis.unesco.org/</t>
+    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisation des jeunes hommes est le pourcentage d'hommes de 15 à 24 ans qui savent lire et écrire en comprenant une courte déclaration sur leur vie quotidienne. En général, « l'alphabétisation » englobe également « numératie », la capacité de faire des calculs arithmétiques simples. Le taux d'alphabétisation des jeunes reflète les résultats du système d'enseignement primaire au cours des 10 dernières années, et est souvent considéré comme une mesure approximative du progrès social et de la performance économique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir : http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T24GPIA</t>
@@ -450,8 +426,7 @@
     <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, indice ajusté de parité entre les sexes (IPSA)</t>
   </si>
   <si>
-    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Rapport entre les valeurs féminines et masculines du taux d'alphabétisation des jeunes. Indice de parité entre les sexes (IPS) : un IPS égal à 1 indique une parité entre femmes et hommes. En général, une valeur inférieure à 1 indique une disparité en faveur des garçons et une valeur supérieure à 1 indique une disparité en faveur des filles. Toutefois, l'interprétation devrait être inversée pour les indicateurs qui devraient idéalement s'approcher de 0% (par exemple, taux de redoublement, d'abandon scolaire, taux d'analphabétisme, etc.). Dans ces cas, un IPS inférieur à 1 indique une disparité en faveur des filles et une valeur supérieure à 1 indique une disparité en faveur des garçons. À partir de septembre 2020, tous les indices de parité sont calculés avec la formule des indices de parité ajustés (IPSA). L'indice de parité sans ajustement n'indique pas si l'amélioration ou la régression est due à la performance de l'un des groupes. La méthode de calcul par défaut de l'indice de parité donne un indicateur qui n'est pas symétrique autour de 1 et qui n'a pas de limite supérieure. Cette limite peut être surmontée par une simple transformation, en inversant les quotients supérieurs à 1 et en les soustrayant de 2. Cet indice de parité ajusté est symétrique autour de 1 et se situe dans la plage 0-2, ce qui facilite l'interprétation. Pour plus d'informations, voir :
-http://data.uis.unesco.org/</t>
+    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Rapport entre les valeurs féminines et masculines du taux d'alphabétisation des jeunes. Indice de parité entre les sexes (IPS) : un IPS égal à 1 indique une parité entre femmes et hommes. En général, une valeur inférieure à 1 indique une disparité en faveur des garçons et une valeur supérieure à 1 indique une disparité en faveur des filles. Toutefois, l'interprétation devrait être inversée pour les indicateurs qui devraient idéalement s'approcher de 0% (par exemple, taux de redoublement, d'abandon scolaire, taux d'analphabétisme, etc.). Dans ces cas, un IPS inférieur à 1 indique une disparité en faveur des filles et une valeur supérieure à 1 indique une disparité en faveur des garçons. À partir de septembre 2020, tous les indices de parité sont calculés avec la formule des indices de parité ajustés (IPSA). L'indice de parité sans ajustement n'indique pas si l'amélioration ou la régression est due à la performance de l'un des groupes. La méthode de calcul par défaut de l'indice de parité donne un indicateur qui n'est pas symétrique autour de 1 et qui n'a pas de limite supérieure. Cette limite peut être surmontée par une simple transformation, en inversant les quotients supérieurs à 1 et en les soustrayant de 2. Cet indice de parité ajusté est symétrique autour de 1 et se situe dans la plage 0-2, ce qui facilite l'interprétation. Pour plus d'informations, voir : http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99</t>
@@ -460,8 +435,7 @@
     <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, les deux sexes (%)</t>
   </si>
   <si>
-    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisme des adultes est le pourcentage de la population (âgée de 15 ans et plus) (comprenant les deux sexes) capable de lire et d'écrire avec compréhension, une simple déclaration sur sa vie quotidienne. Un taux élevé d’alphabétisation (ou un faible taux d’analphabétisme) suggère l’existence d’un système efficace d’enseignement primaire et / ou de programmes d’alphabétisation qui ont permis à une grande partie de la population d’acquérir la capacité d’écrire (et de faire de simples calculs arithmétiques) Il est de pratique courante de présenter et d’analyser les taux d’alphabétisation en même temps que le nombre absolu d’analphabètes adultes et s l'amélioration des taux d'alphabétisation peut parfois s'accompagner d'une augmentation de la population analphabète en raison de l'évolution de la structure démographique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir :
-http://data.uis.unesco.org/</t>
+    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisme des adultes est le pourcentage de la population (âgée de 15 ans et plus) (comprenant les deux sexes) capable de lire et d'écrire avec compréhension, une simple déclaration sur sa vie quotidienne. Un taux élevé d’alphabétisation (ou un faible taux d’analphabétisme) suggère l’existence d’un système efficace d’enseignement primaire et / ou de programmes d’alphabétisation qui ont permis à une grande partie de la population d’acquérir la capacité d’écrire (et de faire de simples calculs arithmétiques) Il est de pratique courante de présenter et d’analyser les taux d’alphabétisation en même temps que le nombre absolu d’analphabètes adultes et s l'amélioration des taux d'alphabétisation peut parfois s'accompagner d'une augmentation de la population analphabète en raison de l'évolution de la structure démographique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir : http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99F</t>
@@ -470,8 +444,7 @@
     <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, de sexe féminin (%)</t>
   </si>
   <si>
-    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisation des femmes adultes est le pourcentage de femmes âgées de 15 ans et plus qui savent lire et écrire en comprenant une courte déclaration sur sa vie quotidienne. En général, l'alphabétisation englobe la capacité de faire des calculs arithmétiques simples. L’analphabétisme des adultes est défini comme le pourcentage de la population âgée de 15 ans et plus qui ne sait pas à la fois lire et écrire en comprenant un bref énoncé simple de sa vie quotidienne. Un taux élevé d’alphabétisation (ou faible taux d'analphabétisme) suggère l'existence d'un système d'éducation primaire et / ou de programmes d'alphabétisation efficace qui a permis à une grande partie de la population d'acquérir la capacité d'utiliser l'écrit (et de faire de simples calculs arithmétiques) dans la vie quotidienne et de continuer à apprendre Il est de pratique courante de présenter et d’analyser les taux d’alphabétisation ainsi que le nombre absolu d’analphabètes adultes à les taux peuvent parfois s'accompagner d'une augmentation de la population analphabète en raison de l'évolution de la structure démographique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir :
-http://data.uis.unesco.org/</t>
+    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisation des femmes adultes est le pourcentage de femmes âgées de 15 ans et plus qui savent lire et écrire en comprenant une courte déclaration sur sa vie quotidienne. En général, l'alphabétisation englobe la capacité de faire des calculs arithmétiques simples. L’analphabétisme des adultes est défini comme le pourcentage de la population âgée de 15 ans et plus qui ne sait pas à la fois lire et écrire en comprenant un bref énoncé simple de sa vie quotidienne. Un taux élevé d’alphabétisation (ou faible taux d'analphabétisme) suggère l'existence d'un système d'éducation primaire et / ou de programmes d'alphabétisation efficace qui a permis à une grande partie de la population d'acquérir la capacité d'utiliser l'écrit (et de faire de simples calculs arithmétiques) dans la vie quotidienne et de continuer à apprendre Il est de pratique courante de présenter et d’analyser les taux d’alphabétisation ainsi que le nombre absolu d’analphabètes adultes à les taux peuvent parfois s'accompagner d'une augmentation de la population analphabète en raison de l'évolution de la structure démographique. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir : http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99M</t>
@@ -480,8 +453,7 @@
     <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, de sexe masculin (%)</t>
   </si>
   <si>
-    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisation des adultes est le pourcentage d'hommes de 15 ans et plus qui savent lire et écrire en comprenant une courte déclaration sur sa vie quotidienne. En général, l'alphabétisation englobe aussi le calcul L’analphabétisme chez les adultes est défini comme le pourcentage de la population âgée de 15 ans et plus qui ne sait ni lire, ni écrire avec une compréhension simple et concise de sa vie quotidienne. Un taux élevé d’alphabétisation (ou bas taux d’analphabétisme) suggère l’existence d’un système efficace d’enseignement primaire et / ou de programmes d’alphabétisation qui ont permis à une grande partie de la population d’acquérir la capacité d’utiliser l’écrit (et de faire de simples calculs arithmétiques) dans la vie quotidienne et de continuer à apprendre. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir :
-http://data.uis.unesco.org/</t>
+    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Selon le site Web de l'Institut de statistique de l'UNESCO, le taux d'alphabétisation des adultes est le pourcentage d'hommes de 15 ans et plus qui savent lire et écrire en comprenant une courte déclaration sur sa vie quotidienne. En général, l'alphabétisation englobe aussi le calcul L’analphabétisme chez les adultes est défini comme le pourcentage de la population âgée de 15 ans et plus qui ne sait ni lire, ni écrire avec une compréhension simple et concise de sa vie quotidienne. Un taux élevé d’alphabétisation (ou bas taux d’analphabétisme) suggère l’existence d’un système efficace d’enseignement primaire et / ou de programmes d’alphabétisation qui ont permis à une grande partie de la population d’acquérir la capacité d’utiliser l’écrit (et de faire de simples calculs arithmétiques) dans la vie quotidienne et de continuer à apprendre. Basé sur le recensement national de la population; enquêtes auprès des ménages et / ou de la population active. Pour plus d'information, voir : http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99GPIA</t>
@@ -490,8 +462,7 @@
     <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, indice ajusté de parité hommes-femmes (IPSA)</t>
   </si>
   <si>
-    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Ratios ajustés des taux d'alphabétisation des femmes et des hommes adultes. Indice de parité entre les sexes (IPS) : un IPS égal à 1 indique une parité entre femmes et hommes. En général, une valeur inférieure à 1 indique une disparité en faveur des hommes et une valeur supérieure à 1 indique une disparité en faveur des femmes. Toutefois, l'interprétation devrait être inversée pour les indicateurs qui devraient idéalement s'approcher de 0% (par exemple, taux de redoublement, d'abandon scolaire, taux d'analphabétisme, etc.). Dans ces cas, un IPS inférieur à 1 indique une disparité en faveur des femmes et une valeur supérieure à 1 indique une disparité en faveur des hommes. À partir de septembre 2020, tous les indices de parité sont calculés avec la formule des indices de parité ajustés (IPSA). L'indice de parité sans ajustement n'indique pas si l'amélioration ou la régression est due à la performance de l'un des groupes. La méthode de calcul par défaut de l'indice de parité donne un indicateur qui n'est pas symétrique autour de 1 et qui n'a pas de limite supérieure. Cette limite peut être surmontée par une simple transformation, en inversant les quotients supérieurs à 1 et en les soustrayant de 2. Cet indice de parité ajusté est symétrique autour de 1 et se situe dans la plage 0-2, ce qui facilite l'interprétation. Pour plus d'informations, voir :
-http://data.uis.unesco.org/</t>
+    <t>A partir de l'Institut de statistique de l'UNESCO, Objectifs de développement durable 1 et 4: 4.6.2 Taux d'alphabétisation des jeunes / adultes Ratios ajustés des taux d'alphabétisation des femmes et des hommes adultes. Indice de parité entre les sexes (IPS) : un IPS égal à 1 indique une parité entre femmes et hommes. En général, une valeur inférieure à 1 indique une disparité en faveur des hommes et une valeur supérieure à 1 indique une disparité en faveur des femmes. Toutefois, l'interprétation devrait être inversée pour les indicateurs qui devraient idéalement s'approcher de 0% (par exemple, taux de redoublement, d'abandon scolaire, taux d'analphabétisme, etc.). Dans ces cas, un IPS inférieur à 1 indique une disparité en faveur des femmes et une valeur supérieure à 1 indique une disparité en faveur des hommes. À partir de septembre 2020, tous les indices de parité sont calculés avec la formule des indices de parité ajustés (IPSA). L'indice de parité sans ajustement n'indique pas si l'amélioration ou la régression est due à la performance de l'un des groupes. La méthode de calcul par défaut de l'indice de parité donne un indicateur qui n'est pas symétrique autour de 1 et qui n'a pas de limite supérieure. Cette limite peut être surmontée par une simple transformation, en inversant les quotients supérieurs à 1 et en les soustrayant de 2. Cet indice de parité ajusté est symétrique autour de 1 et se situe dans la plage 0-2, ce qui facilite l'interprétation. Pour plus d'informations, voir : http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>WittMedLowEd15PL</t>
@@ -503,8 +474,7 @@
     <t>Pourcentage de la population de 15 ans et plus n'ayant pas atteint le niveau primaire (scénario moyen)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus correspond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus correspond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>Ratio des sommes</t>
@@ -525,8 +495,7 @@
     <t>Pourcentage de la population de 15 ans et plus ayant une éducation primaire mais pas secondaire (scénario moyen)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et pluscorrespond aux individus ayant une éducation primaire ou secondaire inférieur, mais pas une éducation secondaire supérieure. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et pluscorrespond aux individus ayant une éducation primaire ou secondaire inférieur, mais pas une éducation secondaire supérieure. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittMedScndPL15PL</t>
@@ -535,8 +504,7 @@
     <t>Pourcentage de la population de 15 ans et plus ayant au moins une éducation secondaire (scénario moyen)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus correspond aux indivduas ayant atteint l'enseignement secondaire ou supérieur (y compris le deuxième cycle du secondaire, le postsecondaire, le court postsecondaire, le baccalauréat ou la maîtrise et plus). Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus correspond aux indivduas ayant atteint l'enseignement secondaire ou supérieur (y compris le deuxième cycle du secondaire, le postsecondaire, le court postsecondaire, le baccalauréat ou la maîtrise et plus). Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclLowEd15PL</t>
@@ -545,8 +513,7 @@
     <t>Pourcentage de la population âgée de 15 ans et plus n'ayant pas terminé l'enseignement primaire (scénario accéléré)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus correspond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus correspond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclPrim15PL</t>
@@ -555,8 +522,7 @@
     <t>Pourcentage de la population âgée de 15 ans et plus ayant une éducation primaire mais pas secondaire (scénario accéléré)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus identifiée correspond aux individus ayant une éducation primaire ou secondaire inférieur, mais pas une éducation secondaire supérieure. Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus identifiée correspond aux individus ayant une éducation primaire ou secondaire inférieur, mais pas une éducation secondaire supérieure. Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclScndPL15PL</t>
@@ -565,8 +531,7 @@
     <t>Pourcentage de la population âgée de 15 ans et plus ayant au moins une éducation secondaire (scénario accéléré)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et pluscorrespond aux individus ayant atteint l'enseignement secondaire ou supérieur (y compris le deuxième cycle du secondaire, le postsecondaire, le court postsecondaire, le baccalauréat ou la maîtrise et plus) Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Cela est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés sur:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et pluscorrespond aux individus ayant atteint l'enseignement secondaire ou supérieur (y compris le deuxième cycle du secondaire, le postsecondaire, le court postsecondaire, le baccalauréat ou la maîtrise et plus) Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Cela est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés sur: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittMedLowEd1529</t>
@@ -578,8 +543,7 @@
     <t>Population âgée de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario moyen)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans correspond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans correspond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittMedPrim1529</t>
@@ -588,8 +552,7 @@
     <t>Population âgée de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario moyen)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans correspond aux individus ayant une éducation primaire ou secondaire inférieur, mais pas une éducation secondaire supérieure. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans correspond aux individus ayant une éducation primaire ou secondaire inférieur, mais pas une éducation secondaire supérieure. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittMedScndPL1529</t>
@@ -598,8 +561,7 @@
     <t>Population âgée de 15 à 29 ans ayant au moins une éducation secondaire (scénario moyen)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans correspond aux individus ayant atteint l'enseignement secondaire ou supérieur (y compris le deuxième cycle du secondaire, le postsecondaire, le court postsecondaire, le baccalauréat ou la maîtrise et plus). Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans correspond aux individus ayant atteint l'enseignement secondaire ou supérieur (y compris le deuxième cycle du secondaire, le postsecondaire, le court postsecondaire, le baccalauréat ou la maîtrise et plus). Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclLowEd1529</t>
@@ -608,8 +570,7 @@
     <t>Population âgée de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario accéléré)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 anscorrespond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 anscorrespond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclPrim1529</t>
@@ -618,8 +579,7 @@
     <t>Population âgée de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario accéléré)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans identifiée correspond aux individus ayant une éducation primaire ou secondaire inférieur, mais pas une éducation secondaire supérieure. Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans identifiée correspond aux individus ayant une éducation primaire ou secondaire inférieur, mais pas une éducation secondaire supérieure. Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclScndPL1529</t>
@@ -628,8 +588,7 @@
     <t>Population âgée de 15 à 29 ans ayant au moins une éducation secondaire (scénario accéléré)</t>
   </si>
   <si>
-    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans correspond aux individus ayant atteint l'enseignement secondaire ou supérieur (y compris le deuxième cycle du secondaire, le postsecondaire, le court postsecondaire, le baccalauréat ou la maîtrise et plus). Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale âgée de 15 à 29 ans correspond aux individus ayant atteint l'enseignement secondaire ou supérieur (y compris le deuxième cycle du secondaire, le postsecondaire, le court postsecondaire, le baccalauréat ou la maîtrise et plus). Le Wittgenstein Center applique un modèle de scénario de développement rapide de la croissance démographique et du niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le suppose un avenir qui évolue vers une voie plus durable, avec des investissements dans l'éducation et la santé accélérant la transition démographique, conduisant à une population mondiale relativement faible. L'accent est mis sur le renforcement du bien-être humain. Ceci est associé à une éducation élevée, une faible mortalité et une faible fécondité. Les niveaux de migration sont supposés être moyens pour tous les pays dans ce scénario. Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>EmpRateFemale</t>
@@ -653,8 +612,7 @@
     <t>Pourcentage de travailleurs ayant un emploi vulnérable</t>
   </si>
   <si>
-    <t>Calculé comme la somme des travailleurs pour leur propre compte et des travailleurs familiaux collaborant à l'entreprise familiale, exprimée en pourcentage de tous les travailleurs.
-https://www.ilo.org/ilostat-files/Documents/description_STE_FR.pdf</t>
+    <t>Calculé comme la somme des travailleurs pour leur propre compte et des travailleurs familiaux collaborant à l'entreprise familiale, exprimée en pourcentage de tous les travailleurs. https://www.ilo.org/ilostat-files/Documents/description_STE_FR.pdf</t>
   </si>
   <si>
     <t>Employees</t>
@@ -664,8 +622,7 @@
   </si>
   <si>
     <t>Estimations modélisées de l'OIT, Novembre 2019
-Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Calculé comme la somme des travailleurs pour leur propre compte et des travailleurs familiaux collaborant à l'entreprise familiale, exprimée en pourcentage de tous les travailleurs. Les salariés sont tous les travailleurs qui occupent un emploi défini comme «emploi rémunéré» dont les titulaires ont des contrats explicites (écrits ou oraux) ou implicites, qui leur donnent droit à une rémunération de base qui n’est pas directement dépendante du revenu de l’unité pour laquelle ils travaillent. Les employeurs sont les personnes qui, travaillant pour leur propre compte ou avec un ou plusieurs associés, occupent le type d’emploi défini comme «emploi indépendant» (c’est-à-dire les emplois dont la rémunération est directement dépendante des bénéfices provenant des biens ou services produits) et qui, à ce titre, engagent sur une période continue une ou plusieurs personnes pour travailler dans leur entreprise en tant que salarié(s).Les personnes indépendants sont les personnes qui, travaillant pour leur propre compte ou avec un ou plusieurs associés, occupent un emploi défini comme «emploi à titre indépendant» et qui n’ont engagé continûment aucun salarié pour travailler avec eux. Les membres des coopératives de producteurs sont les personnes qui occupent un «emploi indépendant» dans une coopérative produisant des biens et des services. Les travailleurs familiaux collaborant à l’entreprise familiale sont les personnes qui occupent un «emploi indépendant» en tant que travailleurs à leur propre compte dans une entreprise orientée vers le marché et exploitée par un parent vivant dans le même ménage. Pour plus d'information, voir:
-https://www.ilo.org/ilostat-files/Documents/description_STE_FR.pdf</t>
+Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Calculé comme la somme des travailleurs pour leur propre compte et des travailleurs familiaux collaborant à l'entreprise familiale, exprimée en pourcentage de tous les travailleurs. Les salariés sont tous les travailleurs qui occupent un emploi défini comme «emploi rémunéré» dont les titulaires ont des contrats explicites (écrits ou oraux) ou implicites, qui leur donnent droit à une rémunération de base qui n’est pas directement dépendante du revenu de l’unité pour laquelle ils travaillent. Les employeurs sont les personnes qui, travaillant pour leur propre compte ou avec un ou plusieurs associés, occupent le type d’emploi défini comme «emploi indépendant» (c’est-à-dire les emplois dont la rémunération est directement dépendante des bénéfices provenant des biens ou services produits) et qui, à ce titre, engagent sur une période continue une ou plusieurs personnes pour travailler dans leur entreprise en tant que salarié(s).Les personnes indépendants sont les personnes qui, travaillant pour leur propre compte ou avec un ou plusieurs associés, occupent un emploi défini comme «emploi à titre indépendant» et qui n’ont engagé continûment aucun salarié pour travailler avec eux. Les membres des coopératives de producteurs sont les personnes qui occupent un «emploi indépendant» dans une coopérative produisant des biens et des services. Les travailleurs familiaux collaborant à l’entreprise familiale sont les personnes qui occupent un «emploi indépendant» en tant que travailleurs à leur propre compte dans une entreprise orientée vers le marché et exploitée par un parent vivant dans le même ménage. Pour plus d'information, voir: https://www.ilo.org/ilostat-files/Documents/description_STE_FR.pdf</t>
   </si>
   <si>
     <t>Employers</t>
@@ -675,8 +632,7 @@
   </si>
   <si>
     <t>Estimations modélisées de l'OIT, novembre 2019
-Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Calculé comme la somme des travailleurs pour leur propre compte et des travailleurs familiaux collaborant à l'entreprise familiale, exprimée en pourcentage de tous les travailleurs. Les salariés sont tous les travailleurs qui occupent un emploi défini comme «emploi rémunéré» dont les titulaires ont des contrats explicites (écrits ou oraux) ou implicites, qui leur donnent droit à une rémunération de base qui n’est pas directement dépendante du revenu de l’unité pour laquelle ils travaillent. Les employeurs sont les personnes qui, travaillant pour leur propre compte ou avec un ou plusieurs associés, occupent le type d’emploi défini comme «emploi indépendant» (c’est-à-dire les emplois dont la rémunération est directement dépendante des bénéfices provenant des biens ou services produits) et qui, à ce titre, engagent sur une période continue une ou plusieurs personnes pour travailler dans leur entreprise en tant que salarié(s).Les personnes travaillant pour leur propre compte sont les personnes qui, travaillant pour leur propre compte ou avec un ou plusieurs associés, occupent un emploi défini comme «emploi à titre indépendant» et qui n’ont engagé continûment aucun salarié pour travailler avec eux. Les membres des coopératives de producteurs sont les personnes qui occupent un «emploi indépendant» dans une coopérative produisant des biens et des services. Les travailleurs familiaux collaborant à l’entreprise familiale sont les personnes qui occupent un «emploi indépendant» en tant que travailleurs à leur propre compte dans une entreprise orientée vers le marché et exploitée par un parent vivant dans le même ménage. Pour plus d'information, voir:
-https://www.ilo.org/ilostat-files/Documents/description_STE_FR.pdf</t>
+Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Calculé comme la somme des travailleurs pour leur propre compte et des travailleurs familiaux collaborant à l'entreprise familiale, exprimée en pourcentage de tous les travailleurs. Les salariés sont tous les travailleurs qui occupent un emploi défini comme «emploi rémunéré» dont les titulaires ont des contrats explicites (écrits ou oraux) ou implicites, qui leur donnent droit à une rémunération de base qui n’est pas directement dépendante du revenu de l’unité pour laquelle ils travaillent. Les employeurs sont les personnes qui, travaillant pour leur propre compte ou avec un ou plusieurs associés, occupent le type d’emploi défini comme «emploi indépendant» (c’est-à-dire les emplois dont la rémunération est directement dépendante des bénéfices provenant des biens ou services produits) et qui, à ce titre, engagent sur une période continue une ou plusieurs personnes pour travailler dans leur entreprise en tant que salarié(s).Les personnes travaillant pour leur propre compte sont les personnes qui, travaillant pour leur propre compte ou avec un ou plusieurs associés, occupent un emploi défini comme «emploi à titre indépendant» et qui n’ont engagé continûment aucun salarié pour travailler avec eux. Les membres des coopératives de producteurs sont les personnes qui occupent un «emploi indépendant» dans une coopérative produisant des biens et des services. Les travailleurs familiaux collaborant à l’entreprise familiale sont les personnes qui occupent un «emploi indépendant» en tant que travailleurs à leur propre compte dans une entreprise orientée vers le marché et exploitée par un parent vivant dans le même ménage. Pour plus d'information, voir: https://www.ilo.org/ilostat-files/Documents/description_STE_FR.pdf</t>
   </si>
   <si>
     <t>OwnAccount</t>
@@ -700,8 +656,7 @@
     <t>Rente pétroliere (% du PIB)</t>
   </si>
   <si>
-    <t>Données de la Banque Mondiale. La rente pétrolière représente la différence entre la valeur de la production de pétrole brut aux prix régionaux et le coût total de la production. Les estimations des rentes tirées des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit de base et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Estimations du personnel de la Banque Mondiale basées sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019).
-https://donnees.banquemondiale.org/</t>
+    <t>Données de la Banque Mondiale. La rente pétrolière représente la différence entre la valeur de la production de pétrole brut aux prix régionaux et le coût total de la production. Les estimations des rentes tirées des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit de base et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Estimations du personnel de la Banque Mondiale basées sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). https://donnees.banquemondiale.org/</t>
   </si>
   <si>
     <t>MinRent</t>
@@ -710,8 +665,7 @@
     <t>Rente tirée des minéraux (% du PIB)</t>
   </si>
   <si>
-    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : La rente pétrolière représente la différence entre la valeur de la production de pétrole brut aux prix régionaux et le coût total de la production. Les estimations des rentes tirées des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit de base et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Estimations faites par le personnel de la Banque Mondiale basées sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). Pour plus d'informations, voir :
-https://donnees.banquemondiale.org/</t>
+    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : La rente pétrolière représente la différence entre la valeur de la production de pétrole brut aux prix régionaux et le coût total de la production. Les estimations des rentes tirées des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit de base et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Estimations faites par le personnel de la Banque Mondiale basées sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). Pour plus d'informations, voir : https://donnees.banquemondiale.org/</t>
   </si>
   <si>
     <t>TotNRRent</t>
@@ -720,8 +674,7 @@
     <t>Rente tirée des ressources naturelles totales (% du PIB)</t>
   </si>
   <si>
-    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : Les rentes des minéraux correspondent à la différence entre la valeur de la production d'un stock de minéraux aux prix mondiaux et leurs coûts totaux de production. Les minéraux considérés sont l’étain, l’or, le plomb, le zinc, le fer, le cuivre, le nickel, l’argent, la bauxite et le phosphate. Estimations faites par le personnel de la Banque Mondiale en se basant sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). Les estimations des rentes tireés des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Pour plus d'informations, voir :
-https://donnees.banquemondiale.org/</t>
+    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : Les rentes des minéraux correspondent à la différence entre la valeur de la production d'un stock de minéraux aux prix mondiaux et leurs coûts totaux de production. Les minéraux considérés sont l’étain, l’or, le plomb, le zinc, le fer, le cuivre, le nickel, l’argent, la bauxite et le phosphate. Estimations faites par le personnel de la Banque Mondiale en se basant sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). Les estimations des rentes tireés des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Pour plus d'informations, voir : https://donnees.banquemondiale.org/</t>
   </si>
   <si>
     <t>AgrFrPerGDP</t>
@@ -730,8 +683,7 @@
     <t>Agriculture, chasse, sylviculture, pêche: valeur ajoutée (% du PIB)</t>
   </si>
   <si>
-    <t>Agriculture, chasse, sylviculture, pêche, valeur ajoutée en % du PIB (catégories A-B de la classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Agriculture, chasse, sylviculture, pêche, valeur ajoutée en % du PIB (catégories A-B de la classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>PIB en dollars US</t>
@@ -746,8 +698,7 @@
     <t>Mines, fabrication, services publics: valeur ajoutée (% du PIB)</t>
   </si>
   <si>
-    <t>Valeur ajoutée des industries extractives, de la fabrication et des services publics en % du PIB (catégories C-E de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Valeur ajoutée des industries extractives, de la fabrication et des services publics en % du PIB (catégories C-E de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>CnstrPerGDP</t>
@@ -756,8 +707,7 @@
     <t>Construction: valeur ajoutée (% du PIB)</t>
   </si>
   <si>
-    <t>Construction en % du PIB (catégories F de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Construction en % du PIB (catégories F de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>TrdHsPerGDP</t>
@@ -766,8 +716,7 @@
     <t>Commerce de gros, commerce de détail, restaurants et hôtels: valeur ajoutée (% du PIB)</t>
   </si>
   <si>
-    <t>Valeur ajoutée du commerce de gros, du commerce de détail, des restaurants et des hôtels en % du PIB (catégories G-H de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Valeur ajoutée du commerce de gros, du commerce de détail, des restaurants et des hôtels en % du PIB (catégories G-H de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>TnsCmPerGDP</t>
@@ -782,8 +731,7 @@
     <t>Autres activités: valeur ajoutée (% du PIB)</t>
   </si>
   <si>
-    <t>Valeur ajoutée des autres activités en % du PIB (catégories J-P de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Valeur ajoutée des autres activités en % du PIB (catégories J-P de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>ManufPerGDP</t>
@@ -792,8 +740,7 @@
     <t>Fabrication (incluse dans l'industrie): valeur ajoutée (% du PIB)</t>
   </si>
   <si>
-    <t>Valeur manufacturière ajoutée en % du PIB (catégories D de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Valeur manufacturière ajoutée en % du PIB (catégories D de la Classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>AgrEmpPerTot</t>
@@ -802,8 +749,7 @@
     <t>Emploi dans l'agriculture en % du total</t>
   </si>
   <si>
-    <t>Estimations modélisées de l'OIT, novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou pas en raison d'une absence temporaire de travail ou d'un aménagement du temps de travail. Le secteur de l’agriculture comprend les activités suivantes : agriculture, chasse, foresterie et pêche, conformément à la division 1 (CITI 2) ou aux catégories A-B (CITI 3) ou à la catégorie A (CITI 4). Données de ILOSTAT. Pour plus d'information, voir :
-https://www.ilo.org/ilostat-files/Documents/description_ECO_FR.pdf</t>
+    <t>Estimations modélisées de l'OIT, novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou pas en raison d'une absence temporaire de travail ou d'un aménagement du temps de travail. Le secteur de l’agriculture comprend les activités suivantes : agriculture, chasse, foresterie et pêche, conformément à la division 1 (CITI 2) ou aux catégories A-B (CITI 3) ou à la catégorie A (CITI 4). Données de ILOSTAT. Pour plus d'information, voir : https://www.ilo.org/ilostat-files/Documents/description_ECO_FR.pdf</t>
   </si>
   <si>
     <t>IndEmpPerTot</t>
@@ -812,8 +758,7 @@
     <t>Emploi dans l'industrie en % du total</t>
   </si>
   <si>
-    <t>Estimations modélisées de l'OIT, Novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou pas en raison d'une absence temporaire de travail ou d'un aménagement du temps de travail. Le secteur industriel comprend les industries extractives, la fabrication, la construction et les équipements collectifs (électricité, gaz et eau), conformément aux divisions 2-5 (CITI 2), aux catégories CF (CITI 3) ou aux catégories BF (CITI 4). Données de ILOSTAT. Pour plus d'information, voir :
-https://www.ilo.org/ilostat-files/Documents/description_ECO_FR.pdf</t>
+    <t>Estimations modélisées de l'OIT, Novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou pas en raison d'une absence temporaire de travail ou d'un aménagement du temps de travail. Le secteur industriel comprend les industries extractives, la fabrication, la construction et les équipements collectifs (électricité, gaz et eau), conformément aux divisions 2-5 (CITI 2), aux catégories CF (CITI 3) ou aux catégories BF (CITI 4). Données de ILOSTAT. Pour plus d'information, voir : https://www.ilo.org/ilostat-files/Documents/description_ECO_FR.pdf</t>
   </si>
   <si>
     <t>SrvEmpPerTot</t>
@@ -822,8 +767,7 @@
     <t>Emploi dans les services en % du total</t>
   </si>
   <si>
-    <t>Estimations modélisées de l'OIT, Novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou pas en raison d'une absence temporaire de travail ou d'un aménagement du temps de travail. Le secteur des services comprend le commerce de gros et de détail, la réparation de véhicules automobiles et de motocycles, les activités de transport, de stockage et de communication, d’hébergement et de restauration, les activités financières et de ressources, l’immobilier, les activités commerciales et administratives et d’autres services, selon les catégories. G, H, I, J, K, L, M, N, R, S, T, U (ISIC 4). Données de ILOSTAT. Pour plus d'information, voir :
-https://www.ilo.org/ilostat-files/Documents/description_ECO_FR.pdf</t>
+    <t>Estimations modélisées de l'OIT, Novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer des observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou pas en raison d'une absence temporaire de travail ou d'un aménagement du temps de travail. Le secteur des services comprend le commerce de gros et de détail, la réparation de véhicules automobiles et de motocycles, les activités de transport, de stockage et de communication, d’hébergement et de restauration, les activités financières et de ressources, l’immobilier, les activités commerciales et administratives et d’autres services, selon les catégories. G, H, I, J, K, L, M, N, R, S, T, U (ISIC 4). Données de ILOSTAT. Pour plus d'information, voir : https://www.ilo.org/ilostat-files/Documents/description_ECO_FR.pdf</t>
   </si>
   <si>
     <t>ManfEmpPerTot</t>
@@ -832,8 +776,7 @@
     <t>Emploi dans le secteur manufacturier (y compris dans l'industrie) en % du total</t>
   </si>
   <si>
-    <t>Estimations modélisées de l'OIT, Novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer les observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou pas en raison d'une absence temporaire de travail ou d'un aménagement du temps de travail. Le secteur manufacturier est conforme à la catégorie C (CITI 4). Pour plus d'informations, voir:
-https://www.ilo.org/ilostat-files/Documents/description_ECO_FR.pdf</t>
+    <t>Estimations modélisées de l'OIT, Novembre 2019 Les indicateurs du marché du travail sont estimés à l'aide d'une série de modèles, qui établissent des relations statistiques entre les indicateurs du marché du travail observés et les variables explicatives. Ces relations sont utilisées pour imputer les observations et faire des projections pour les indicateurs. Par emploi, on entend les personnes en âge de travailler qui ont exercé une activité quelconque dans le but de produire des biens ou de fournir des services marchands ou à but lucratifs, que ce soit sur le lieu de travail pendant la période de référence ou pas en raison d'une absence temporaire de travail ou d'un aménagement du temps de travail. Le secteur manufacturier est conforme à la catégorie C (CITI 4). Pour plus d'informations, voir: https://www.ilo.org/ilostat-files/Documents/description_ECO_FR.pdf</t>
   </si>
   <si>
     <t>PovHC320</t>
@@ -845,8 +788,7 @@
     <t>% de la population vivant sous 3.20 USD par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure</t>
   </si>
   <si>
-    <t>D'après les documents de la Banque mondiale: L'écart de pauvreté à 3.20 USD par jour (PPA 2011) correspond à l'écart moyen de revenu ou de consommation du seuil de pauvreté 3.20 USD par jour (le déficit étant nul pour les non pauvres), exprimé en pourcentage du seuil de pauvreté. Cette mesure reflète la profondeur de la pauvreté ainsi que son incidence. Banque mondiale, Groupe de recherche en Développement. Les données sont obtenues à partir des enquêtes auprès des ménages en provenance des agences de statistique des gouvernements et des départements par pays de la Banque Mondiale. Pour davantage d'informations et pour des précisions sur la méthodologie, veuillez consulter PovcalNet: (http://iresearch.worldbank.org/PovcalNet/index.htm).
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>D'après les documents de la Banque mondiale: L'écart de pauvreté à 3.20 USD par jour (PPA 2011) correspond à l'écart moyen de revenu ou de consommation du seuil de pauvreté 3.20 USD par jour (le déficit étant nul pour les non pauvres), exprimé en pourcentage du seuil de pauvreté. Cette mesure reflète la profondeur de la pauvreté ainsi que son incidence. Banque mondiale, Groupe de recherche en Développement. Les données sont obtenues à partir des enquêtes auprès des ménages en provenance des agences de statistique des gouvernements et des départements par pays de la Banque Mondiale. Pour davantage d'informations et pour des précisions sur la méthodologie, veuillez consulter PovcalNet: (http://iresearch.worldbank.org/PovcalNet/index.htm). http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>PovHC550</t>
@@ -855,8 +797,7 @@
     <t>% de la population vivant sous 3.20 USD par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure</t>
   </si>
   <si>
-    <t>L’intensité de la pauvreté est définie comme étant l’écart relatif entre le revenu moyen des personnes pauvres et le seuil de pauvreté. (OCDE). D'après les documents de la Banque Mondiale: L'intensité de la pauvreté à 5.50 USD par jour (PPA 2011) correspond au déficit moyen de revenu ou de consommation par rapport au seuil de pauvreté de 5.50 USD par jour (le déficit étant nul pour les non pauvres), exprimé en pourcentage du seuil de pauvreté. Cette mesure reflète l'intensité de la pauvreté ainsi que son incidence. Banque mondiale, Groupe de recherche en Développement. Les données sont obtenues à partir des enquêtes auprès des ménages en provenance des agences de statistique des gouvernements et des départements par pays de la Banque Mondiale. Pour davantage d'informations et pour des précisions sur la méthodologie, veuillez consulter PovcalNet (http://iresearch.worldbank.org/PovcalNet/index.htm).
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>L’intensité de la pauvreté est définie comme étant l’écart relatif entre le revenu moyen des personnes pauvres et le seuil de pauvreté. (OCDE). D'après les documents de la Banque Mondiale: L'intensité de la pauvreté à 5.50 USD par jour (PPA 2011) correspond au déficit moyen de revenu ou de consommation par rapport au seuil de pauvreté de 5.50 USD par jour (le déficit étant nul pour les non pauvres), exprimé en pourcentage du seuil de pauvreté. Cette mesure reflète l'intensité de la pauvreté ainsi que son incidence. Banque mondiale, Groupe de recherche en Développement. Les données sont obtenues à partir des enquêtes auprès des ménages en provenance des agences de statistique des gouvernements et des départements par pays de la Banque Mondiale. Pour davantage d'informations et pour des précisions sur la méthodologie, veuillez consulter PovcalNet (http://iresearch.worldbank.org/PovcalNet/index.htm). http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>ShareTop20</t>
@@ -865,8 +806,7 @@
     <t>Part des revenus détenus par les 20% de la population ayant les revenus les plus élevés (estimation de la Banque mondiale)</t>
   </si>
   <si>
-    <t>D'après les indicateurs de développement de la Banque mondiale. Revenu total attribué aux 20% de la population ayant les revenus les plus élevés. La base de données de suivi de la pauvreté de la Banque mondiale, comparable au plan international, s’appuie désormais sur des données détaillées sur le revenu ou sur la consommation tirées de plus de 1 600 enquêtes sur les ménages dans 164 pays de six régions et 25 autres pays à revenu élevé (économies industrialisées). Alors que les données sur la répartition des revenus sont publiées pour tous les pays pour lesquels des données sont disponibles, les données sur la pauvreté sont publiées pour les pays à revenu faible et intermédiaire et les pays pouvant bénéficier d'un prêt de la Banque mondiale (comme le Chili) et les pays récemment sortis (comme l'Estonie) uniquement. Voir PovcalNet pour les définitions des régions géographiques et des pays industrialisés. Les données sont basées surdes enquêtes primaires des ménages obtenues auprès d'agences statistiques gouvernementales et des départements de pays de la Banque mondiale. Pour plus d'informations et de méthodologie, veuillez consulter PovcalNet :
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>D'après les indicateurs de développement de la Banque mondiale. Revenu total attribué aux 20% de la population ayant les revenus les plus élevés. La base de données de suivi de la pauvreté de la Banque mondiale, comparable au plan international, s’appuie désormais sur des données détaillées sur le revenu ou sur la consommation tirées de plus de 1 600 enquêtes sur les ménages dans 164 pays de six régions et 25 autres pays à revenu élevé (économies industrialisées). Alors que les données sur la répartition des revenus sont publiées pour tous les pays pour lesquels des données sont disponibles, les données sur la pauvreté sont publiées pour les pays à revenu faible et intermédiaire et les pays pouvant bénéficier d'un prêt de la Banque mondiale (comme le Chili) et les pays récemment sortis (comme l'Estonie) uniquement. Voir PovcalNet pour les définitions des régions géographiques et des pays industrialisés. Les données sont basées surdes enquêtes primaires des ménages obtenues auprès d'agences statistiques gouvernementales et des départements de pays de la Banque mondiale. Pour plus d'informations et de méthodologie, veuillez consulter PovcalNet : http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>WrkPovRate15PL</t>
@@ -875,8 +815,7 @@
     <t>Taux de pauvreté des travailleurs, les deux sexes (population de 15 ans et plus)</t>
   </si>
   <si>
-    <t>De l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage d'employés vivant avec moins de 1.90 USD PPA) pour la population de 15 ans et plus (les deux sexes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter:
-https://ilostat.ilo.org/fr/topics/working-poor/</t>
+    <t>De l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage d'employés vivant avec moins de 1.90 USD PPA) pour la population de 15 ans et plus (les deux sexes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter: https://ilostat.ilo.org/fr/topics/working-poor/</t>
   </si>
   <si>
     <t>WrkPovRateFem15PL</t>
@@ -885,8 +824,7 @@
     <t>Taux de pauvreté des travailleurs, de sexe féminin (population de 15 ans et plus)</t>
   </si>
   <si>
-    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage d'employés vivant avec moins de 1.90 USD PPA) pour la population de 15 ans et plus (femmes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter:
-https://ilostat.ilo.org/fr/topics/working-poor/</t>
+    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage d'employés vivant avec moins de 1.90 USD PPA) pour la population de 15 ans et plus (femmes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter: https://ilostat.ilo.org/fr/topics/working-poor/</t>
   </si>
   <si>
     <t>WrkPovRateMal15PL</t>
@@ -895,8 +833,7 @@
     <t>Taux de pauvreté des travailleurs, de sexe masculin (population de 15 ans et plus)</t>
   </si>
   <si>
-    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage d'employés vivant avec moins de 1.90 USD PPA) pour la population de 15 ans et plus (hommes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter
-https://ilostat.ilo.org/fr/topics/working-poor/</t>
+    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage d'employés vivant avec moins de 1.90 USD PPA) pour la population de 15 ans et plus (hommes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter https://ilostat.ilo.org/fr/topics/working-poor/</t>
   </si>
   <si>
     <t>WrkPovRate1529</t>
@@ -905,8 +842,7 @@
     <t>Taux de pauvreté des travailleurs, les deux sexes (population de 15 à 29 ans)</t>
   </si>
   <si>
-    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage de travailleurs vivant avec moins de 1.90 USD PPA) pour la population âgée de 15 à 29 ans (les deux sexes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter:
-https://ilostat.ilo.org/fr/topics/working-poor/</t>
+    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage de travailleurs vivant avec moins de 1.90 USD PPA) pour la population âgée de 15 à 29 ans (les deux sexes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter: https://ilostat.ilo.org/fr/topics/working-poor/</t>
   </si>
   <si>
     <t>WrkPovRateFem1529</t>
@@ -915,8 +851,7 @@
     <t>Taux de pauvreté des travailleurs, de sexe féminin (population de 15 à 29 ans)</t>
   </si>
   <si>
-    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage de personnes occupées vivant avec moins de 1.90 USD PPA) pour la population âgée de 15 à 29 ans (femmes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter:
-https://ilostat.ilo.org/fr/topics/working-poor/</t>
+    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage de personnes occupées vivant avec moins de 1.90 USD PPA) pour la population âgée de 15 à 29 ans (femmes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter: https://ilostat.ilo.org/fr/topics/working-poor/</t>
   </si>
   <si>
     <t>WrkPovRateMal1529</t>
@@ -925,8 +860,7 @@
     <t>Taux de pauvreté des travailleurs, de sexe masculin (population de 15 à 29 ans)</t>
   </si>
   <si>
-    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage de personnes occupées vivant avec moins de 1.90 USD PPA) pour la population âgée de 15 à 29 ans (hommes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter:
-https://ilostat.ilo.org/fr/topics/working-poor/</t>
+    <t>A partir de l'Organisation internationale du travail. Taux de pauvreté au travail (pourcentage de personnes occupées vivant avec moins de 1.90 USD PPA) pour la population âgée de 15 à 29 ans (hommes). Le taux de pauvreté au travail exprime le pourcentage de personnes occupées vivant dans la pauvreté malgré leur emploi. La pauvreté est définie en utilisant le seuil de pauvreté international de 1.90 USD par jour en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter: https://ilostat.ilo.org/fr/topics/working-poor/</t>
   </si>
   <si>
     <t>OutputPerWrkPPP</t>
@@ -935,8 +869,7 @@
     <t>Production par travailleur (PIB en dollars internationaux constants de 2011 en PPA)</t>
   </si>
   <si>
-    <t>A partir de l'Organisation internationale du travail. La productivité du travail représente le volume total de la production (mesurée en termes de produit intérieur brut, PIB) produite par unité de travail (mesurée en termes de nombre de personnes occupées) au cours d'une période de référence donnée. L'indicateur permet aux utilisateurs de données d'évaluer les niveaux d'intrants PIB-main-d'œuvre et les taux de croissance au fil du temps, fournissant ainsi des informations générales sur l'efficacité et la qualité du capital humain dans le processus de production dans un contexte économique et social donné. ILOSTAT présente des estimations et des projections modélisées de l'OIT de la productivité du travail, à la fois en dollars américains constants de 2005 et en dollars internationaux constants de 2011 en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter:
-https://ilostat.ilo.org/fr/resources/concepts-and-definitions/description-labour-productivity/</t>
+    <t>A partir de l'Organisation internationale du travail. La productivité du travail représente le volume total de la production (mesurée en termes de produit intérieur brut, PIB) produite par unité de travail (mesurée en termes de nombre de personnes occupées) au cours d'une période de référence donnée. L'indicateur permet aux utilisateurs de données d'évaluer les niveaux d'intrants PIB-main-d'œuvre et les taux de croissance au fil du temps, fournissant ainsi des informations générales sur l'efficacité et la qualité du capital humain dans le processus de production dans un contexte économique et social donné. ILOSTAT présente des estimations et des projections modélisées de l'OIT de la productivité du travail, à la fois en dollars américains constants de 2005 et en dollars internationaux constants de 2011 en parité de pouvoir d'achat (PPA). Pour plus d'informations et de méthodologie, veuillez consulter: https://ilostat.ilo.org/fr/resources/concepts-and-definitions/description-labour-productivity/</t>
   </si>
   <si>
     <t>GDI</t>
@@ -948,8 +881,7 @@
     <t>Indice de développement de genre (IDG)</t>
   </si>
   <si>
-    <t>Il s’agit du rapport entre l’indice de développement humain des femmes et celui des hommes. Plus l'indice est élevé, plus l'écart entre les scores de développement humain entre les sexes est faible. Le GDI est le ratio des IDH calculés séparément pour les femmes et les hommes en utilisant la même méthodologie que dans l'IDH. Il s'agit d'une mesure directe de l'écart entre les sexes, montrant l'IDH féminin en pourcentage de l'IDH masculin. Pour plus d'information, voir :
-http://hdr.undp.org/en/content/gender-development-index-gdi</t>
+    <t>Il s’agit du rapport entre l’indice de développement humain des femmes et celui des hommes. Plus l'indice est élevé, plus l'écart entre les scores de développement humain entre les sexes est faible. Le GDI est le ratio des IDH calculés séparément pour les femmes et les hommes en utilisant la même méthodologie que dans l'IDH. Il s'agit d'une mesure directe de l'écart entre les sexes, montrant l'IDH féminin en pourcentage de l'IDH masculin. Pour plus d'information, voir : http://hdr.undp.org/en/content/gender-development-index-gdi</t>
   </si>
   <si>
     <t>GII</t>
@@ -958,8 +890,7 @@
     <t>L'Indice d'inégalité de genre (IIG)</t>
   </si>
   <si>
-    <t>D'apres les documents du PNUD. Plus la valeur du GII est élevée, plus les disparités entre hommes et femmes sont grandes. La GII mesure les inégalités entre les sexes selon trois aspects importants du développement humain : la santé en matière de procréation, mesurée par le taux de mortalité maternelle et les taux de natalité chez les adolescentes; l'autonomisation, mesurée par la proportion de sièges parlementaires occupés par des femmes et la proportion de femmes adultes et d'hommes âgés de 25 ans et plus ayant au moins un certain niveau d'enseignement secondaire; et le statut économique, exprimé en tant que participation au marché du travail et mesuré par le taux d'activité des populations féminines et masculines âgées de 15 ans et plus. Pour plus d'information, voir :
-http://hdr.undp.org/en/content/gender-inequality-index-gii</t>
+    <t>D'apres les documents du PNUD. Plus la valeur du GII est élevée, plus les disparités entre hommes et femmes sont grandes. La GII mesure les inégalités entre les sexes selon trois aspects importants du développement humain : la santé en matière de procréation, mesurée par le taux de mortalité maternelle et les taux de natalité chez les adolescentes; l'autonomisation, mesurée par la proportion de sièges parlementaires occupés par des femmes et la proportion de femmes adultes et d'hommes âgés de 25 ans et plus ayant au moins un certain niveau d'enseignement secondaire; et le statut économique, exprimé en tant que participation au marché du travail et mesuré par le taux d'activité des populations féminines et masculines âgées de 15 ans et plus. Pour plus d'information, voir : http://hdr.undp.org/en/content/gender-inequality-index-gii</t>
   </si>
   <si>
     <t>SIGI</t>
@@ -968,8 +899,7 @@
     <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes (SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Les institutions sociales discriminatoires sont définies comme les lois, attitudes et pratiques formelles et informelles qui restreignent l’accès des femmes et des filles aux droits, à la justice et à l’autonomisation. Celles-ci sont capturées dans une approche multiforme par les variables du SIGI qui combinent des données qualitatives et quantitatives, en tenant compte de la discrimination de jure et de facto des institutions sociales, à travers des informations sur les lois, les attitudes et les pratiques. Les variables couvrent toutes les étapes de la vie d’une femme afin de montrer comment des institutions sociales discriminatoires peuvent s’enchevêtrer et les lier dans des cycles de pauvreté et de déresponsabilisation. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :
-https://www.genderindex.org/team/</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Les institutions sociales discriminatoires sont définies comme les lois, attitudes et pratiques formelles et informelles qui restreignent l’accès des femmes et des filles aux droits, à la justice et à l’autonomisation. Celles-ci sont capturées dans une approche multiforme par les variables du SIGI qui combinent des données qualitatives et quantitatives, en tenant compte de la discrimination de jure et de facto des institutions sociales, à travers des informations sur les lois, les attitudes et les pratiques. Les variables couvrent toutes les étapes de la vie d’une femme afin de montrer comment des institutions sociales discriminatoires peuvent s’enchevêtrer et les lier dans des cycles de pauvreté et de déresponsabilisation. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir : https://www.genderindex.org/team/</t>
   </si>
   <si>
     <t>2015-2019</t>
@@ -984,8 +914,7 @@
     <t>Discriminations au sein de la famille (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "discriminations au sein de la famille" regroupe les institutions sociales qui limitent le pouvoir de décision des femmes et sous-estiment leur statut au sein du ménage et de la famille. Ces lois, normes et pratiques sociales formelles et informelles coexistent dans différents types de systèmes juridiques, notamment le droit civil ou le droit commun, le droit coutumier et le droit religieux, et couvrent des domaines tels que le mariage, l'autorité parentale, les responsabilités du ménage, le divorce et les droits successoraux. Le pouvoir de décision des femmes et leur statut au sein de la famille déterminent à la fois leur capacité de choisir leur propre voie de développement et le bien-être de leur famille. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :
-https://www.genderindex.org/team/</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "discriminations au sein de la famille" regroupe les institutions sociales qui limitent le pouvoir de décision des femmes et sous-estiment leur statut au sein du ménage et de la famille. Ces lois, normes et pratiques sociales formelles et informelles coexistent dans différents types de systèmes juridiques, notamment le droit civil ou le droit commun, le droit coutumier et le droit religieux, et couvrent des domaines tels que le mariage, l'autorité parentale, les responsabilités du ménage, le divorce et les droits successoraux. Le pouvoir de décision des femmes et leur statut au sein de la famille déterminent à la fois leur capacité de choisir leur propre voie de développement et le bien-être de leur famille. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir : https://www.genderindex.org/team/</t>
   </si>
   <si>
     <t>SIGIPHYS</t>
@@ -994,8 +923,7 @@
     <t>Atteintes à l'intégrité physique (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "atteintes à l'intégrité physique" regroupe les institutions sociales qui limitent le contrôle des femmes et des filles sur leur corps, augmentent la vulnérabilité des femmes et normalisent les attitudes à l’égard de la violence sexiste. Cela inclut les lois, normes et pratiques formelles et informelles qui ne protègent pas l’intégrité physique et l’autonomie de la reproduction des femmes et qui permettent la violence et les mutilations génitales féminines. L’intégrité physique limitée en raison de la violence sexiste et du manque d’autonomie en matière de procréation a de graves répercussions sur les résultats en matière de santé des femmes et de leurs enfants et sur les indicateurs de développement économique et social en accroissant la vulnérabilité des femmes à la pauvreté. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :
-https://www.genderindex.org/team/</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "atteintes à l'intégrité physique" regroupe les institutions sociales qui limitent le contrôle des femmes et des filles sur leur corps, augmentent la vulnérabilité des femmes et normalisent les attitudes à l’égard de la violence sexiste. Cela inclut les lois, normes et pratiques formelles et informelles qui ne protègent pas l’intégrité physique et l’autonomie de la reproduction des femmes et qui permettent la violence et les mutilations génitales féminines. L’intégrité physique limitée en raison de la violence sexiste et du manque d’autonomie en matière de procréation a de graves répercussions sur les résultats en matière de santé des femmes et de leurs enfants et sur les indicateurs de développement économique et social en accroissant la vulnérabilité des femmes à la pauvreté. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir : https://www.genderindex.org/team/</t>
   </si>
   <si>
     <t>SIGIRES</t>
@@ -1004,8 +932,7 @@
     <t>Accès restreint aux ressources productives et financières (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "accès restreint aux ressources productives et financières" rend compte de l’accès restreint des femmes à des ressources et avoirs essentiels, productifs et économiques, ainsi que de leur contrôle. Cela inclut les lois discriminatoires, qui nient aux femmes le droit de posséder, de contrôler ou d’utiliser des terres et des avoirs autres que la terre, de travailler décemment et d’obtenir des services financiers; pratiques coutumières discriminatoires en matière de propriété ou de décision concernant la terre, les biens du ménage et d’autres actifs; pratiques ou attitudes discriminatoires à l’égard du travail formel des femmes; et les normes sociales dictant que la propriété des femmes ou leur accès au crédit devraient être négociés par les hommes. Des droits précaires ou précaires sur la terre, les biens non fonciers et les services financiers réduisent les possibilités de revenus pour les femmes, réduisent le pouvoir décisionnel des femmes au sein du ménage, augmentent l'insécurité alimentaire des femmes et de leurs familles et rendent les femmes et les familles plus vulnérables la pauvreté. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :
-https://www.genderindex.org/team/</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "accès restreint aux ressources productives et financières" rend compte de l’accès restreint des femmes à des ressources et avoirs essentiels, productifs et économiques, ainsi que de leur contrôle. Cela inclut les lois discriminatoires, qui nient aux femmes le droit de posséder, de contrôler ou d’utiliser des terres et des avoirs autres que la terre, de travailler décemment et d’obtenir des services financiers; pratiques coutumières discriminatoires en matière de propriété ou de décision concernant la terre, les biens du ménage et d’autres actifs; pratiques ou attitudes discriminatoires à l’égard du travail formel des femmes; et les normes sociales dictant que la propriété des femmes ou leur accès au crédit devraient être négociés par les hommes. Des droits précaires ou précaires sur la terre, les biens non fonciers et les services financiers réduisent les possibilités de revenus pour les femmes, réduisent le pouvoir décisionnel des femmes au sein du ménage, augmentent l'insécurité alimentaire des femmes et de leurs familles et rendent les femmes et les familles plus vulnérables la pauvreté. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir : https://www.genderindex.org/team/</t>
   </si>
   <si>
     <t>SIGICIV</t>
@@ -1014,8 +941,7 @@
     <t>Atteintes aux libertés civiles (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "atteintes aux libertés civiles" reprend les lois et pratiques discriminatoires qui restreignent l’accès des femmes à l’espace public, leur voix politique et leur participation à tous les aspects de la vie publique. Cela inclut un manque de liberté de mouvement, l'incapacité de voter ou de se présenter aux élections, et des attitudes négatives à l'égard des femmes en tant que personnalités publiques ou en tant que dirigeantes. Ce sous-indice met en évidence l’importance de la participation des femmes aux actions communautaires et à la prise de décision publique pour une gamme de résultats de développement tels que la gouvernance, la santé et l’éducation. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :
-https://www.genderindex.org/team/</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "atteintes aux libertés civiles" reprend les lois et pratiques discriminatoires qui restreignent l’accès des femmes à l’espace public, leur voix politique et leur participation à tous les aspects de la vie publique. Cela inclut un manque de liberté de mouvement, l'incapacité de voter ou de se présenter aux élections, et des attitudes négatives à l'égard des femmes en tant que personnalités publiques ou en tant que dirigeantes. Ce sous-indice met en évidence l’importance de la participation des femmes aux actions communautaires et à la prise de décision publique pour une gamme de résultats de développement tels que la gouvernance, la santé et l’éducation. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir : https://www.genderindex.org/team/</t>
   </si>
   <si>
     <t>IntntSubsPer100</t>
@@ -1027,8 +953,7 @@
     <t>Abonnements Internet à haut débit fixe</t>
   </si>
   <si>
-    <t>À partir des données présentées sur les statistiques de l'Union internationale des télécommunications (UIT). Pour plus d'information, voir :
-https://www.itu.int/en/ITU-D/Statistics/Pages/definitions/default.aspx</t>
+    <t>À partir des données présentées sur les statistiques de l'Union internationale des télécommunications (UIT). Pour plus d'information, voir : https://www.itu.int/en/ITU-D/Statistics/Pages/definitions/default.aspx</t>
   </si>
   <si>
     <t>Union internationale des télécommunications - Base de données en ligne sur les indicateurs TIC (récupéré le 19/11/2021)</t>
@@ -1040,8 +965,7 @@
     <t>Pourcentage de la population utilisant l'Internet</t>
   </si>
   <si>
-    <t>A partir des données présentées sur les données statistiques de l'Union internationale des télécommunications (UIT). Pour plus d'information, voir :
-https://www.itu.int/en/ITU-D/Statistics/Pages/definitions/default.aspx</t>
+    <t>A partir des données présentées sur les données statistiques de l'Union internationale des télécommunications (UIT). Pour plus d'information, voir : https://www.itu.int/en/ITU-D/Statistics/Pages/definitions/default.aspx</t>
   </si>
   <si>
     <t>MobileSubsPer100</t>
@@ -1062,8 +986,7 @@
     <t>Abonnements haut débit mobile pour 100 habitants</t>
   </si>
   <si>
-    <t>A partir des données statistiques de l'Union internationale des télécommunications (UIT). Pour plus d'information, voir :
-https://www.itu.int/en/ITU-D/Statistics/Pages/definitions/default.aspx</t>
+    <t>A partir des données statistiques de l'Union internationale des télécommunications (UIT). Pour plus d'information, voir : https://www.itu.int/en/ITU-D/Statistics/Pages/definitions/default.aspx</t>
   </si>
   <si>
     <t>2007-2019</t>
@@ -1087,8 +1010,7 @@
     <t>Pourcentage d'habitants vivant dans une zone couverte par la technologie mobile 4G</t>
   </si>
   <si>
-    <t>La couverture 4G fait référence au pourcentage d'habitants qui sont couverts par un réseau de technologie mobile 4G, qu'ils soient abonnés ou non. Tiré de GSMA Intelligence
-https://www.gsmaintelligence.com/</t>
+    <t>La couverture 4G fait référence au pourcentage d'habitants qui sont couverts par un réseau de technologie mobile 4G, qu'ils soient abonnés ou non. Tiré de GSMA Intelligence https://www.gsmaintelligence.com/</t>
   </si>
   <si>
     <t>2020-2020</t>
@@ -1103,8 +1025,7 @@
     <t>Accès à l'Internet (% de la population âgée de 15 ans et plus)</t>
   </si>
   <si>
-    <t>L'accès à Internet peut être défini comme la proportion de personnes âgées de 15 ans ou plus qui ont accès à Internet. De Gallup World Poll
-https://www.gallup.com/home.aspx</t>
+    <t>L'accès à Internet peut être défini comme la proportion de personnes âgées de 15 ans ou plus qui ont accès à Internet. De Gallup World Poll https://www.gallup.com/home.aspx</t>
   </si>
   <si>
     <t>2018-2018</t>
@@ -1122,8 +1043,7 @@
     <t>Pourcentage de grandes entreprises utilisant leur propre site Web</t>
   </si>
   <si>
-    <t>Pourcentage d'entreprises degrande taille utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez:
-https://www.enterprisesurveys.org/en/survey-datasets</t>
+    <t>Pourcentage d'entreprises degrande taille utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez: https://www.enterprisesurveys.org/en/survey-datasets</t>
   </si>
   <si>
     <t>2006-2019</t>
@@ -1138,8 +1058,7 @@
     <t>Pourcentage d'entreprises de taille moyenne utilisant leur propre site Web</t>
   </si>
   <si>
-    <t>Pourcentage d'entreprises de taille moyenne utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez:
-https://www.enterprisesurveys.org/en/survey-datasets</t>
+    <t>Pourcentage d'entreprises de taille moyenne utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez: https://www.enterprisesurveys.org/en/survey-datasets</t>
   </si>
   <si>
     <t>OwnWSitSmlFm</t>
@@ -1148,8 +1067,7 @@
     <t>Pourcentage de petites entreprises utilisant leur propre site Web</t>
   </si>
   <si>
-    <t>Pourcentage d'entreprises de petite taille utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez:
-https://www.enterprisesurveys.org/en/survey-datasets</t>
+    <t>Pourcentage d'entreprises de petite taille utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez: https://www.enterprisesurveys.org/en/survey-datasets</t>
   </si>
   <si>
     <t>OwnWSitTotFm</t>
@@ -1158,8 +1076,7 @@
     <t>Pourcentage d'entreprises de toutes tailles utilisant leur propre site Web</t>
   </si>
   <si>
-    <t>Pourcentage de toutes les entreprises utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez:
-https://www.enterprisesurveys.org/en/survey-datasets</t>
+    <t>Pourcentage de toutes les entreprises utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez: https://www.enterprisesurveys.org/en/survey-datasets</t>
   </si>
   <si>
     <t>EmailLrgFm</t>
@@ -1168,8 +1085,7 @@
     <t>Pourcentage de grandes entreprises utilisant le courrier électronique pour interagir avec leurs clients / fournisseurs</t>
   </si>
   <si>
-    <t>Pourcentage d'entreprises de taille large utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez:
-https://www.enterprisesurveys.org/en/survey-datasets</t>
+    <t>Pourcentage d'entreprises de taille large utilisant leur propre site Web. A partir des données d'enquête d'entreprises par la Banque mondiale. Pour plus d'informations, consultez: https://www.enterprisesurveys.org/en/survey-datasets</t>
   </si>
   <si>
     <t>2006-2018</t>
@@ -1199,8 +1115,7 @@
     <t>Exportations totales de services TIC, millions USD</t>
   </si>
   <si>
-    <t>Commerce international des services TIC De UNCTADStat: "Calculs de la CNUCED, basés sur l'ensemble de données communes CNUCED-OMC sur le commerce international des services, compilés en coopération avec le CCI et la DSNU. Les services TIC sont une agrégation de services informatiques et de télécommunications. Les services TIC ont été définis par la CNUCED dans une note technique en 2015 ainsi que dans un rapport de la 47e Commission de statistique des Nations Unies en 2016. Les statistiques présentées correspondent aux concepts et définitions du Manuel de la balance des paiements et de la position extérieure globale du FMI, sixième édition (BPM6, 2009). Les chiffres indiqués selon la cinquième édition du Manuel (BPM5) ont été ajustés aux définitions du BPM6, à condition qu'un tel ajustement soit possible. Lorsque cela est possible, les valeurs manquantes dans les principales sources internationales sont estimées en utilisant des taux de croissance dérivés des données disponibles dans des sources nationales ou internationales."
-https://unctadstat.unctad.org/FR/Index.html</t>
+    <t>Commerce international des services TIC De UNCTADStat: "Calculs de la CNUCED, basés sur l'ensemble de données communes CNUCED-OMC sur le commerce international des services, compilés en coopération avec le CCI et la DSNU. Les services TIC sont une agrégation de services informatiques et de télécommunications. Les services TIC ont été définis par la CNUCED dans une note technique en 2015 ainsi que dans un rapport de la 47e Commission de statistique des Nations Unies en 2016. Les statistiques présentées correspondent aux concepts et définitions du Manuel de la balance des paiements et de la position extérieure globale du FMI, sixième édition (BPM6, 2009). Les chiffres indiqués selon la cinquième édition du Manuel (BPM5) ont été ajustés aux définitions du BPM6, à condition qu'un tel ajustement soit possible. Lorsque cela est possible, les valeurs manquantes dans les principales sources internationales sont estimées en utilisant des taux de croissance dérivés des données disponibles dans des sources nationales ou internationales." https://unctadstat.unctad.org/FR/Index.html</t>
   </si>
   <si>
     <t>2005-2020</t>
@@ -1221,8 +1136,7 @@
     <t>Exportations totales de services numériques, millions USD</t>
   </si>
   <si>
-    <t>Commerce international de services livrables numériquement, valeur, actions et croissance De UNCTADStat: ''Calculs de la CNUCED, basés sur l'ensemble de données communes CNUCED-OMC sur le commerce international des services, compilés en coopération avec le CCI et la DSNU. Les services livrables numériquement sont un agrégat de services d'assurance et de retraite, de services financiers, de frais d'utilisation de la propriété intellectuelle, de télécommunications, de services informatiques et d'information, d'autres services aux entreprises et de services audiovisuels et connexes. La série sur les services livrables numériquement est basée sur le concept de services potentiellement compatibles avec les TIC tel que développé par la CNUCED dans une note technique en 2015 ainsi que dans un rapport de la 47e Commission de statistique des Nations Unies en 2016. Les statistiques présentées correspondent aux concepts et définitions du Manuel de la balance des paiements et de la position extérieure globale du FMI, sixième édition (BPM6, 2009). Les chiffres indiqués selon la cinquième édition du Manuel (BPM5) ont été ajustés aux définitions du BPM6, à condition qu'un tel ajustement soit possible. Lorsque cela est possible, les valeurs manquantes dans les principales sources internationales sont estimées en utilisant des taux de croissance dérivés des données disponibles dans des sources nationales ou internationales. "
-https://unctadstat.unctad.org/FR/Index.html</t>
+    <t>Commerce international de services livrables numériquement, valeur, actions et croissance De UNCTADStat: ''Calculs de la CNUCED, basés sur l'ensemble de données communes CNUCED-OMC sur le commerce international des services, compilés en coopération avec le CCI et la DSNU. Les services livrables numériquement sont un agrégat de services d'assurance et de retraite, de services financiers, de frais d'utilisation de la propriété intellectuelle, de télécommunications, de services informatiques et d'information, d'autres services aux entreprises et de services audiovisuels et connexes. La série sur les services livrables numériquement est basée sur le concept de services potentiellement compatibles avec les TIC tel que développé par la CNUCED dans une note technique en 2015 ainsi que dans un rapport de la 47e Commission de statistique des Nations Unies en 2016. Les statistiques présentées correspondent aux concepts et définitions du Manuel de la balance des paiements et de la position extérieure globale du FMI, sixième édition (BPM6, 2009). Les chiffres indiqués selon la cinquième édition du Manuel (BPM5) ont été ajustés aux définitions du BPM6, à condition qu'un tel ajustement soit possible. Lorsque cela est possible, les valeurs manquantes dans les principales sources internationales sont estimées en utilisant des taux de croissance dérivés des données disponibles dans des sources nationales ou internationales. " https://unctadstat.unctad.org/FR/Index.html</t>
   </si>
   <si>
     <t>ExpDigSrvPrp</t>
@@ -1237,8 +1151,7 @@
     <t>Indice du commerce électronique B2C de la CNUCED</t>
   </si>
   <si>
-    <t>Le développement B2C est mesuré par l’indice du commerce électronique B2C de la CNUCED qui mesure la préparation d’une économie à soutenir les achats en ligne. L'indice est composé de quatre indicateurs: • Possession d'un compte dans une institution financière ou auprès d'un fournisseur de services d'argent mobile (% de la population âgée de 15 ans et plus) • Particuliers utilisant Internet (% de la population) • Indice de fiabilité postale • Serveurs Internet sécurisés (pour 1 million de personnes). Les chiffres sont tirés des rapports suivants, éditions 2016, 2017, 2019 et 2019 du rapport «Unctad B2C E-Commerce Index» et du rapport 2015 sur l'économie de l'information.
-https://unctad.org/system/files/official-document/tn_unctad_ict4d09_en.pdf</t>
+    <t>Le développement B2C est mesuré par l’indice du commerce électronique B2C de la CNUCED qui mesure la préparation d’une économie à soutenir les achats en ligne. L'indice est composé de quatre indicateurs: • Possession d'un compte dans une institution financière ou auprès d'un fournisseur de services d'argent mobile (% de la population âgée de 15 ans et plus) • Particuliers utilisant Internet (% de la population) • Indice de fiabilité postale • Serveurs Internet sécurisés (pour 1 million de personnes). Les chiffres sont tirés des rapports suivants, éditions 2016, 2017, 2019 et 2019 du rapport «Unctad B2C E-Commerce Index» et du rapport 2015 sur l'économie de l'information. https://unctad.org/system/files/official-document/tn_unctad_ict4d09_en.pdf</t>
   </si>
   <si>
     <t>2015-2020</t>
@@ -1256,8 +1169,7 @@
     <t>Espérance de vie à la naissance (années)</t>
   </si>
   <si>
-    <t>Division de la population du Département des affaires économiques et sociales des Nations Unies. Les chiffres annuels de l'espérance de vie à la naissance sont des interpolations des estimations des World Population Prospects établies sur une période de cinq ans. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Division de la population du Département des affaires économiques et sociales des Nations Unies. Les chiffres annuels de l'espérance de vie à la naissance sont des interpolations des estimations des World Population Prospects établies sur une période de cinq ans. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Années</t>
@@ -1275,8 +1187,7 @@
     <t>Espérance de vie des femmes à la naissance (années)</t>
   </si>
   <si>
-    <t>Division de la population du Département des affaires économiques et sociales des Nations Unies. Les chiffres annuels de l'espérance de vie des femmes à la naissance sont des interpolations des estimations des World Population Prospects produites sur une période de cinq ans. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Division de la population du Département des affaires économiques et sociales des Nations Unies. Les chiffres annuels de l'espérance de vie des femmes à la naissance sont des interpolations des estimations des World Population Prospects produites sur une période de cinq ans. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>TotFert</t>
@@ -1285,8 +1196,7 @@
     <t>Taux de fécondité (naissances vivantes par femme)</t>
   </si>
   <si>
-    <t>Estimations du Département des affaires économiques et sociales de la Division de la population des Nations Unies. Les chiffres annuels pour la fécondité totale sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les données jusqu'en 2015 sont des estimations. Les données pour 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Estimations du Département des affaires économiques et sociales de la Division de la population des Nations Unies. Les chiffres annuels pour la fécondité totale sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les données jusqu'en 2015 sont des estimations. Les données pour 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Naissances</t>
@@ -1298,8 +1208,7 @@
     <t>Taux de mortalité infantile (décès infantiles pour 1,000 naissances vivantes)</t>
   </si>
   <si>
-    <t>Division de la population du Département des affaires économiques et sociales des Nations Unies. Les chiffres annuels des taux de mortalité infantile sont des interpolations des estimations des World Population Prospects produites sur une période de cinq ans. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Division de la population du Département des affaires économiques et sociales des Nations Unies. Les chiffres annuels des taux de mortalité infantile sont des interpolations des estimations des World Population Prospects produites sur une période de cinq ans. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Par 1000</t>
@@ -1311,8 +1220,7 @@
     <t>Mortalité des moins de cinq ans (décès des moins de cinq ans pour 1,000 naissances vivantes)</t>
   </si>
   <si>
-    <t>Estimations du Département des affaires économiques et sociales des Nations Unies. Les chiffres annuels pour les taux de mortalité des enfants de moins de cinq ans sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections utilisant le scénario de variante de fécondité moyenne. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Estimations du Département des affaires économiques et sociales des Nations Unies. Les chiffres annuels pour les taux de mortalité des enfants de moins de cinq ans sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections utilisant le scénario de variante de fécondité moyenne. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Mort40</t>
@@ -1321,8 +1229,7 @@
     <t>Probabilité de mourir avant 40 ans (morts avant l'âge de 40 ans pour 1 000 naissances vivantes)</t>
   </si>
   <si>
-    <t>Division de la population du Département des affaires économiques et sociales des Nations Unies. Chiffres annuels des probabilités de décès entre la naissance et l'âge de 40 ans (représentés par le nombre de décès avant l'âge de 40 ans pour 1 000 naissances vivantes). Ces chiffres sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir :
-https://population.un.org/wpp/</t>
+    <t>Division de la population du Département des affaires économiques et sociales des Nations Unies. Chiffres annuels des probabilités de décès entre la naissance et l'âge de 40 ans (représentés par le nombre de décès avant l'âge de 40 ans pour 1 000 naissances vivantes). Ces chiffres sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Les chiffres jusqu'en 2015 sont des estimations. Les chiffres après 2015 sont des projections aux hypothèses de variante moyenne relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Population Prospects produites sur une base quinquennale. Pour plus d'information, voir : https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>GHI</t>
@@ -1346,8 +1253,7 @@
     <t>Échelle de satisfaction existentielle Cantril</t>
   </si>
   <si>
-    <t>Du World Happiness Report. Calculé à partir de la version du 22 décembre 2017 du sondage Gallup World Poll (GWP), qui couvre les années 2005 à 2017. En règle générale, la réponse moyenne nationale à la question des évaluations de la vie. Le libellé en anglais de la question est le suivant : «Imaginez une échelle, avec les étapes numérotées de 0 en bas à 10 en haut. Le haut de l'échelle représente la meilleure vie possible pour vous et le bas de l'échelle représente la pire vie possible pour vous. Sur quelle échelon de l'échelle diriez-vous que vous sentez personnellement que vous vous tenez debout à ce moment-là?» Cette mesure est également appelée échelle de vie de Cantril, ou simplement échelle de vie. Pour plus d'information, voir :
-https://s3.amazonaws.com/happiness-report/2019 /Appendix1ofChapter2.pdf</t>
+    <t>Du World Happiness Report. Calculé à partir de la version du 22 décembre 2017 du sondage Gallup World Poll (GWP), qui couvre les années 2005 à 2017. En règle générale, la réponse moyenne nationale à la question des évaluations de la vie. Le libellé en anglais de la question est le suivant : «Imaginez une échelle, avec les étapes numérotées de 0 en bas à 10 en haut. Le haut de l'échelle représente la meilleure vie possible pour vous et le bas de l'échelle représente la pire vie possible pour vous. Sur quelle échelon de l'échelle diriez-vous que vous sentez personnellement que vous vous tenez debout à ce moment-là?» Cette mesure est également appelée échelle de vie de Cantril, ou simplement échelle de vie. Pour plus d'information, voir : https://s3.amazonaws.com/happiness-report/2019 /Appendix1ofChapter2.pdf</t>
   </si>
   <si>
     <t>Ensemble de données en ligne du Rapport mondial sur le bonheur 2021</t>
@@ -1359,8 +1265,7 @@
     <t>Affect négatif</t>
   </si>
   <si>
-    <t>Change it as: Du World Happiness Report. L'affect négatif est défini comme la moyenne de trois mesures de l'affect négatif dans le PRG. Ce sont l'inquiétude, la tristesse et la colère, respectivement les réponses à « Avez-vous éprouvé les sentiments suivants beaucoup de fois au cours DE LA JOURNÉE de hier? Qu'en est-il de l'inquiétude? », « Avez-vous éprouvé les sentiments suivants au cours de la journée passée? Qu'en est-il de la tristesse? » Et « Avez-vous éprouvé les sentiments suivants BEAUCOUP DE FOIS au cours de la journée de hier? Qu'en est-il pour la colère? »
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>Change it as: Du World Happiness Report. L'affect négatif est défini comme la moyenne de trois mesures de l'affect négatif dans le PRG. Ce sont l'inquiétude, la tristesse et la colère, respectivement les réponses à « Avez-vous éprouvé les sentiments suivants beaucoup de fois au cours DE LA JOURNÉE de hier? Qu'en est-il de l'inquiétude? », « Avez-vous éprouvé les sentiments suivants au cours de la journée passée? Qu'en est-il de la tristesse? » Et « Avez-vous éprouvé les sentiments suivants BEAUCOUP DE FOIS au cours de la journée de hier? Qu'en est-il pour la colère? » https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>PositiveAffect</t>
@@ -1369,8 +1274,7 @@
     <t>Affect positif</t>
   </si>
   <si>
-    <t>Du World Happiness Report. L'affect positif est défini comme la moyenne de trois mesures de l'affect positif dans le GWP : le bonheur, le rire et le plaisir dans les vagues du sondage Gallup World Poll 3 à 7. Ces mesures sont respectivement les réponses aux trois questions suivantes : « Avez-vous éprouvé les sentiments suivants pendant BEAUCOUP DE FOIS au cours de LA JOURNÉE de hier? Qu'en est-il du bonheur? », « Avez-vous souri ou beaucoup ri hier? » Et « Avez-vous éprouvé les sentiments suivants BEAUCOUP DE FOIS au cours de LA JOURNÉE de hier? Que diriez-vous de plaisir? » Les vagues 3 à 7 couvrent les années 2008 à 2012 et un petit nombre de pays en 2013. Pour les vagues 1 et 2 et celles à partir de la vague 8, l’affect positif est défini comme la moyenne du rire et du plaisir seulement, en raison de : la disponibilité limitée du bonheur. Pour plus d'information, voir :
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>Du World Happiness Report. L'affect positif est défini comme la moyenne de trois mesures de l'affect positif dans le GWP : le bonheur, le rire et le plaisir dans les vagues du sondage Gallup World Poll 3 à 7. Ces mesures sont respectivement les réponses aux trois questions suivantes : « Avez-vous éprouvé les sentiments suivants pendant BEAUCOUP DE FOIS au cours de LA JOURNÉE de hier? Qu'en est-il du bonheur? », « Avez-vous souri ou beaucoup ri hier? » Et « Avez-vous éprouvé les sentiments suivants BEAUCOUP DE FOIS au cours de LA JOURNÉE de hier? Que diriez-vous de plaisir? » Les vagues 3 à 7 couvrent les années 2008 à 2012 et un petit nombre de pays en 2013. Pour les vagues 1 et 2 et celles à partir de la vague 8, l’affect positif est défini comme la moyenne du rire et du plaisir seulement, en raison de : la disponibilité limitée du bonheur. Pour plus d'information, voir : https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>FreedomLife</t>
@@ -1379,8 +1283,7 @@
     <t>Liberté de faire des choix de vie</t>
   </si>
   <si>
-    <t>Du World Happiness Report. La liberté de faire des choix de vie est la moyenne nationale des réponses à la question du GWP « Êtes-vous satisfait ou insatisfait de votre liberté de choisir ce que vous faites de votre vie? »
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>Du World Happiness Report. La liberté de faire des choix de vie est la moyenne nationale des réponses à la question du GWP « Êtes-vous satisfait ou insatisfait de votre liberté de choisir ce que vous faites de votre vie? » https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>Generosity</t>
@@ -1389,8 +1292,7 @@
     <t>Générosité</t>
   </si>
   <si>
-    <t>A partir de World Happiness Report. La liberté de faire des choix de vie est la moyenne nationale des réponses à la question du GWP « Êtes-vous satisfait ou insatisfait de votre liberté de choisir ce que vous faites de votre vie? »
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>A partir de World Happiness Report. La liberté de faire des choix de vie est la moyenne nationale des réponses à la question du GWP « Êtes-vous satisfait ou insatisfait de votre liberté de choisir ce que vous faites de votre vie? » https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>SocialSupp</t>
@@ -1399,8 +1301,7 @@
     <t>Soutien sociale</t>
   </si>
   <si>
-    <t>Du World Happiness Report. Le soutien social (ou avoir quelqu'un sur qui compter en cas de problème) correspond à la moyenne nationale des réponses binaires (0 ou 1) à la question du GWP : « Si vous aviez un problème, avez-vous des parents ou des amis sur lesquels vous pouvez compter? vous aider quand vous en avez besoin, ou pas? »
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>Du World Happiness Report. Le soutien social (ou avoir quelqu'un sur qui compter en cas de problème) correspond à la moyenne nationale des réponses binaires (0 ou 1) à la question du GWP : « Si vous aviez un problème, avez-vous des parents ou des amis sur lesquels vous pouvez compter? vous aider quand vous en avez besoin, ou pas? » https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>GrthDCmpNCP</t>
@@ -1412,8 +1313,7 @@
     <t>Consommation privée (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la consommation privée totale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage.
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la consommation privée totale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>Monnaie nationale</t>
@@ -1428,8 +1328,7 @@
     <t>Consommation publique (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la consommation publique totale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage.
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la consommation publique totale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>GrthDCmpNFIP</t>
@@ -1438,8 +1337,7 @@
     <t>Formation brute de capital fixe, privé (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la formation brute de capital fixe privé divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage.
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la formation brute de capital fixe privé divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>GrthDCmpNFIG</t>
@@ -1448,8 +1346,7 @@
     <t>Formation brute de capital fixe publique (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la formation brute de capital fixe publique divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage.
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la formation brute de capital fixe publique divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>GrthDCmpNX</t>
@@ -1458,8 +1355,7 @@
     <t>Exportations des biens et services, prix courants (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre des exportations de biens et services, divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage.
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre des exportations de biens et services, divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>GrthDCmpNM</t>
@@ -1468,8 +1364,7 @@
     <t>Importations de biens et services, prix courants (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre des importations de biens et services, divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage.
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre des importations de biens et services, divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>GrthDCmpNFB</t>
@@ -1478,8 +1373,7 @@
     <t>Balance extérieure, prix courants (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la balance commerciale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage.
-https://www.imf.org/fr/Publications/WEO</t>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la balance commerciale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>GovRevPerGDP</t>
@@ -1491,8 +1385,7 @@
     <t>Recettes des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le manuel des statistiques de finances publiques du FMI, publié en 2014, "Les recettes correspondent à une augmentation de la valeur nette résultant d'une transaction. Les principaux types de recettes sont les impôts, les cotisations sociales, les dons et les autres recettes". Jusqu'en 2020, les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Pour plus d'information, voir :
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le manuel des statistiques de finances publiques du FMI, publié en 2014, "Les recettes correspondent à une augmentation de la valeur nette résultant d'une transaction. Les principaux types de recettes sont les impôts, les cotisations sociales, les dons et les autres recettes". Jusqu'en 2020, les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Pour plus d'information, voir : https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>TaxPerGDP</t>
@@ -1501,8 +1394,7 @@
     <t>Impôts des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le manuel des statistiques de finances publiques du FMI, publié en 2014, "Les impôts sont des créances à recevoir obligatoirement des services gouvernementales provenant des services institutionnelles. Les impôts peuvent être reçus en espèces ou en nature. De par sa nature, seule une entité publique peut percevoir des taxes. Jusqu'en 2020, les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Pour plus d'information, voir :
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le manuel des statistiques de finances publiques du FMI, publié en 2014, "Les impôts sont des créances à recevoir obligatoirement des services gouvernementales provenant des services institutionnelles. Les impôts peuvent être reçus en espèces ou en nature. De par sa nature, seule une entité publique peut percevoir des taxes. Jusqu'en 2020, les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Pour plus d'information, voir : https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GrantsPerGDP</t>
@@ -1511,8 +1403,7 @@
     <t>Recettes des administrations publiques, dons en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le Manuel de statistiques de finances publiques 2014 du FMI, "Les subventions (13) sont des transferts à recevoir des administrations publiques d'autres services gouvernamentaux résidents ou non résidents ou d'organisations internationales et qui ne répondent pas à la définition d'un impôt, d'une subvention ou d'une contribution sociale." JusqJusqu'en 2020, les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Pour plus d'information, voir :
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le Manuel de statistiques de finances publiques 2014 du FMI, "Les subventions (13) sont des transferts à recevoir des administrations publiques d'autres services gouvernamentaux résidents ou non résidents ou d'organisations internationales et qui ne répondent pas à la définition d'un impôt, d'une subvention ou d'une contribution sociale." JusqJusqu'en 2020, les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Pour plus d'information, voir : https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>CommodityPerGDP</t>
@@ -1521,8 +1412,7 @@
     <t>Recettes des administrations publiques liées aux produits de base en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations :
-https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations : https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
   </si>
   <si>
     <t>1990-2024</t>
@@ -1537,8 +1427,7 @@
     <t>Impôts des administrations publiques sur revenus, bénéfices et gains en capital en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le Manuel de statistiques de finances publiques 2014 du FMI, "Les subventions (13) sont des transferts à recevoir des administrations publiques d'autres services gouvernamentaux résidents ou non résidents ou d'organisations internationales et qui ne répondent pas à la définition d'un impôt, d'une subvention ou d'une contribution sociale." Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Pour plus d'information, voir :
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le Manuel de statistiques de finances publiques 2014 du FMI, "Les subventions (13) sont des transferts à recevoir des administrations publiques d'autres services gouvernamentaux résidents ou non résidents ou d'organisations internationales et qui ne répondent pas à la définition d'un impôt, d'une subvention ou d'une contribution sociale." Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Pour plus d'information, voir : https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>TaxGdsSrvPerGDP</t>
@@ -1547,8 +1436,7 @@
     <t>Impôts des administrations publiques sur les biens et services en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le Manuel de statistiques de finances publiques 2014 du FMI, "Les subventions (13) sont des transferts à recevoir des administrations publiques d'autres services gouvernamentaux résidents ou non résidents ou d'organisations internationales et qui ne répondent pas à la définition d'un impôt, d'une subvention ou d'une contribution sociale." Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Pour plus d'information, voir
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Selon le Manuel de statistiques de finances publiques 2014 du FMI, "Les subventions (13) sont des transferts à recevoir des administrations publiques d'autres services gouvernamentaux résidents ou non résidents ou d'organisations internationales et qui ne répondent pas à la définition d'un impôt, d'une subvention ou d'une contribution sociale." Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Pour plus d'information, voir https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>TaxTradePerGDP</t>
@@ -1563,8 +1451,7 @@
     <t>Total des dépenses des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations :
-https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations : https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
   </si>
   <si>
     <t>GrossDebtPerGDP</t>
@@ -1573,8 +1460,7 @@
     <t>Dette brute des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations :
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2020 les données sont des estimations alors qu'à partir de 2021 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations : https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GrossDebtDPerGDP</t>
@@ -1583,8 +1469,7 @@
     <t>Dette brute en monnaie nationale des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations :
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations : https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GrossDebtFPerGDP</t>
@@ -1603,8 +1488,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international par produit rapportées par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
-Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "non transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris :
-https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
+Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "non transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris : https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
   </si>
   <si>
     <t>Calculs de l'auteur basés sur la base de données BACI sur le commerce international au niveau des produits du CEPII (mise à jour le 19 février 2021)</t>
@@ -1617,8 +1501,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international par produit rapportées par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
-Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "semi-transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris :
-https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
+Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "semi-transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris : https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
   </si>
   <si>
     <t>ExpFullyProc</t>
@@ -1628,8 +1511,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international par produit rapportées par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
-Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "entièrement transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris :
-https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
+Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "entièrement transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris : https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
   </si>
   <si>
     <t>ExpAllProc</t>
@@ -1639,8 +1521,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La valeur en dollars US de toutes les exportations.
-https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
+La valeur en dollars US de toutes les exportations. https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
   </si>
   <si>
     <t>ImpUnproc</t>
@@ -1649,8 +1530,7 @@
     <t>Importations totales de produits non transformés (millions de dollars US)</t>
   </si>
   <si>
-    <t>Valeur totale en dollars américains des biens d'importation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "non transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris :
-https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
+    <t>Valeur totale en dollars américains des biens d'importation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "non transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris : https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
   </si>
   <si>
     <t>ImpSemiProc</t>
@@ -1659,8 +1539,7 @@
     <t>Importations totales de produits semi-transformés (millions de dollars US)</t>
   </si>
   <si>
-    <t>Valeur totale en dollars américains des biens d'importation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "semi-traités" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris :
-https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
+    <t>Valeur totale en dollars américains des biens d'importation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "semi-traités" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris : https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
   </si>
   <si>
     <t>ImpFullyProc</t>
@@ -1669,8 +1548,7 @@
     <t>Importations totales de produits transformés (millions de dollars US)</t>
   </si>
   <si>
-    <t>Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "entièrement transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris :
-https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
+    <t>Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "entièrement transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris : https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
   </si>
   <si>
     <t>ImpAllProc</t>
@@ -1680,8 +1558,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-Importations totales de produits transformés et non nécessaires en millions de dollars américains.
-https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
+Importations totales de produits transformés et non nécessaires en millions de dollars américains. https://doi.org/10.1787/5jrs8sq91p9x-fr</t>
   </si>
   <si>
     <t>ExpProd1</t>
@@ -1694,8 +1571,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La catégorie de produits représentant la plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Les exportations des pays sont obtenues à l'aide de données miroir ou des importations déclarées dans les pays partenaires. Pour plus d'informations, consultez:
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La catégorie de produits représentant la plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Les exportations des pays sont obtenues à l'aide de données miroir ou des importations déclarées dans les pays partenaires. Pour plus d'informations, consultez: http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>Données communes</t>
@@ -1711,8 +1587,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La catégorie de produits représentant la plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez:
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La catégorie de produits représentant la plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez: http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProd2</t>
@@ -1722,8 +1597,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La catégorie de produits représentant la deuxième plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres HS1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez:
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La catégorie de produits représentant la deuxième plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres HS1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez: http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProdPct2</t>
@@ -1739,8 +1613,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La catégorie de produits représentant la troisième plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez:
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La catégorie de produits représentant la troisième plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez: http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProdPct3</t>
@@ -1756,8 +1629,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La catégorie de produits représentant la quatrième plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez:
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La catégorie de produits représentant la quatrième plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez: http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProdPct4</t>
@@ -1773,8 +1645,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La catégorie de produits représentant la cinquième plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez:
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La catégorie de produits représentant la cinquième plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Pour plus d'informations, consultez: http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProdPct5</t>
@@ -1790,8 +1661,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-Un nombre minimal de catégories de produits à 4 chiffres dans la classification SH1996 est requis pour représenter 75% des exportations totales. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Les exportations des pays sont obtenues en prenant les importations déclarées dans les pays partenaires. Pour plus d'information, voir :
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+Un nombre minimal de catégories de produits à 4 chiffres dans la classification SH1996 est requis pour représenter 75% des exportations totales. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Les exportations des pays sont obtenues en prenant les importations déclarées dans les pays partenaires. Pour plus d'information, voir : http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>NumPrdU90</t>
@@ -1801,8 +1671,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-Un nombre minimal de catégories de produits à 4 chiffres dans la classification SH1996 est requis pour représenter 90% des exportations totales. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Les exportations des pays sont obtenues en prenant les importations déclarées dans les pays partenaires. Pour plus d'information, voir :
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+Un nombre minimal de catégories de produits à 4 chiffres dans la classification SH1996 est requis pour représenter 90% des exportations totales. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Les exportations des pays sont obtenues en prenant les importations déclarées dans les pays partenaires. Pour plus d'information, voir : http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>TotExpPerGDP</t>
@@ -1814,8 +1683,7 @@
     <t>Valeur totale des exportations de biens et services en % du PIB</t>
   </si>
   <si>
-    <t>Tiré des Perspectives de l'économie mondiale. Exportations totales en % du PIB. Voir l'annexe statistique des dernières Perspectives de l'économie mondiale pour plus d'informations :
-https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
+    <t>Tiré des Perspectives de l'économie mondiale. Exportations totales en % du PIB. Voir l'annexe statistique des dernières Perspectives de l'économie mondiale pour plus d'informations : https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
   </si>
   <si>
     <t>RECExpPct</t>
@@ -1828,8 +1696,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La part des exportations totales d'un pays donné vers d'autres pays de sa propre Communauté économique régionale (CER) est calculée à l'aide de données miroir. Autrement dit, la valeur totale en USD des marchandises importées de ce pays déclarée par d'autres pays au sein de la CER est prise en pourcentage de la somme totale de la quantité de marchandises importées de ce pays par tous les pays du monde. Les CER prises en compte pour ces calculs comprennent les 8 CER reconnues par la CUA: CEN-SAD (Communauté des États sahélo-sahariens), COMESA (Marché commun de l'Afrique orientale et australe), EAC (Communauté de l'Afrique de l'Est), CEEAC (Communauté économique des États d’Afrique centrale), CEDEAO (Communauté économique des États d’Afrique de l’Ouest), IGAD (Autorité intergouvernementale pour le développement), SADC (Communauté de développement de l’Afrique australe) et UMA = "Union du Maghreb arabe. À titre de comparaison, pour d’autres pays du monde, le L'ASEAN (Association des nations de l'Asie du Sud-Est), le MERCOSUR (Mercado Común del Sur ") et l'Union européenne ont été utilisés. Pour une liste complète des pays appartenant à chaque CER, veuillez consulter le tableau des regroupements de pays fourni avec l'annexe statistique de l'AfDD.
-https://comtrade.un.org/</t>
+La part des exportations totales d'un pays donné vers d'autres pays de sa propre Communauté économique régionale (CER) est calculée à l'aide de données miroir. Autrement dit, la valeur totale en USD des marchandises importées de ce pays déclarée par d'autres pays au sein de la CER est prise en pourcentage de la somme totale de la quantité de marchandises importées de ce pays par tous les pays du monde. Les CER prises en compte pour ces calculs comprennent les 8 CER reconnues par la CUA: CEN-SAD (Communauté des États sahélo-sahariens), COMESA (Marché commun de l'Afrique orientale et australe), EAC (Communauté de l'Afrique de l'Est), CEEAC (Communauté économique des États d’Afrique centrale), CEDEAO (Communauté économique des États d’Afrique de l’Ouest), IGAD (Autorité intergouvernementale pour le développement), SADC (Communauté de développement de l’Afrique australe) et UMA = "Union du Maghreb arabe. À titre de comparaison, pour d’autres pays du monde, le L'ASEAN (Association des nations de l'Asie du Sud-Est), le MERCOSUR (Mercado Común del Sur ") et l'Union européenne ont été utilisés. Pour une liste complète des pays appartenant à chaque CER, veuillez consulter le tableau des regroupements de pays fourni avec l'annexe statistique de l'AfDD. https://comtrade.un.org/</t>
   </si>
   <si>
     <t>AUCRegExpPct</t>
@@ -1839,8 +1706,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La part des exportations totales d'un pays donné qui vont vers d'autres pays de la même région d'Afrique telle que définie par la Commission de l'Union africaine. Il y a cinq régions d'Afrique définies par le Traité d'Abuja établissant l'Union africaine. Pour voir quels pays appartiennent à ces régions, ainsi que d'autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD.
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La part des exportations totales d'un pays donné qui vont vers d'autres pays de la même région d'Afrique telle que définie par la Commission de l'Union africaine. Il y a cinq régions d'Afrique définies par le Traité d'Abuja établissant l'Union africaine. Pour voir quels pays appartiennent à ces régions, ainsi que d'autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD. http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ContExpPct</t>
@@ -1850,8 +1716,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La part des exportations totales d'un pays donné vers d'autres pays du même continent. Pour voir quels pays appartiennent à chaque continent, ainsi que les autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD.
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La part des exportations totales d'un pays donné vers d'autres pays du même continent. Pour voir quels pays appartiennent à chaque continent, ainsi que les autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD. http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>CHNExpPct</t>
@@ -1861,8 +1726,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La part des exportations totales d'un pays donné vers la Chine. Pour voir quels pays appartiennent à chaque continent, ainsi que les autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD.
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La part des exportations totales d'un pays donné vers la Chine. Pour voir quels pays appartiennent à chaque continent, ainsi que les autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD. http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>EUExpPct</t>
@@ -1872,8 +1736,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La part des exportations totales d'un pays donné qui sont destinées à l'Union européenne (maintenant à l'exclusion du Royaume-Uni). Pour voir quels pays appartiennent à chaque continent, ainsi que les autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD.
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La part des exportations totales d'un pays donné qui sont destinées à l'Union européenne (maintenant à l'exclusion du Royaume-Uni). Pour voir quels pays appartiennent à chaque continent, ainsi que les autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD. http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>USAExpPct</t>
@@ -1883,8 +1746,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La part des exportations totales d'un pays donné vers les États-Unis. Pour voir quels pays appartiennent à chaque continent, ainsi que les autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD.
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La part des exportations totales d'un pays donné vers les États-Unis. Pour voir quels pays appartiennent à chaque continent, ainsi que les autres groupements de pays utilisés dans le calcul des statistiques dans l'annexe statistique de l'AfDD, veuillez consulter le tableau des groupements de pays fourni avec l'annexe statistique de l'AfDD. http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>IntraCont</t>
@@ -1894,8 +1756,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La valeur totale en dollars des importations, exportations, réimportations et réexportations appartenant à des catégories de produits généralement considérées comme des biens intermédiaires, en millions de dollars américains, échangées avec des pays du même continent (Afrique, Asie, Europe, Amérique du Nord / Amérique centrale / Caraïbes, etc.). Océanie et Amérique du Sud). Les biens intermédiaires sont identifiés en prenant des produits dans les grandes catégories économiques (BEC) 4, 21, 22, 31, 42, 53, 111, 121 et 322. Pour plus d'information, voir :
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La valeur totale en dollars des importations, exportations, réimportations et réexportations appartenant à des catégories de produits généralement considérées comme des biens intermédiaires, en millions de dollars américains, échangées avec des pays du même continent (Afrique, Asie, Europe, Amérique du Nord / Amérique centrale / Caraïbes, etc.). Océanie et Amérique du Sud). Les biens intermédiaires sont identifiés en prenant des produits dans les grandes catégories économiques (BEC) 4, 21, 22, 31, 42, 53, 111, 121 et 322. Pour plus d'information, voir : http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExtraCont</t>
@@ -1905,8 +1766,7 @@
   </si>
   <si>
     <t>Calculs de l'auteur basés sur les données sur le commerce international rapportés par le Centre d'études prospectives et d'informations internationales (CEPII) BACI (Base de données sur le commerce international). Les données sur le commerce de l'Érythrée et de l'Éthiopie sont regroupées et déclarées en tant qu'importations et exportations éthiopiennes. Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. 
-La valeur totale en dollars des importations, exportations, réimportations et réexportations appartenant à des catégories de produits généralement considérées comme des biens intermédiaires, en millions de dollars américains, a été échangée avec le reste du monde. Les biens intermédiaires sont identifiés en prenant des produits dans les catégories économiques généraux (BEC) 4, 21, 22, 31, 42, 53, 111, 121 et 322. Pour plus d'information, voir :
-http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
+La valeur totale en dollars des importations, exportations, réimportations et réexportations appartenant à des catégories de produits généralement considérées comme des biens intermédiaires, en millions de dollars américains, a été échangée avec le reste du monde. Les biens intermédiaires sont identifiés en prenant des produits dans les catégories économiques généraux (BEC) 4, 21, 22, 31, 42, 53, 111, 121 et 322. Pour plus d'information, voir : http://www.cepii.fr/cepii/fr/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>PercIntra</t>
@@ -1924,8 +1784,7 @@
     <t>Entrées des investissements de portefeuille en % du PIB</t>
   </si>
   <si>
-    <t>Comme l'indique le rapport sur les perspectives de l'économie mondiale. Le FMI définit les investissements de portefeuille comme suit : "Les investissements de portefeuille sont définis comme des opérations et des positions transfrontalières portant sur des titres de créance ou de participation, autres que ceux inclus dans les investissements directs ou les avoirs de réserve... Les investissements de portefeuille couvrent, sans s'y limiter, les titres négociés sur les marchés financiers organisés ou autres. L'investissement de portefeuille implique généralement une infrastructure financière, telle qu'un cadre juridique, réglementaire et de règlement approprié, ainsi que des négociateurs teneurs de marché et un volume suffisant d'acheteurs et de vendeurs. Toutefois, l'acquisition d'actions dans des fonds spéculatifs, des fonds de capital-investissement et du capital-risque sont des exemples d'investissements de portefeuille qui ont lieu sur des marchés moins publics et moins réglementés. (Toutefois, les actions de ces fonds sont incluses dans les investissements directs lorsque les participations atteignent le seuil de 10 %, et dans les autres participations dans d'autres investissements lorsque l'investissement n'est pas sous forme de titre et n'est pas inclus dans les investissements directs ou les avoirs de réserve). L'investissement de portefeuille se distingue par la nature des fonds levés, la relation largement anonyme entre les émetteurs et les détenteurs, et le degré de liquidité des instruments". Voir le Manuel de la balance des paiements et de la position extérieure globale (MBP6) du FMI pour plus d'informations :
-https://www.imf.org/external/pubs/ft/bop/2007/bopman6.htm</t>
+    <t>Comme l'indique le rapport sur les perspectives de l'économie mondiale. Le FMI définit les investissements de portefeuille comme suit : "Les investissements de portefeuille sont définis comme des opérations et des positions transfrontalières portant sur des titres de créance ou de participation, autres que ceux inclus dans les investissements directs ou les avoirs de réserve... Les investissements de portefeuille couvrent, sans s'y limiter, les titres négociés sur les marchés financiers organisés ou autres. L'investissement de portefeuille implique généralement une infrastructure financière, telle qu'un cadre juridique, réglementaire et de règlement approprié, ainsi que des négociateurs teneurs de marché et un volume suffisant d'acheteurs et de vendeurs. Toutefois, l'acquisition d'actions dans des fonds spéculatifs, des fonds de capital-investissement et du capital-risque sont des exemples d'investissements de portefeuille qui ont lieu sur des marchés moins publics et moins réglementés. (Toutefois, les actions de ces fonds sont incluses dans les investissements directs lorsque les participations atteignent le seuil de 10 %, et dans les autres participations dans d'autres investissements lorsque l'investissement n'est pas sous forme de titre et n'est pas inclus dans les investissements directs ou les avoirs de réserve). L'investissement de portefeuille se distingue par la nature des fonds levés, la relation largement anonyme entre les émetteurs et les détenteurs, et le degré de liquidité des instruments". Voir le Manuel de la balance des paiements et de la position extérieure globale (MBP6) du FMI pour plus d'informations : https://www.imf.org/external/pubs/ft/bop/2007/bopman6.htm</t>
   </si>
   <si>
     <t>ODAPGD</t>
@@ -1934,8 +1793,7 @@
     <t>Entrées nettes d'aide publique au développement (APD) en % du PIB</t>
   </si>
   <si>
-    <t>APD nette rapportée par le Comité d'évaluation du développement de l'OCDE, provenant de tous les donateurs, en dollars américains aux prix courants en % du PIB en dollars américains selon les Perspectives de l'économie mondiale.
-https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
+    <t>APD nette rapportée par le Comité d'évaluation du développement de l'OCDE, provenant de tous les donateurs, en dollars américains aux prix courants en % du PIB en dollars américains selon les Perspectives de l'économie mondiale. https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
   </si>
   <si>
     <t>Aide publique au développement (APD) rapportée par le Comité d'aide au développement de l'OCDE (récupéré le 14/09/2021)</t>
@@ -1947,8 +1805,7 @@
     <t>Entrées d’investissements directs étrangers (IDE) en % du PIB</t>
   </si>
   <si>
-    <t>Flux entrants d'investissement direct étranger (IDE) en millions de dollars. Ces chiffres correspondent à la définition de l’IED. Ils figurent dans le Manuel de la balance des paiements : cinquième édition (MBP5) (Washington, Fonds monétaire international, 1993) et dans la Définition de référence détaillée de l’investissement direct étranger : troisième édition (BD3) (Paris). Organisation de coopération et de développement économiques, 1996). "IDE désigne un investissement réalisé pour acquérir un intérêt durable dans des entreprises exerçant des activités en dehors de l'économie de l'investisseur. En outre, en cas d'IDE, l'objectif de l'investisseur est de se faire entendre de manière efficace dans la gestion de l'entreprise. L'entité étrangère ou un groupe d'entités associées qui réalise l'investissement est appelé «investisseur direct». L'entreprise non constituée en société ou constituée en société - une succursale ou une filiale, respectivement, dans laquelle un investissement direct est réalisé - est appelée «entreprise d'investissement direct». la participation au capital est presque toujours considérée comme associée à une voix efficace dans la gestion d’une entreprise; le MBP5 suggère un seuil de 10% de la participation au capital permettant de qualifier un investisseur en tant qu’investisseur direct étranger. " Pour plus d'information, voir :
-https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
+    <t>Flux entrants d'investissement direct étranger (IDE) en millions de dollars. Ces chiffres correspondent à la définition de l’IED. Ils figurent dans le Manuel de la balance des paiements : cinquième édition (MBP5) (Washington, Fonds monétaire international, 1993) et dans la Définition de référence détaillée de l’investissement direct étranger : troisième édition (BD3) (Paris). Organisation de coopération et de développement économiques, 1996). "IDE désigne un investissement réalisé pour acquérir un intérêt durable dans des entreprises exerçant des activités en dehors de l'économie de l'investisseur. En outre, en cas d'IDE, l'objectif de l'investisseur est de se faire entendre de manière efficace dans la gestion de l'entreprise. L'entité étrangère ou un groupe d'entités associées qui réalise l'investissement est appelé «investisseur direct». L'entreprise non constituée en société ou constituée en société - une succursale ou une filiale, respectivement, dans laquelle un investissement direct est réalisé - est appelée «entreprise d'investissement direct». la participation au capital est presque toujours considérée comme associée à une voix efficace dans la gestion d’une entreprise; le MBP5 suggère un seuil de 10% de la participation au capital permettant de qualifier un investisseur en tant qu’investisseur direct étranger. " Pour plus d'information, voir : https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
   </si>
   <si>
     <t>UNCTADStat Online Data Center, FDI Online Database (récupéré le 17/11/2021)</t>
@@ -1960,8 +1817,7 @@
     <t>Entrées de transferts des migrants en % du PIB</t>
   </si>
   <si>
-    <t>Calculs du personnel de la Banque mondiale basés sur les données de la base de données du FMI sur la statistique de la balance des paiements et sur les données communiquées par les banques centrales, les agences nationales de statistique et les bureaux de pays de la Banque mondiale. Voir Migration and Development Brief 28, Annexe A pour plus de détails. Tous les chiffres sont en dollars courants (nominaux). Pour une discussion sur la définition des envois de fonds, voir Dilip Ratha, 2003, "Les envois de fonds des travailleurs : une source importante et stable de financement extérieur du développement", Global Development Finance 2003, Banque mondiale. Les données depuis 2005 sont basées sur les statistiques de la balance des paiements du FMI qui utilisent les définitions du MBP6 du FMI. Les données du PIB proviennent du WDI. Pour les dernières données et analyses sur les migrations et les envois de fonds, veuillez consulter :
-http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
+    <t>Calculs du personnel de la Banque mondiale basés sur les données de la base de données du FMI sur la statistique de la balance des paiements et sur les données communiquées par les banques centrales, les agences nationales de statistique et les bureaux de pays de la Banque mondiale. Voir Migration and Development Brief 28, Annexe A pour plus de détails. Tous les chiffres sont en dollars courants (nominaux). Pour une discussion sur la définition des envois de fonds, voir Dilip Ratha, 2003, "Les envois de fonds des travailleurs : une source importante et stable de financement extérieur du développement", Global Development Finance 2003, Banque mondiale. Les données depuis 2005 sont basées sur les statistiques de la balance des paiements du FMI qui utilisent les définitions du MBP6 du FMI. Les données du PIB proviennent du WDI. Pour les dernières données et analyses sur les migrations et les envois de fonds, veuillez consulter : http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
   </si>
   <si>
     <t>Données de la Banque mondiale sur les migrations et les envois de fonds (mai 2021)</t>
@@ -1973,8 +1829,7 @@
     <t>Entrées financières totales en % du PIB</t>
   </si>
   <si>
-    <t xml:space="preserve">Somme des entrées d'investissements de portefeuille, des entrées APD nette rapportée, d’investissements directs étrangers et les remises en pourcentage du PIB, telle que calculée par les auteurs.
-</t>
+    <t xml:space="preserve">Somme des entrées d'investissements de portefeuille, des entrées APD nette rapportée, d’investissements directs étrangers et les remises en pourcentage du PIB, telle que calculée par les auteurs. </t>
   </si>
   <si>
     <t>Calculs des auteurs fondés sur les données de flux financiers du FMI, du Comité d'aide au développement de l'OCDE, de la CNUCED et de la Banque mondiale</t>
@@ -1992,8 +1847,7 @@
     <t>Entrées des investissements de portefeuille (millions USD)</t>
   </si>
   <si>
-    <t>Tel que rapporté dans les Perspectives de l'économie mondiale. Les investissements de portefeuille sont définis comme des transactions et des positions transfrontalières impliquant des titres de créance ou des titres de participation, autres que ceux inclus dans les investissements directs ou les avoirs de réserve (...). Les investissements de portefeuille couvrent, sans toutefois s'y limiter, les titres négociés sur des marchés organisés ou sur d'autres marchés financiers. implique généralement une infrastructure financière, telle qu'un cadre juridique, réglementaire et de règlement approprié, ainsi que des négociateurs, ainsi qu'un nombre suffisant d'acheteurs et de vendeurs. Toutefois, l'acquisition d'actions de fonds de couverture, de fonds de capital-investissement et de capital-risque exemples d'investissements de portefeuille intervenant sur des marchés moins publics et moins réglementés (toutefois, les actions de ces fonds sont incluses dans les investissements directs lorsque les avoirs atteignent le seuil de 10% et dans les autres participations dans d'autres investissements lorsque l'investissement n'est pas sous la forme non compris dans les investissements directs ni dans les avoirs de réserve.) Les investissements de portefeuille se distinguent par La nature des fonds levés, la relation en grande partie anonyme entre les émetteurs et les détenteurs et le degré de liquidité des instruments négociés. Voir le Manuel de la balance des paiements et de la position extérieure globale du FMI (MBP6) pour plus d'informations :
-https://www.imf.org/external/pubs/ft/bop/2007/bopman6.htm</t>
+    <t>Tel que rapporté dans les Perspectives de l'économie mondiale. Les investissements de portefeuille sont définis comme des transactions et des positions transfrontalières impliquant des titres de créance ou des titres de participation, autres que ceux inclus dans les investissements directs ou les avoirs de réserve (...). Les investissements de portefeuille couvrent, sans toutefois s'y limiter, les titres négociés sur des marchés organisés ou sur d'autres marchés financiers. implique généralement une infrastructure financière, telle qu'un cadre juridique, réglementaire et de règlement approprié, ainsi que des négociateurs, ainsi qu'un nombre suffisant d'acheteurs et de vendeurs. Toutefois, l'acquisition d'actions de fonds de couverture, de fonds de capital-investissement et de capital-risque exemples d'investissements de portefeuille intervenant sur des marchés moins publics et moins réglementés (toutefois, les actions de ces fonds sont incluses dans les investissements directs lorsque les avoirs atteignent le seuil de 10% et dans les autres participations dans d'autres investissements lorsque l'investissement n'est pas sous la forme non compris dans les investissements directs ni dans les avoirs de réserve.) Les investissements de portefeuille se distinguent par La nature des fonds levés, la relation en grande partie anonyme entre les émetteurs et les détenteurs et le degré de liquidité des instruments négociés. Voir le Manuel de la balance des paiements et de la position extérieure globale du FMI (MBP6) pour plus d'informations : https://www.imf.org/external/pubs/ft/bop/2007/bopman6.htm</t>
   </si>
   <si>
     <t>ODA</t>
@@ -2002,8 +1856,7 @@
     <t>Entrées nettes d'aide publique au développement (APD) (millions USD)</t>
   </si>
   <si>
-    <t>APD nette rapportée par le Comité d’évaluation du développement de l’OCDE, de tous les donateurs, en dollars américains aux prix courants en % du PIB en dollars américains, selon les Perspectives de l’économie mondiale.
-https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
+    <t>APD nette rapportée par le Comité d’évaluation du développement de l’OCDE, de tous les donateurs, en dollars américains aux prix courants en % du PIB en dollars américains, selon les Perspectives de l’économie mondiale. https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
   </si>
   <si>
     <t>UNCTADFDI</t>
@@ -2012,8 +1865,7 @@
     <t>Entrées d’investissements directs étrangers (IDE) (millions USD)</t>
   </si>
   <si>
-    <t>Flux entrants d'investissement direct étranger (IDE) en millions de dollars. Ces chiffres correspondent à la définition de l’IED. Ils figurent dans le Manuel de la balance des paiements : cinquième édition (MBP5) (Washington, Fonds monétaire international, 1993) et dans la Définition de référence détaillée de l’investissement direct étranger : troisième édition (BD3) (Paris). Organisation de coopération et de développement économiques, 1996). "IDE désigne un investissement réalisé pour acquérir un intérêt durable dans des entreprises exerçant des activités en dehors de l'économie de l'investisseur. En outre, en cas d'IDE, l'objectif de l'investisseur est de se faire entendre de manière efficace dans la gestion de l'entreprise. L'entité étrangère ou un groupe d'entités associées qui réalise l'investissement est appelé «investisseur direct». L'entreprise non constituée en société ou constituée en société - une succursale ou une filiale, respectivement, dans laquelle un investissement direct est réalisé - est appelée «entreprise d'investissement direct». la participation au capital est presque toujours considérée comme associée à une voix efficace dans la gestion d’une entreprise; le MBP5 suggère un seuil de 10% de la participation au capital permettant de qualifier un investisseur en tant qu’investisseur direct étranger. " Pour plus d'information, voir :
-https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx&lt;br&gt;&lt;br&gt;</t>
+    <t>Flux entrants d'investissement direct étranger (IDE) en millions de dollars. Ces chiffres correspondent à la définition de l’IED. Ils figurent dans le Manuel de la balance des paiements : cinquième édition (MBP5) (Washington, Fonds monétaire international, 1993) et dans la Définition de référence détaillée de l’investissement direct étranger : troisième édition (BD3) (Paris). Organisation de coopération et de développement économiques, 1996). "IDE désigne un investissement réalisé pour acquérir un intérêt durable dans des entreprises exerçant des activités en dehors de l'économie de l'investisseur. En outre, en cas d'IDE, l'objectif de l'investisseur est de se faire entendre de manière efficace dans la gestion de l'entreprise. L'entité étrangère ou un groupe d'entités associées qui réalise l'investissement est appelé «investisseur direct». L'entreprise non constituée en société ou constituée en société - une succursale ou une filiale, respectivement, dans laquelle un investissement direct est réalisé - est appelée «entreprise d'investissement direct». la participation au capital est presque toujours considérée comme associée à une voix efficace dans la gestion d’une entreprise; le MBP5 suggère un seuil de 10% de la participation au capital permettant de qualifier un investisseur en tant qu’investisseur direct étranger. " Pour plus d'information, voir : https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>Remit</t>
@@ -2043,8 +1895,7 @@
     <t>Superficie (milliers d'hectares)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
   </si>
   <si>
     <t>ha</t>
@@ -2059,8 +1910,7 @@
     <t>Terres agricoles (milliers d'hectares)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres agricoles sont définies comme les terres utilisées pour la culture des cultures et l'élevage. Le total des superficies sous '' Terres cultivées '' et '' Prairies et pâturages permanents ''. &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:
-http://www.fao.org/faostat/en/#data/RL/metadata</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres agricoles sont définies comme les terres utilisées pour la culture des cultures et l'élevage. Le total des superficies sous '' Terres cultivées '' et '' Prairies et pâturages permanents ''. &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter: http://www.fao.org/faostat/en/#data/RL/metadata</t>
   </si>
   <si>
     <t>CropLand</t>
@@ -2069,8 +1919,7 @@
     <t>Terres cultivées (milliers d'hectares)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres cultivées sont définies comme les terres utilisées pour la culture des cultures. Le total des superficies sous «Terres arables» et «Cultures permanentes». &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres cultivées sont définies comme les terres utilisées pour la culture des cultures. Le total des superficies sous «Terres arables» et «Cultures permanentes». &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
   </si>
   <si>
     <t>ForestLand</t>
@@ -2079,8 +1928,7 @@
     <t>Terres forestières (milliers d'hectares)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres forestières sont définies comme des terres s'étendant sur plus de 0,5 hectare avec des arbres de plus de 5 mètres et un couvert forestier de plus de 10%, ou des arbres capables d'atteindre ces seuils in situ. Exclut les terres qui sont principalement utilisées à des fins agricoles ou urbaines, et les terres qui sont principalement utilisées pour l'entretien et la restauration de la fonction environnementale. &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:
-http://www.fao.org/faostat/en/#data/RL/metadata</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres forestières sont définies comme des terres s'étendant sur plus de 0,5 hectare avec des arbres de plus de 5 mètres et un couvert forestier de plus de 10%, ou des arbres capables d'atteindre ces seuils in situ. Exclut les terres qui sont principalement utilisées à des fins agricoles ou urbaines, et les terres qui sont principalement utilisées pour l'entretien et la restauration de la fonction environnementale. &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter: http://www.fao.org/faostat/en/#data/RL/metadata</t>
   </si>
   <si>
     <t>InlndWtrs</t>
@@ -2089,8 +1937,7 @@
     <t>Eaux intérieures (milliers d'hectares)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les eaux intérieures sont définies comme des zones correspondant à des cours d'eau naturels ou artificiels, servant à drainer des plans d'eau naturels ou artificiels, y compris les lacs, réservoirs, rivières, ruisseaux, ruisseaux, étangs, canaux intérieurs, barrages et autres eaux sans littoral. Les berges constituent des limites que l'eau soit présente ou non. "Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT." Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les eaux intérieures sont définies comme des zones correspondant à des cours d'eau naturels ou artificiels, servant à drainer des plans d'eau naturels ou artificiels, y compris les lacs, réservoirs, rivières, ruisseaux, ruisseaux, étangs, canaux intérieurs, barrages et autres eaux sans littoral. Les berges constituent des limites que l'eau soit présente ou non. "Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT." Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
   </si>
   <si>
     <t>AgricProd</t>
@@ -2099,8 +1946,7 @@
     <t>Production agricole (millions USD)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres de la production agricole sont des agrégations produites par la FAO de ses estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres de la production agricole sont des agrégations produites par la FAO de ses estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>2000-2018</t>
@@ -2112,8 +1958,7 @@
     <t>Production céréalière (millions USD)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres de la production céréalière sont des agrégations produites par la FAO de ses estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres de la production céréalière sont des agrégations produites par la FAO de ses estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>CropProd</t>
@@ -2122,8 +1967,7 @@
     <t>Production des cultures (millions USD)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres relatifs à la production végétale sont des agrégations produites par la FAO de leurs estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres relatifs à la production végétale sont des agrégations produites par la FAO de leurs estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>FoodProd</t>
@@ -2132,8 +1976,7 @@
     <t>Production alimentaire (millions USD)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres relatifs à la production alimentaire sont des agrégations produites par la FAO de leurs estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres relatifs à la production alimentaire sont des agrégations produites par la FAO de leurs estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>LivStkProd</t>
@@ -2142,8 +1985,7 @@
     <t>Production animale (millions USD)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres de la production animale sont des agrégations produites par la FAO de leurs estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres de la production animale sont des agrégations produites par la FAO de leurs estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>NFoodProd</t>
@@ -2152,8 +1994,7 @@
     <t>Production agricole non alimentaire (millions USD)</t>
   </si>
   <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres de la production agricole non alimentaire sont des agrégations produites par la FAO de ses estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): "La valeur de la production brute a été calculée en multipliant la production brute en termes physiques par les prix de la production à la ferme. Ainsi, la valeur de la production mesure la production en termes monétaires au niveau de la ferme. Depuis les utilisations intermédiaires dans le secteur agricole (semences et aliments pour animaux) n'ont pas été soustraites des données de production, cette valeur de l'agrégat de production renvoie à la notion de "" production brute ""... La valeur actuelle de la production mesure la valeur des prix relatifs à la période mesurée. Ainsi, elle représente le marché valeur des produits alimentaires et agricoles au moment où ils ont été produits." Les chiffres de la production agricole non alimentaire sont des agrégations produites par la FAO de ses estimations de la valeur de la production des produits de base déclarées par pays en USD courants. Il y a 236 produits agricoles (végétaux et animaux) déclarés par la FAO, classés selon la liste des produits FAOSTAT (FCL) et les codes du système harmonisé (SH). Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>FoodSupp</t>
@@ -2174,8 +2015,7 @@
     <t>Usage agricole d'azote nutritif (tonnes)</t>
   </si>
   <si>
-    <t>À partir du portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). La principale source de données pour la production et l'utilisation agricole est le questionnaire FAOSTAT sur les engrais, complété par des publications nationales lorsqu'elles sont disponibles. L'utilisation agricole d'engrais fait référence à l'utilisation pour les cultures, l'élevage, la foresterie, la pêche et l'aquaculture, à l'exclusion de l'utilisation pour l'alimentation animale. Les tonnes d'azote nutritif sont calculées à l'aide de facteurs de conversion appliqués aux volumes d'engrais azotés. Pour plus d'informations, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/RFN/RFN_EN_README.pdf</t>
+    <t>À partir du portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). La principale source de données pour la production et l'utilisation agricole est le questionnaire FAOSTAT sur les engrais, complété par des publications nationales lorsqu'elles sont disponibles. L'utilisation agricole d'engrais fait référence à l'utilisation pour les cultures, l'élevage, la foresterie, la pêche et l'aquaculture, à l'exclusion de l'utilisation pour l'alimentation animale. Les tonnes d'azote nutritif sont calculées à l'aide de facteurs de conversion appliqués aux volumes d'engrais azotés. Pour plus d'informations, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/RFN/RFN_EN_README.pdf</t>
   </si>
   <si>
     <t>tonnes</t>
@@ -2187,8 +2027,7 @@
     <t>Usage agricole d'azote nutritif par superficie de terres cultivées (tonnes / ha)</t>
   </si>
   <si>
-    <t>À partir du jeu de données sur les engrais synthétiques dans Emissions - Agriculture dans FAOStat. Quantité d'azote nutritif utilisée pour l'agriculture en kg d'éléments nutritifs.
-http://www.fao.org/faostat/fr/#data/RL/metadata</t>
+    <t>À partir du jeu de données sur les engrais synthétiques dans Emissions - Agriculture dans FAOStat. Quantité d'azote nutritif utilisée pour l'agriculture en kg d'éléments nutritifs. http://www.fao.org/faostat/fr/#data/RL/metadata</t>
   </si>
   <si>
     <t>kg/hectare</t>
@@ -2200,8 +2039,7 @@
     <t>Stock de carbone dans la biomasse vivante (forêts, millions de tonnes)</t>
   </si>
   <si>
-    <t>Calculs de l'auteur basés sur les données de FAOStat.Variable dérivée constituée du rapport entre la quantité d'engrais azoté utilisée pour l'agriculture et la quantité de terres arables, en kg d'azote par hectare.
-http://www.fao.org/3/ap862e/ap862e00.pdf</t>
+    <t>Calculs de l'auteur basés sur les données de FAOStat.Variable dérivée constituée du rapport entre la quantité d'engrais azoté utilisée pour l'agriculture et la quantité de terres arables, en kg d'azote par hectare. http://www.fao.org/3/ap862e/ap862e00.pdf</t>
   </si>
   <si>
     <t>TotAgGHG</t>
@@ -2210,8 +2048,7 @@
     <t>Émissions totales de GES de l'agriculture (gigagrammes d'équivalent CO2)</t>
   </si>
   <si>
-    <t>Sur le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). Agriculture Total contient toutes les émissions produites dans les différents sous-domaines d'émissions agricoles (fermentation entérique, gestion du fumier, riziculture, engrais synthétiques, fumier épandu sur les sols, fumier laissé sur les pâturages, résidus de cultures, culture de sols organiques, brûlage des résidus de culture , brûlage de savane, consommation d'énergie), donnant une image de la contribution au montant total des émissions de GES de l'agriculture. Les émissions de GES de l'agriculture sont constituées de gaz sans CO2, à savoir le méthane (CH4) et l'oxyde nitreux (N2O), produits par les activités de production et de gestion des cultures et de l'élevage. Pour en savoir plus sur la méthodologie de calcul du stock de carbone, veuillez consulter:
-http://fenixservices.fao.org/faostat/static/documents/GT/GT_e_2019.pdf</t>
+    <t>Sur le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). Agriculture Total contient toutes les émissions produites dans les différents sous-domaines d'émissions agricoles (fermentation entérique, gestion du fumier, riziculture, engrais synthétiques, fumier épandu sur les sols, fumier laissé sur les pâturages, résidus de cultures, culture de sols organiques, brûlage des résidus de culture , brûlage de savane, consommation d'énergie), donnant une image de la contribution au montant total des émissions de GES de l'agriculture. Les émissions de GES de l'agriculture sont constituées de gaz sans CO2, à savoir le méthane (CH4) et l'oxyde nitreux (N2O), produits par les activités de production et de gestion des cultures et de l'élevage. Pour en savoir plus sur la méthodologie de calcul du stock de carbone, veuillez consulter: http://fenixservices.fao.org/faostat/static/documents/GT/GT_e_2019.pdf</t>
   </si>
   <si>
     <t>gigagrammes</t>
@@ -2230,8 +2067,7 @@
 Cet ensemble de données contient des mesures de la valeur ajoutée et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données. Seules les données GVC basées sur les tables d'entrées-sorties de l'EORA26v199.82 sont prises en compte ici.
 Les exportations brutes sont exprimées en millions de dollars américains et font référence à la valeur des biens et services produits pour l'exportation. Ceci est indiqué ici car les CVM sont souvent exprimées en pourcentage des exportations brutes.
 La valeur des exportations brutes peut être décomposée en contenu domestique (DC) et contenu étranger (FC). Le contenu domestique est la proportion de la valeur des exportations d'origine nationale, et le contenu étranger est la proportion provenant de la valeur des biens intermédiaires importés qui servent d'intrants dans la production de ces exportations. Le contenu domestique et le contenu étranger comprennent respectivement la valeur ajoutée nationale et étrangère, mais également le double comptage provenant des processus de production qui impliquent de multiples allers-retours aux frontières. La valeur ajoutée nationale comprend également le « reflet », qui correspond à la valeur ajoutée nationale exportée, réimportée et absorbée dans l'économie nationale.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>2000-2015</t>
@@ -2249,8 +2085,7 @@
     <t>Extrait de la base de données GVC publiée avec le “Rapport sur le développement dans le monde 2020”, de la Banque mondiale.
 Cet ensemble de données contient des mesures de la valeur ajoutée et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données. Seules les données GVC basées sur les tables d'entrées-sorties de l'EORA26v199.82 sont prises en compte ici.
 Les exportations totales des CVM se réfèrent à la valeur totale en millions de dollars US de la production nationale franchissant plus d'une frontière. Cela comprend à la fois la participation en amont (valeur étrangère et nationale des intrants importés qui sont réexportés) et la participation en aval (valeur de la production nationale réexportée par les partenaires bilatéraux).
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb</t>
@@ -2262,8 +2097,7 @@
     <t>Extrait de la base de données GVC publiée avec le “Rapport sur le développement dans le monde 2020”, de la Banque mondiale.
 Cet ensemble de données contient des mesures de la valeur ajoutée et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données. Seules les données GVC basées sur les tables d'entrées-sorties de l'EORA26v199.82 sont prises en compte ici.
 La participation en amont aux CVM » fait référence à la valeur étrangère et nationale des intrants importés qui sont réexportés.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf</t>
@@ -2275,8 +2109,7 @@
     <t>Extrait de la base de données GVC publiée avec le “Rapport sur le développement dans le monde 2020”, de la Banque mondiale.
 Cet ensemble de données contient des mesures de la valeur ajoutée et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données. Seules les données GVC basées sur les tables d'entrées-sorties de l'EORA26v199.82 sont prises en compte ici.
 La participation en aval aux CVM » fait référence à la valeur des productions nationales qui sont réexportées par les partenaires bilatéraux.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb01</t>
@@ -2292,8 +2125,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Agriculture » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur de l’Agriculture utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb02</t>
@@ -2306,8 +2138,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Pêche » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Pêche utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb03</t>
@@ -2320,8 +2151,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Mines et carrières » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Mines et carrières utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb04</t>
@@ -2334,8 +2164,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Alimentation et boissons » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Alimentation et boissons utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb05</t>
@@ -2348,8 +2177,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Textiles et vêtements » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Textiles et vêtements utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb06</t>
@@ -2362,8 +2190,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Bois et papier » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Bois et papier utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb07</t>
@@ -2376,8 +2203,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Produits pétroliers, chimiques et minéraux non métalliques » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Produits pétroliers, chimiques et minéraux non métalliques utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb08</t>
@@ -2390,8 +2216,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Produits métalliques » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Produits métalliques utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb09</t>
@@ -2404,8 +2229,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Électricité et machinerie » » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Électricité et machinerie utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb10</t>
@@ -2418,8 +2242,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Équipement de transport » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Équipement de transport utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb11</t>
@@ -2432,8 +2255,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Autres industries manufacturières » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Autres industries manufacturières utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb12</t>
@@ -2446,8 +2268,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Recyclage » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Recyclage utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb13</t>
@@ -2460,8 +2281,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Électricité, gaz et eau » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Électricité, gaz et eau utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb14</t>
@@ -2474,8 +2294,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Construction » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Construction utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb15</t>
@@ -2488,8 +2307,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Maintenance et réparation » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Maintenance et réparation utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb16</t>
@@ -2502,8 +2320,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Commerce de gros » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Commerce de gros utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb17</t>
@@ -2516,8 +2333,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Commerce de détail » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Commerce de détail utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb18</t>
@@ -2530,8 +2346,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Hôtels et Restaurants » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Hôtels et Restaurants utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb19</t>
@@ -2544,8 +2359,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Transport » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Transport utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb20</t>
@@ -2558,8 +2372,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Postes et télécommunications » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Postes et télécommunications utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb21</t>
@@ -2572,8 +2385,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Intermédiation financière et activités commerciales » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Intermédiation financière et activités commerciales utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb22</t>
@@ -2586,8 +2398,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Administration publique » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Administration publique utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb23</t>
@@ -2600,8 +2411,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur «Éducation, santé et autres services » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Éducation, santé et autres services utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb24</t>
@@ -2614,8 +2424,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « Ménages privés » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Ménages privés utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb25</t>
@@ -2628,8 +2437,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM Autres » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur Autres utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb26</t>
@@ -2642,8 +2450,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en amont aux CVM du secteur « réexportation et réimportation » fait référence à la valeur des intrants étrangers et nationaux importés dans le secteur qui sont réexportés. Le secteur réexportation et réimportation utilisé ici est tiré des 26 secteurs des tableaux d'entrées-sorties du Eora v99.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf01</t>
@@ -2659,8 +2466,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Agriculture » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Agriculture ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf02</t>
@@ -2673,8 +2479,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Pêche » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur de la Pêche ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf03</t>
@@ -2687,8 +2492,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Mines et Carrières » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Mines et Carrières ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf04</t>
@@ -2701,8 +2505,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Alimentation et boissons » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Alimentation et boissons ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf05</t>
@@ -2715,8 +2518,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Textiles et vêtements » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Textiles et vêtements ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf06</t>
@@ -2729,8 +2531,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Bois et papier » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Bois et papier ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf07</t>
@@ -2743,8 +2544,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Produits pétroliers, chimiques et minéraux non métalliques » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Produits pétroliers, chimiques et minéraux non métalliques ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf08</t>
@@ -2757,8 +2557,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Produits métalliques » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Produits métalliques ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf09</t>
@@ -2771,8 +2570,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Électricité et machinerie » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Électricité et machinerie ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf10</t>
@@ -2785,8 +2583,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Équipement de transport » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Équipement de transport ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf11</t>
@@ -2799,8 +2596,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Autres industries manufacturières » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Autres industries manufacturières ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf12</t>
@@ -2813,8 +2609,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Recyclage » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Recyclage ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf13</t>
@@ -2827,8 +2622,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Électricité, gaz et eau » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Électricité, gaz et eau ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf14</t>
@@ -2841,8 +2635,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Construction » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Construction ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf15</t>
@@ -2855,8 +2648,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Maintenance et réparation » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Maintenance et réparation ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf16</t>
@@ -2869,8 +2661,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Commerce de gros » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Commerce de gros ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf17</t>
@@ -2883,8 +2674,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Commerce de détail » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Commerce de détail ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf18</t>
@@ -2897,8 +2687,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Hôtels et Restaurants » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Hôtels et Restaurants ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf19</t>
@@ -2911,8 +2700,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Transport » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Transport ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf20</t>
@@ -2925,8 +2713,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Postes et télécommunications » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Postes et télécommunications ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf21</t>
@@ -2939,8 +2726,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Intermédiation financière et activités commerciales » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Intermédiation financière et activités commerciales ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf22</t>
@@ -2953,8 +2739,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Administration publique » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Administration publique ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf23</t>
@@ -2967,8 +2752,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur «Éducation, santé et autres services » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Éducation, santé et autres services ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf24</t>
@@ -2981,8 +2765,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « Ménages privés » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Ménages privés ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf25</t>
@@ -2995,8 +2778,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM Autres » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur Autres ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf26</t>
@@ -3009,8 +2791,7 @@
 Cet ensemble de données contient des mesures de la valeur et des chaînes de valeur mondiales basées sur des tableaux d'entrées-sorties inter-pays (ICIO). Le document de référence du rapport de la Banque Mondiale, «Measuring What Matters in Global Value Chains and Value-Added Trade», rédigé par A. Borin et M. Mancini en 2019, décrit la méthodologie utilisée pour générer ces données.
 La participation en aval aux CVM du secteur « réexportation et réimportation » fait référence à la valeur de la production nationale dans le secteur qui est réexportée par les partenaires bilatéraux. Le secteur réexportation et réimportation ici est tiré des 26 secteurs dans les tableaux d'entrées-sorties de la base de données l'Eora v199.82.
 Les CVM sont souvent exprimées en pourcentage des exportations brutes.
-Pour plus d'informations, veuillez consulter:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+Pour plus d'informations, veuillez consulter: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>VASameCtry</t>
@@ -3023,8 +2804,7 @@
   </si>
   <si>
     <t>Valeur totale des exportations nationales originaires du pays en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>1990-2019</t>
@@ -3040,8 +2820,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants importés utilisés dans la production de ces biens et services, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVABordCtry</t>
@@ -3051,8 +2830,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants utilisés dans la production de ces biens et services qui ont été importés de pays partageant une frontière terrestre, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVASameAUCReg</t>
@@ -3062,8 +2840,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants utilisés dans la production de ces biens et services qui ont été importés de pays de la même région africaine telle que définie par le Traité d'Abuja en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVASameCont</t>
@@ -3073,8 +2850,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants utilisés dans la production de ces biens et services qui ont été importés de pays du même continent, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVAExtraCont</t>
@@ -3084,8 +2860,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants utilisés dans la production de ces biens et services qui ont été importés de pays d'un continent différent, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVA</t>
@@ -3095,8 +2870,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services provenant d'autres pays, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVABordCtry</t>
@@ -3106,8 +2880,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services de pays partageant une frontière terrestre, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVASameAUCReg</t>
@@ -3117,8 +2890,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services provenant de pays de la même région africaine telle que définie par le Traité d'Abuja, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVASameCont</t>
@@ -3128,8 +2900,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services provenant de pays d'un continent différent, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVAExtraCont</t>
@@ -3139,8 +2910,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services provenant de pays du même continent, en millions de dollars US.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>VASameCtryPGD</t>
@@ -3150,8 +2920,7 @@
   </si>
   <si>
     <t>Valeur totale des exportations nationales originaires du pays en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVAPGD</t>
@@ -3161,8 +2930,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants importés utilisés dans la production de ces biens et services, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVABordCtryPGD</t>
@@ -3172,8 +2940,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants utilisés dans la production de ces biens et services qui ont été importés de pays partageant une frontière terrestre, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVASameAUCRegPGD</t>
@@ -3183,8 +2950,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants utilisés dans la production de ces biens et services qui ont été importés de pays de la même région africaine telle que définie par le Traité d'Abuja en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVASameContPGD</t>
@@ -3194,8 +2960,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants utilisés dans la production de ces biens et services qui ont été importés de pays du même continent, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVAExtraContPGD</t>
@@ -3205,8 +2970,7 @@
   </si>
   <si>
     <t>La composante de la valeur totale des biens et services exportés qui peut être attribuée aux intrants utilisés dans la production de ces biens et services qui ont été importés de pays d'un continent différent, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVAPGD</t>
@@ -3216,8 +2980,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services provenant d'autres pays, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVABordCtryPGD</t>
@@ -3227,8 +2990,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services de pays partageant une frontière terrestre, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVASameAUCRegPGD</t>
@@ -3238,8 +3000,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services provenant de pays de la même région africaine telle que définie par le Traité d'Abuja, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVASameContPGD</t>
@@ -3249,8 +3010,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services provenant de pays d'un continent différent, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVAExtraContPGD</t>
@@ -3260,8 +3020,7 @@
   </si>
   <si>
     <t>La contribution des biens et services produits au niveau national à la valeur totale des exportations de biens et services provenant de pays du même continent, en pourcentage du PIB.
-Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+Calculé à partir d'une matrice pays par pays des pays à l'origine de la valeur ajoutée croisée avec les pays exportateurs de cette valeur ajoutée – qui a été calculée pour chaque année donnée à partir des données de la base de données de la chaîne de valeur mondiale CNUCED-Eora. La base de données produit une couverture mondiale de la valeur ajoutée générée à partir des tableaux d'entrées-sorties multirégionales (MRIO) d'Eora. La méthodologie est basée sur l'article de 2019 « Improving the analysis of global value chains: the UNCTAD-Eora Database » de Casella, B., R. Bolwign, D. Moran et K. Kanemoto publié dans Transnational Corporations 26(3). Les données sont fournies sous une licence internationale Creative Commons Attribution-ShareAlike 4.0 (voir https://creativecommons.org/licenses/by-sa/4.0/). https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>TrdCstDBord</t>
@@ -3272,8 +3031,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits manufacturés entre le pays donné, ou un ensemble de pays, et tous les pays avec lesquels ce ou ces pays partagent une frontière terrestre. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits manufacturés provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Le coût du commerce bilatéral est défini dans la base de données CESAP-Banque mondiale comme le coût total du commerce de produits manufacturés entre deux pays par rapport au coût du commerce de ces mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB, qui suppose que le coût du commerce de chaque pays est le même pour les importations et les exportations. Le coût moyen des échanges avec les pays de la même région de l'UA est obtenu en prenant la moyenne des coûts commerciaux déclarés pour les pays qui se trouvent dans la même région de l'UA, pondérée par le volume des échanges déclarés avec ces mêmes pays. Lorsque le coût du commerce bilatéral n’a pas été déclaré pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les valeurs manquantes représentaient encore plus de 50 % du volume total des échanges déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>Volume des échanges</t>
@@ -3290,8 +3048,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits manufacturés entre le pays donné, ou un ensemble de pays, et tous les pays de la même région africaine, tels que définis par le Traité d'Abuja. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits manufacturés provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits manufacturés entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen des échanges avec les pays de la même région de l'UA est obtenu en prenant la moyenne de ces coûts commerciaux déclarés pour les pays qui se trouvent dans la même région de l'UA pondérée par le volume des échanges déclarés avec ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstDCont</t>
@@ -3302,8 +3059,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits manufacturés entre le pays donné, ou un ensemble de pays, et tous les pays du même continent. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits manufacturés provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits manufacturés entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen des échanges avec les pays d'un même continent est obtenu en prenant la moyenne de ces coûts d'échanges déclarés pour les pays d'un même continent (Amérique du Nord, Amérique du Sud, Afrique, Europe, Asie ou Océanie) pondérée par le volume des échanges signalés avec ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstDWLD</t>
@@ -3314,8 +3070,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits manufacturés entre le pays donné, ou un ensemble de pays, et tous les pays du monde. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits manufacturés provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits manufacturés entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen du commerce est obtenu en prenant la moyenne de ces coûts du commerce déclarée pour tous les partenaires commerciaux pondérée par le volume du commerce déclaré pour ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstDInternal</t>
@@ -3326,8 +3081,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits manufacturés entre les pays d'un même groupe de pays.. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits manufacturés provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits manufacturés entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen du commerce est obtenu en prenant la moyenne de ces coûts commerciaux déclarés pour tous les partenaires commerciaux au sein du même groupe de pays par le volume du commerce déclaré pour ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstDExternal</t>
@@ -3338,8 +3092,7 @@
   <si>
     <t>Pour un groupe de pays donné, les calculs de l'auteur du coût moyen estimé du commerce des produits manufacturés entre deux pays du monde, où un pays fait partie du groupe de pays et l'autre est extérieur au groupe de pays. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits manufacturés provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits manufacturés entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen du commerce est obtenu en prenant la moyenne de ces coûts commerciaux déclarés pour tous les partenaires commerciaux qui ne font pas partie du groupe de pays donné par le volume du commerce déclaré pour ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABBord</t>
@@ -3350,8 +3103,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits primaires entre le pays donné, ou un ensemble de pays, et tous les pays avec lesquels ce ou ces pays partagent une frontière terrestre. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits primaires provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Le coût du commerce bilatéral est défini dans la base de données CESAP-Banque mondiale comme le coût total du commerce de produits primaires entre deux pays par rapport au coût du commerce de ces mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB, qui suppose que le coût du commerce de chaque pays est le même pour les importations et les exportations. Le coût moyen des échanges avec les pays de la même région de l'UA est obtenu en prenant la moyenne des coûts commerciaux déclarés pour les pays qui se trouvent dans la même région de l'UA, pondérée par le volume des échanges déclarés avec ces mêmes pays. Lorsque le coût du commerce bilatéral n’a pas été déclaré pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les valeurs manquantes représentaient encore plus de 50 % du volume total des échanges déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABAUCReg</t>
@@ -3362,8 +3114,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits primaires entre le pays donné, ou un ensemble de pays, et tous les pays de la même région africaine, tels que définis par le Traité d'Abuja. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits primaires provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits primaires entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen des échanges avec les pays de la même région de l'UA est obtenu en prenant la moyenne de ces coûts commerciaux déclarés pour les pays qui se trouvent dans la même région de l'UA pondérée par le volume des échanges déclarés avec ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABCont</t>
@@ -3374,8 +3125,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits primaires entre le pays donné, ou un ensemble de pays, et tous les pays du même continent. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits primaires provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits primaires entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen des échanges avec les pays d'un même continent est obtenu en prenant la moyenne de ces coûts d'échanges déclarés pour les pays d'un même continent (Amérique du Nord, Amérique du Sud, Afrique, Europe, Asie ou Océanie) pondérée par le volume des échanges signalés avec ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABWLD</t>
@@ -3386,8 +3136,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits primaires entre le pays donné, ou un ensemble de pays, et tous les pays du monde. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits primaires provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits primaires entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen du commerce est obtenu en prenant la moyenne de ces coûts du commerce déclarée pour tous les partenaires commerciaux pondérée par le volume du commerce déclaré pour ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABInternal</t>
@@ -3398,8 +3147,7 @@
   <si>
     <t>Les calculs de l'auteur du coût moyen estimé du commerce de produits primaires entre les pays d'un même groupe de pays.. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits primaires provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits primaires entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen du commerce est obtenu en prenant la moyenne de ces coûts commerciaux déclarés pour tous les partenaires commerciaux au sein du même groupe de pays par le volume du commerce déclaré pour ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABExternal</t>
@@ -3410,8 +3158,7 @@
   <si>
     <t>Pour un groupe de pays donné, les calculs de l'auteur du coût moyen estimé du commerce des produits primaires entre deux pays du monde, où un pays fait partie du groupe de pays et l'autre est extérieur au groupe de pays. Ceux-ci sont basés sur des estimations du coût du commerce bilatéral de produits primaires provenant de la base de données CESAP-Banque mondiale sur le coût du commerce agrégé utilisent des moyennes pondérées par le total des flux commerciaux bilatéraux déclarés dans la base de données CEPII BACI.
 Les coûts du commerce bilatéral sont définis dans la base de données CESAP-Banque mondiale comme comprenant le coût total du commerce des produits primaires entre deux pays par rapport au coût du commerce des mêmes produits au niveau national. Ceux-ci sont déduits d'un modèle de gravité appliqué aux données sur le commerce et le PIB qui suppose que les coûts commerciaux pour tout pays sont les mêmes pour les importations et les exportations. Le coût moyen du commerce est obtenu en prenant la moyenne de ces coûts commerciaux déclarés pour tous les partenaires commerciaux qui ne font pas partie du groupe de pays donné par le volume du commerce déclaré pour ces mêmes pays. Lorsque les coûts bilatéraux du commerce n'étaient pas déclarés pour une paire de pays au cours d'une année donnée, les chiffres déclarés au cours des quatre années précédentes ou suivantes ont été utilisés pour interpoler les valeurs manquantes. Si, après interpolation, les coûts commerciaux manquants représentaient encore plus de 50 % des volumes commerciaux totaux déclarés, les valeurs agrégées n'étaient pas déclarées.
-Pour plus d'informations, veuillez consulter:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+Pour plus d'informations, veuillez consulter: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>ISO9001</t>
@@ -3424,8 +3171,7 @@
   </si>
   <si>
     <t>D’après une enquête menée sur le nombre de certificats valides enregistrés par les normes de système de management ISO dans le monde. Il s'agit du nombre de certifications valides selon la norme de systèmes de gestion de la qualité ISO 9001 rapportés par les organismes de certification accrédités par les membres du Forum international d'accréditation.
-Pour plus d'informations, veuillez consulter:
-https://www.iso.org/the-iso-survey.html</t>
+Pour plus d'informations, veuillez consulter: https://www.iso.org/the-iso-survey.html</t>
   </si>
   <si>
     <t>Certificats</t>
@@ -3441,8 +3187,7 @@
   </si>
   <si>
     <t>D’après une enquête menée sur le nombre de certificats valides enregistrés par les normes de système de management ISO dans le monde. Il s'agit du nombre de certifications valides selon la norme de systèmes de gestion environnementale ISO 14001 rapportés par les organismes de certification accrédités par les membres du Forum international d'accréditation.
-Pour plus d'informations, veuillez consulter:
-https://www.iso.org/the-iso-survey.html</t>
+Pour plus d'informations, veuillez consulter: https://www.iso.org/the-iso-survey.html</t>
   </si>
   <si>
     <t>ISO50001</t>
@@ -3452,8 +3197,7 @@
   </si>
   <si>
     <t>D’après une enquête menée sur le nombre de certificats valides enregistrés par les normes de système de management ISO dans le monde. Il s'agit du nombre de certifications valides selon la norme ISO 50001 sur les systèmes de gestion de l'énergie rapportés par les organismes de certification accrédités par les membres du Forum international d'accréditation.
-Pour plus d'informations, veuillez consulter:
-https://www.iso.org/the-iso-survey.html</t>
+Pour plus d'informations, veuillez consulter: https://www.iso.org/the-iso-survey.html</t>
   </si>
   <si>
     <t>2011-2020</t>
@@ -4756,7 +4500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="19" t="s">
         <v>39</v>
@@ -4810,7 +4554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="19" t="s">
         <v>46</v>
@@ -4918,7 +4662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="19" t="s">
         <v>56</v>
@@ -4972,7 +4716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="19" t="s">
         <v>64</v>
@@ -5026,7 +4770,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="19" t="s">
         <v>67</v>
@@ -5188,7 +4932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="19" t="s">
         <v>80</v>
@@ -5242,7 +4986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="19" t="s">
         <v>86</v>
@@ -5296,7 +5040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="19" t="s">
         <v>91</v>
@@ -5350,7 +5094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="19" t="s">
         <v>94</v>
@@ -5404,7 +5148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="19" t="s">
         <v>98</v>
@@ -5458,7 +5202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="19" t="s">
         <v>102</v>
@@ -5512,7 +5256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="19" t="s">
         <v>105</v>
@@ -5728,7 +5472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="19" t="s">
         <v>120</v>
@@ -5782,7 +5526,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="19" t="s">
         <v>125</v>
@@ -5836,7 +5580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="19" t="s">
         <v>128</v>
@@ -5890,7 +5634,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="19" t="s">
         <v>131</v>
@@ -5944,7 +5688,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="19" t="s">
         <v>134</v>
@@ -5998,7 +5742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="19" t="s">
         <v>137</v>
@@ -6052,7 +5796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="19" t="s">
         <v>140</v>
@@ -6106,7 +5850,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="19" t="s">
         <v>143</v>
@@ -6160,7 +5904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="19" t="s">
         <v>146</v>
@@ -6268,7 +6012,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="19" t="s">
         <v>157</v>
@@ -6322,7 +6066,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="19" t="s">
         <v>160</v>
@@ -6430,7 +6174,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="19" t="s">
         <v>166</v>
@@ -6484,7 +6228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
         <v>169</v>
@@ -6592,7 +6336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="19" t="s">
         <v>176</v>
@@ -6646,7 +6390,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="19" t="s">
         <v>179</v>
@@ -6754,7 +6498,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="19" t="s">
         <v>185</v>
@@ -6808,7 +6552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="19" t="s">
         <v>188</v>
@@ -6862,7 +6606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="19" t="s">
         <v>191</v>
@@ -6916,7 +6660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="19" t="s">
         <v>193</v>
@@ -7186,7 +6930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="19" t="s">
         <v>206</v>
@@ -7240,7 +6984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="19" t="s">
         <v>210</v>
@@ -7294,7 +7038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="19" t="s">
         <v>213</v>
@@ -7348,7 +7092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="19" t="s">
         <v>216</v>
@@ -7402,7 +7146,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="19" t="s">
         <v>221</v>
@@ -7510,7 +7254,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="19" t="s">
         <v>227</v>
@@ -7564,7 +7308,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="19" t="s">
         <v>230</v>
@@ -7618,7 +7362,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="19" t="s">
         <v>232</v>
@@ -7672,7 +7416,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="19" t="s">
         <v>235</v>
@@ -7726,7 +7470,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="19" t="s">
         <v>238</v>
@@ -7834,7 +7578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="19" t="s">
         <v>244</v>
@@ -7888,7 +7632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="19" t="s">
         <v>247</v>
@@ -7942,7 +7686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="19" t="s">
         <v>250</v>
@@ -7996,7 +7740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="19" t="s">
         <v>254</v>
@@ -8050,7 +7794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="19" t="s">
         <v>257</v>
@@ -8104,7 +7848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="19" t="s">
         <v>260</v>
@@ -8158,7 +7902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="19" t="s">
         <v>263</v>
@@ -8212,7 +7956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="19" t="s">
         <v>266</v>
@@ -8266,7 +8010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="19" t="s">
         <v>269</v>
@@ -8320,7 +8064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="19" t="s">
         <v>272</v>
@@ -8374,7 +8118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="19" t="s">
         <v>275</v>
@@ -8482,7 +8226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="19" t="s">
         <v>281</v>
@@ -8536,7 +8280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="19" t="s">
         <v>285</v>
@@ -8590,7 +8334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="19" t="s">
         <v>288</v>
@@ -8644,7 +8388,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="19" t="s">
         <v>293</v>
@@ -8698,7 +8442,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="19" t="s">
         <v>296</v>
@@ -8806,7 +8550,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="19" t="s">
         <v>302</v>
@@ -8914,7 +8658,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="19" t="s">
         <v>310</v>
@@ -8968,7 +8712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="19" t="s">
         <v>313</v>
@@ -9022,7 +8766,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="19" t="s">
         <v>315</v>
@@ -9184,7 +8928,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="19" t="s">
         <v>325</v>
@@ -9292,7 +9036,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="19" t="s">
         <v>335</v>
@@ -9346,7 +9090,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="19" t="s">
         <v>341</v>
@@ -9400,7 +9144,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="19" t="s">
         <v>344</v>
@@ -9454,7 +9198,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="19" t="s">
         <v>347</v>
@@ -9508,7 +9252,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="19" t="s">
         <v>350</v>
@@ -9724,7 +9468,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="19" t="s">
         <v>360</v>
@@ -9778,7 +9522,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="19" t="s">
         <v>365</v>
@@ -9832,7 +9576,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="19" t="s">
         <v>367</v>
@@ -9886,7 +9630,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="19" t="s">
         <v>370</v>
@@ -9994,7 +9738,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="19" t="s">
         <v>377</v>
@@ -10048,7 +9792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="19" t="s">
         <v>382</v>
@@ -10102,7 +9846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="19" t="s">
         <v>384</v>
@@ -10156,7 +9900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="19" t="s">
         <v>387</v>
@@ -10210,7 +9954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="19" t="s">
         <v>391</v>
@@ -10264,7 +10008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="19" t="s">
         <v>395</v>
@@ -10426,7 +10170,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="19" t="s">
         <v>405</v>
@@ -10534,7 +10278,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="19" t="s">
         <v>413</v>
@@ -10696,7 +10440,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="19" t="s">
         <v>422</v>
@@ -10750,7 +10494,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="19" t="s">
         <v>425</v>
@@ -10804,7 +10548,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="19" t="s">
         <v>431</v>
@@ -10858,7 +10602,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="19" t="s">
         <v>434</v>
@@ -10912,7 +10656,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="19" t="s">
         <v>437</v>
@@ -10966,7 +10710,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="19" t="s">
         <v>440</v>
@@ -11020,7 +10764,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="19" t="s">
         <v>443</v>
@@ -11074,7 +10818,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="19" t="s">
         <v>446</v>
@@ -11128,7 +10872,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="19" t="s">
         <v>449</v>
@@ -11884,7 +11628,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="19" t="s">
         <v>494</v>
@@ -12100,7 +11844,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="19" t="s">
         <v>506</v>
@@ -12694,7 +12438,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="19" t="s">
         <v>538</v>
@@ -12748,7 +12492,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="19" t="s">
         <v>541</v>
@@ -12802,7 +12546,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="19" t="s">
         <v>544</v>
@@ -12856,7 +12600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="168" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="19" t="s">
         <v>548</v>
@@ -12910,7 +12654,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="19" t="s">
         <v>552</v>
@@ -12964,7 +12708,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="19" t="s">
         <v>555</v>
@@ -13018,7 +12762,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="19" t="s">
         <v>558</v>
@@ -13126,7 +12870,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="19" t="s">
         <v>564</v>
@@ -13180,7 +12924,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="19" t="s">
         <v>567</v>
@@ -13234,7 +12978,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="19" t="s">
         <v>570</v>
@@ -13288,7 +13032,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="19" t="s">
         <v>573</v>
@@ -13342,7 +13086,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="19" t="s">
         <v>575</v>
@@ -13720,7 +13464,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="19" t="s">
         <v>600</v>
@@ -14152,7 +13896,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="19" t="s">
         <v>624</v>
@@ -14206,7 +13950,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="19" t="s">
         <v>627</v>
@@ -14689,7 +14433,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B191" s="19" t="s">
         <v>657</v>
       </c>
@@ -14742,7 +14486,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B192" s="19" t="s">
         <v>661</v>
       </c>
@@ -14795,7 +14539,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="193" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B193" s="19" t="s">
         <v>664</v>
       </c>
@@ -14848,7 +14592,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="194" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B194" s="19" t="s">
         <v>668</v>
       </c>
@@ -14901,7 +14645,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="195" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B195" s="19" t="s">
         <v>674</v>
       </c>
@@ -14954,7 +14698,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="196" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B196" s="19" t="s">
         <v>677</v>
       </c>
@@ -15007,7 +14751,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="197" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B197" s="19" t="s">
         <v>680</v>
       </c>
@@ -15060,7 +14804,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="198" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B198" s="19" t="s">
         <v>683</v>
       </c>
@@ -15113,7 +14857,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="199" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B199" s="19" t="s">
         <v>687</v>
       </c>
@@ -15166,7 +14910,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="200" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B200" s="19" t="s">
         <v>690</v>
       </c>
@@ -15219,7 +14963,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="201" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B201" s="19" t="s">
         <v>693</v>
       </c>
@@ -15272,7 +15016,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="202" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B202" s="19" t="s">
         <v>696</v>
       </c>
@@ -15325,7 +15069,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="203" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B203" s="19" t="s">
         <v>699</v>
       </c>
@@ -15378,7 +15122,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="204" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B204" s="19" t="s">
         <v>702</v>
       </c>
@@ -15431,7 +15175,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="205" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B205" s="19" t="s">
         <v>705</v>
       </c>
@@ -15484,7 +15228,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="206" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B206" s="19" t="s">
         <v>708</v>
       </c>
@@ -15537,7 +15281,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="207" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B207" s="19" t="s">
         <v>711</v>
       </c>
@@ -15590,7 +15334,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="208" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B208" s="19" t="s">
         <v>714</v>
       </c>
@@ -15643,7 +15387,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="209" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B209" s="19" t="s">
         <v>717</v>
       </c>
@@ -15696,7 +15440,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="210" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B210" s="19" t="s">
         <v>720</v>
       </c>
@@ -15749,7 +15493,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="211" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B211" s="19" t="s">
         <v>723</v>
       </c>
@@ -15802,7 +15546,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="212" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B212" s="19" t="s">
         <v>726</v>
       </c>
@@ -15855,7 +15599,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="213" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B213" s="19" t="s">
         <v>729</v>
       </c>
@@ -15908,7 +15652,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="214" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B214" s="19" t="s">
         <v>732</v>
       </c>
@@ -15961,7 +15705,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="215" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B215" s="19" t="s">
         <v>735</v>
       </c>
@@ -16014,7 +15758,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="216" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B216" s="19" t="s">
         <v>738</v>
       </c>
@@ -16067,7 +15811,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="217" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B217" s="19" t="s">
         <v>741</v>
       </c>
@@ -16120,7 +15864,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="218" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B218" s="19" t="s">
         <v>744</v>
       </c>
@@ -16173,7 +15917,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="219" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B219" s="19" t="s">
         <v>747</v>
       </c>
@@ -16226,7 +15970,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="220" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B220" s="19" t="s">
         <v>750</v>
       </c>
@@ -16279,7 +16023,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="221" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B221" s="19" t="s">
         <v>753</v>
       </c>
@@ -16332,7 +16076,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="222" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B222" s="19" t="s">
         <v>756</v>
       </c>
@@ -16385,7 +16129,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="223" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B223" s="19" t="s">
         <v>759</v>
       </c>
@@ -16438,7 +16182,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="224" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B224" s="19" t="s">
         <v>762</v>
       </c>
@@ -16491,7 +16235,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="225" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B225" s="19" t="s">
         <v>766</v>
       </c>
@@ -16544,7 +16288,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="226" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B226" s="19" t="s">
         <v>769</v>
       </c>
@@ -16597,7 +16341,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="227" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B227" s="19" t="s">
         <v>772</v>
       </c>
@@ -16650,7 +16394,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="228" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B228" s="19" t="s">
         <v>775</v>
       </c>
@@ -16703,7 +16447,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="229" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B229" s="19" t="s">
         <v>778</v>
       </c>
@@ -16756,7 +16500,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="230" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B230" s="19" t="s">
         <v>781</v>
       </c>
@@ -16809,7 +16553,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="231" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B231" s="19" t="s">
         <v>784</v>
       </c>
@@ -16862,7 +16606,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="232" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B232" s="19" t="s">
         <v>787</v>
       </c>
@@ -16915,7 +16659,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="233" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B233" s="19" t="s">
         <v>790</v>
       </c>
@@ -16968,7 +16712,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="234" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B234" s="19" t="s">
         <v>793</v>
       </c>
@@ -17021,7 +16765,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="235" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B235" s="19" t="s">
         <v>796</v>
       </c>
@@ -17074,7 +16818,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="236" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B236" s="19" t="s">
         <v>799</v>
       </c>
@@ -17127,7 +16871,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="237" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B237" s="19" t="s">
         <v>802</v>
       </c>
@@ -17180,7 +16924,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="238" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B238" s="19" t="s">
         <v>805</v>
       </c>
@@ -17233,7 +16977,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="239" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B239" s="19" t="s">
         <v>808</v>
       </c>
@@ -17286,7 +17030,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="240" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B240" s="19" t="s">
         <v>811</v>
       </c>
@@ -17339,7 +17083,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="241" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B241" s="19" t="s">
         <v>814</v>
       </c>
@@ -17392,7 +17136,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="242" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B242" s="19" t="s">
         <v>817</v>
       </c>
@@ -17445,7 +17189,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="243" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B243" s="19" t="s">
         <v>820</v>
       </c>
@@ -17498,7 +17242,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="244" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B244" s="19" t="s">
         <v>823</v>
       </c>
@@ -17551,7 +17295,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="245" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B245" s="19" t="s">
         <v>826</v>
       </c>
@@ -17604,7 +17348,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="246" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B246" s="19" t="s">
         <v>829</v>
       </c>
@@ -17657,7 +17401,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="247" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B247" s="19" t="s">
         <v>832</v>
       </c>
@@ -17710,7 +17454,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="248" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B248" s="19" t="s">
         <v>835</v>
       </c>
@@ -17763,7 +17507,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="249" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B249" s="19" t="s">
         <v>838</v>
       </c>
@@ -17816,7 +17560,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="250" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B250" s="19" t="s">
         <v>841</v>
       </c>
@@ -17869,7 +17613,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="251" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B251" s="19" t="s">
         <v>847</v>
       </c>
@@ -17922,7 +17666,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="252" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B252" s="19" t="s">
         <v>850</v>
       </c>
@@ -17975,7 +17719,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="253" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B253" s="19" t="s">
         <v>853</v>
       </c>
@@ -18028,7 +17772,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="254" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B254" s="19" t="s">
         <v>856</v>
       </c>
@@ -18081,7 +17825,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="255" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B255" s="19" t="s">
         <v>859</v>
       </c>
@@ -18134,7 +17878,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="256" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B256" s="19" t="s">
         <v>862</v>
       </c>
@@ -18187,7 +17931,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B257" s="19" t="s">
         <v>865</v>
       </c>
@@ -18240,7 +17984,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B258" s="19" t="s">
         <v>868</v>
       </c>
@@ -18293,7 +18037,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B259" s="19" t="s">
         <v>871</v>
       </c>
@@ -18346,7 +18090,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B260" s="19" t="s">
         <v>874</v>
       </c>
@@ -18399,7 +18143,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B261" s="19" t="s">
         <v>877</v>
       </c>
@@ -18452,7 +18196,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B262" s="19" t="s">
         <v>880</v>
       </c>
@@ -18505,7 +18249,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B263" s="19" t="s">
         <v>883</v>
       </c>
@@ -18558,7 +18302,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B264" s="19" t="s">
         <v>886</v>
       </c>
@@ -18611,7 +18355,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B265" s="19" t="s">
         <v>889</v>
       </c>
@@ -18664,7 +18408,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B266" s="19" t="s">
         <v>892</v>
       </c>
@@ -18717,7 +18461,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A267"/>
       <c r="B267" s="19" t="s">
         <v>895</v>
@@ -18771,7 +18515,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A268"/>
       <c r="B268" s="19" t="s">
         <v>898</v>
@@ -18825,7 +18569,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B269" s="19" t="s">
         <v>901</v>
       </c>
@@ -18878,7 +18622,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B270" s="19" t="s">
         <v>904</v>
       </c>
@@ -18931,7 +18675,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B271" s="19" t="s">
         <v>907</v>
       </c>
@@ -18984,7 +18728,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B272" s="19" t="s">
         <v>910</v>
       </c>
@@ -19037,7 +18781,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="273" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B273" s="19" t="s">
         <v>915</v>
       </c>
@@ -19090,7 +18834,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="274" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B274" s="19" t="s">
         <v>918</v>
       </c>
@@ -19143,7 +18887,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="275" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B275" s="19" t="s">
         <v>921</v>
       </c>
@@ -19196,7 +18940,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="276" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B276" s="19" t="s">
         <v>924</v>
       </c>
@@ -19249,7 +18993,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="277" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B277" s="19" t="s">
         <v>927</v>
       </c>
@@ -19302,7 +19046,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="278" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B278" s="19" t="s">
         <v>930</v>
       </c>
@@ -19355,7 +19099,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="279" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B279" s="19" t="s">
         <v>933</v>
       </c>
@@ -19408,7 +19152,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="280" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B280" s="19" t="s">
         <v>936</v>
       </c>
@@ -19461,7 +19205,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="281" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B281" s="19" t="s">
         <v>939</v>
       </c>
@@ -19514,7 +19258,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="282" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B282" s="19" t="s">
         <v>942</v>
       </c>
@@ -19567,7 +19311,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="283" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B283" s="19" t="s">
         <v>945</v>
       </c>
@@ -19620,7 +19364,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="284" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B284" s="19" t="s">
         <v>948</v>
       </c>
@@ -19673,7 +19417,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="285" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B285" s="28" t="s">
         <v>954</v>
       </c>
@@ -19726,7 +19470,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="286" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B286" s="28" t="s">
         <v>957</v>
       </c>

--- a/DDAf_2022_Liste_des_indicateurs.xlsx
+++ b/DDAf_2022_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="961">
   <si>
     <t>Liste des indicateurs, descriptions et détails</t>
   </si>
@@ -1304,16 +1304,16 @@
     <t>Du World Happiness Report. Le soutien social (ou avoir quelqu'un sur qui compter en cas de problème) correspond à la moyenne nationale des réponses binaires (0 ou 1) à la question du GWP : « Si vous aviez un problème, avez-vous des parents ou des amis sur lesquels vous pouvez compter? vous aider quand vous en avez besoin, ou pas? » https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
-    <t>GrthDCmpNCP</t>
+    <t>GrthDCmpNC</t>
   </si>
   <si>
     <t>Tableau 17</t>
   </si>
   <si>
-    <t>Consommation privée (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la consommation privée totale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
+    <t>Dépense de consommation finale (% de croissance du PIB)</t>
+  </si>
+  <si>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre des dépenses totales de consommation finale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>Monnaie nationale</t>
@@ -1322,37 +1322,28 @@
     <t>Décomposition de la croissance calculée par le Centre de développement de l'OCDE sur la base des données des Perspectives de l'économie mondiale (octobre 2019)</t>
   </si>
   <si>
-    <t>GrthDCmpNCG</t>
-  </si>
-  <si>
-    <t>Consommation publique (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la consommation publique totale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFIP</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe, privé (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la formation brute de capital fixe privé divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFIG</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe publique (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la formation brute de capital fixe publique divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
+    <t>GrthDCmpNFI</t>
+  </si>
+  <si>
+    <t>Formation brute de capital fixe (% de croissance du PIB)</t>
+  </si>
+  <si>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la formation brute de capital fixe divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
+  </si>
+  <si>
+    <t>GrthDCmpNINV</t>
+  </si>
+  <si>
+    <t>Variations des stocks (% de croissance du PIB)</t>
+  </si>
+  <si>
+    <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la variation des stocks divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
   </si>
   <si>
     <t>GrthDCmpNX</t>
   </si>
   <si>
-    <t>Exportations des biens et services, prix courants (% de croissance du PIB)</t>
+    <t>Exportations de biens et services (% de croissance du PIB)</t>
   </si>
   <si>
     <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre des exportations de biens et services, divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
@@ -1361,7 +1352,7 @@
     <t>GrthDCmpNM</t>
   </si>
   <si>
-    <t>Importations de biens et services, prix courants (% de croissance du PIB)</t>
+    <t>Importations de biens et services (% de croissance du PIB)</t>
   </si>
   <si>
     <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre des importations de biens et services, divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
@@ -1370,7 +1361,7 @@
     <t>GrthDCmpNFB</t>
   </si>
   <si>
-    <t>Balance extérieure, prix courants (% de croissance du PIB)</t>
+    <t>Balance extérieure (% de croissance du PIB)</t>
   </si>
   <si>
     <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la balance commerciale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage. https://www.imf.org/fr/Publications/WEO</t>
@@ -1577,7 +1568,7 @@
     <t>Données communes</t>
   </si>
   <si>
-    <t>..</t>
+    <t>.</t>
   </si>
   <si>
     <t>ExpProdPct1</t>
@@ -3940,7 +3931,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="B3:R286" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="B3:R285" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
     <tableColumn id="1" name="Code" dataDxfId="2"/>
     <tableColumn id="7" name="Tableau" dataDxfId="0" dataCellStyle="Hyperlink"/>
@@ -4227,7 +4218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R291"/>
+  <dimension ref="A1:R290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -10527,22 +10518,22 @@
         <v>2019</v>
       </c>
       <c r="L118" s="22">
-        <v>92.592592592592595</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M118" s="22">
-        <v>96.799927453029497</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N118" s="22">
-        <v>97.7304386302485</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O118" s="22">
-        <v>87.050359712230204</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P118" s="22">
-        <v>98.336792957018602</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q118" s="22">
-        <v>99.680539674038101</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R118" s="23" t="s">
         <v>430</v>
@@ -10581,22 +10572,22 @@
         <v>2019</v>
       </c>
       <c r="L119" s="22">
-        <v>92.592592592592595</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M119" s="22">
-        <v>96.799927453029497</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N119" s="22">
-        <v>97.7304386302485</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O119" s="22">
-        <v>88.489208633093497</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P119" s="22">
-        <v>98.439321338938001</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q119" s="22">
-        <v>99.758591044620402</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R119" s="23" t="s">
         <v>430</v>
@@ -10635,22 +10626,22 @@
         <v>2019</v>
       </c>
       <c r="L120" s="22">
-        <v>88.8888888888889</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M120" s="22">
-        <v>93.176089934531106</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N120" s="22">
-        <v>94.586971944187795</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O120" s="22">
-        <v>71.942446043165504</v>
+        <v>61.151079136690697</v>
       </c>
       <c r="P120" s="22">
-        <v>96.606503431287805</v>
+        <v>56.955083857733598</v>
       </c>
       <c r="Q120" s="22">
-        <v>96.187646035374101</v>
+        <v>71.9027520504157</v>
       </c>
       <c r="R120" s="23" t="s">
         <v>430</v>
@@ -10689,22 +10680,22 @@
         <v>2019</v>
       </c>
       <c r="L121" s="22">
-        <v>88.8888888888889</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M121" s="22">
-        <v>93.176089934531106</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N121" s="22">
-        <v>94.586971944187795</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O121" s="22">
-        <v>74.100719424460394</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P121" s="22">
-        <v>96.730956371673301</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q121" s="22">
-        <v>96.295450044421997</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R121" s="23" t="s">
         <v>430</v>
@@ -10743,22 +10734,22 @@
         <v>2019</v>
       </c>
       <c r="L122" s="22">
-        <v>94.4444444444445</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M122" s="22">
-        <v>97.177887817876297</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N122" s="22">
-        <v>97.840594409437102</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O122" s="22">
-        <v>91.366906474820198</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P122" s="22">
-        <v>97.376148290339202</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q122" s="22">
-        <v>99.113933686605293</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R122" s="23" t="s">
         <v>430</v>
@@ -10797,88 +10788,88 @@
         <v>2019</v>
       </c>
       <c r="L123" s="22">
-        <v>94.4444444444445</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M123" s="22">
-        <v>97.177887817876297</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N123" s="22">
-        <v>97.840594409437102</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O123" s="22">
-        <v>91.366906474820198</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P123" s="22">
-        <v>97.376148290339202</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q123" s="22">
-        <v>99.113933686605293</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R123" s="23" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="19" t="s">
         <v>446</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>429</v>
+        <v>43</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="K124" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L124" s="22">
-        <v>94.4444444444445</v>
+        <v>100</v>
       </c>
       <c r="M124" s="22">
-        <v>97.318747499599198</v>
+        <v>100</v>
       </c>
       <c r="N124" s="22">
-        <v>99.158047173935401</v>
+        <v>100</v>
       </c>
       <c r="O124" s="22">
-        <v>92.086330935251794</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P124" s="22">
-        <v>98.8922315342041</v>
+        <v>99.147063872228401</v>
       </c>
       <c r="Q124" s="22">
-        <v>99.9211897714152</v>
+        <v>100</v>
       </c>
       <c r="R124" s="23" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D125" s="21" t="s">
         <v>451</v>
@@ -10905,22 +10896,22 @@
         <v>2020</v>
       </c>
       <c r="L125" s="22">
-        <v>100</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M125" s="22">
-        <v>100</v>
+        <v>99.486767961871195</v>
       </c>
       <c r="N125" s="22">
-        <v>100</v>
+        <v>99.411594330186006</v>
       </c>
       <c r="O125" s="22">
-        <v>96.402877697841802</v>
+        <v>86.330935251798607</v>
       </c>
       <c r="P125" s="22">
-        <v>99.147063872228401</v>
+        <v>89.707783700160604</v>
       </c>
       <c r="Q125" s="22">
-        <v>100</v>
+        <v>75.166183890745998</v>
       </c>
       <c r="R125" s="23" t="s">
         <v>34</v>
@@ -10932,7 +10923,7 @@
         <v>453</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D126" s="21" t="s">
         <v>454</v>
@@ -10959,34 +10950,34 @@
         <v>2020</v>
       </c>
       <c r="L126" s="22">
-        <v>98.148148148148195</v>
+        <v>100</v>
       </c>
       <c r="M126" s="22">
-        <v>99.486767961871195</v>
+        <v>100</v>
       </c>
       <c r="N126" s="22">
-        <v>99.411594330186006</v>
+        <v>100</v>
       </c>
       <c r="O126" s="22">
-        <v>86.330935251798607</v>
+        <v>82.733812949640296</v>
       </c>
       <c r="P126" s="22">
-        <v>89.707783700160604</v>
+        <v>92.280202165107497</v>
       </c>
       <c r="Q126" s="22">
-        <v>75.166183890745998</v>
+        <v>90.292200551740095</v>
       </c>
       <c r="R126" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="19" t="s">
         <v>456</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D127" s="21" t="s">
         <v>457</v>
@@ -11007,46 +10998,46 @@
         <v>25</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>26</v>
+        <v>459</v>
       </c>
       <c r="K127" s="10">
         <v>2020</v>
       </c>
       <c r="L127" s="22">
-        <v>100</v>
+        <v>51.851851851851897</v>
       </c>
       <c r="M127" s="22">
-        <v>100</v>
+        <v>46.106154236071603</v>
       </c>
       <c r="N127" s="22">
-        <v>100</v>
+        <v>43.782609490336903</v>
       </c>
       <c r="O127" s="22">
-        <v>82.733812949640296</v>
+        <v>20.863309352518002</v>
       </c>
       <c r="P127" s="22">
-        <v>92.280202165107497</v>
+        <v>14.542286530025599</v>
       </c>
       <c r="Q127" s="22">
-        <v>90.292200551740095</v>
+        <v>13.209605476075099</v>
       </c>
       <c r="R127" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="19" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>43</v>
@@ -11061,31 +11052,31 @@
         <v>25</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K128" s="10">
         <v>2020</v>
       </c>
       <c r="L128" s="22">
-        <v>51.851851851851897</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M128" s="22">
-        <v>46.106154236071603</v>
+        <v>89.613964427152595</v>
       </c>
       <c r="N128" s="22">
-        <v>43.782609490336903</v>
+        <v>78.954370463706795</v>
       </c>
       <c r="O128" s="22">
-        <v>20.863309352518002</v>
+        <v>66.906474820143899</v>
       </c>
       <c r="P128" s="22">
-        <v>14.542286530025599</v>
+        <v>78.8921848692341</v>
       </c>
       <c r="Q128" s="22">
-        <v>13.209605476075099</v>
+        <v>66.434284328155599</v>
       </c>
       <c r="R128" s="23" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
@@ -11094,7 +11085,7 @@
         <v>464</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D129" s="21" t="s">
         <v>465</v>
@@ -11115,7 +11106,7 @@
         <v>25</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K129" s="10">
         <v>2020</v>
@@ -11124,22 +11115,22 @@
         <v>90.740740740740804</v>
       </c>
       <c r="M129" s="22">
-        <v>89.613964427152595</v>
+        <v>88.593108470759404</v>
       </c>
       <c r="N129" s="22">
-        <v>78.954370463706795</v>
+        <v>79.248965296304902</v>
       </c>
       <c r="O129" s="22">
-        <v>66.906474820143899</v>
+        <v>64.028776978417298</v>
       </c>
       <c r="P129" s="22">
-        <v>78.8921848692341</v>
+        <v>76.669418708557998</v>
       </c>
       <c r="Q129" s="22">
-        <v>66.434284328155599</v>
+        <v>64.006656915256897</v>
       </c>
       <c r="R129" s="23" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
@@ -11148,13 +11139,13 @@
         <v>467</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D130" s="21" t="s">
         <v>468</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>43</v>
@@ -11169,46 +11160,46 @@
         <v>25</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K130" s="10">
         <v>2020</v>
       </c>
       <c r="L130" s="22">
-        <v>90.740740740740804</v>
+        <v>92.592592592592595</v>
       </c>
       <c r="M130" s="22">
-        <v>88.593108470759404</v>
+        <v>89.780209108499804</v>
       </c>
       <c r="N130" s="22">
-        <v>79.248965296304902</v>
+        <v>79.459711235193097</v>
       </c>
       <c r="O130" s="22">
         <v>64.028776978417298</v>
       </c>
       <c r="P130" s="22">
-        <v>76.669418708557998</v>
+        <v>79.694563779297397</v>
       </c>
       <c r="Q130" s="22">
-        <v>64.006656915256897</v>
+        <v>64.366015199288896</v>
       </c>
       <c r="R130" s="23" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D131" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="C131" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D131" s="21" t="s">
+      <c r="E131" s="21" t="s">
         <v>471</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>43</v>
@@ -11223,31 +11214,31 @@
         <v>25</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>462</v>
+        <v>26</v>
       </c>
       <c r="K131" s="10">
         <v>2020</v>
       </c>
       <c r="L131" s="22">
-        <v>92.592592592592595</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M131" s="22">
-        <v>89.780209108499804</v>
+        <v>98.8128993622596</v>
       </c>
       <c r="N131" s="22">
-        <v>79.459711235193097</v>
+        <v>99.789254061111905</v>
       </c>
       <c r="O131" s="22">
-        <v>64.028776978417298</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P131" s="22">
-        <v>79.694563779297397</v>
+        <v>99.147063872228401</v>
       </c>
       <c r="Q131" s="22">
-        <v>64.366015199288896</v>
+        <v>100</v>
       </c>
       <c r="R131" s="23" t="s">
-        <v>463</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
@@ -11256,7 +11247,7 @@
         <v>472</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D132" s="21" t="s">
         <v>473</v>
@@ -11283,22 +11274,22 @@
         <v>2020</v>
       </c>
       <c r="L132" s="22">
-        <v>98.148148148148195</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M132" s="22">
-        <v>98.8128993622596</v>
+        <v>98.299667324130695</v>
       </c>
       <c r="N132" s="22">
-        <v>99.789254061111905</v>
+        <v>99.200848391297797</v>
       </c>
       <c r="O132" s="22">
-        <v>96.402877697841802</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P132" s="22">
-        <v>99.147063872228401</v>
+        <v>99.146781678711704</v>
       </c>
       <c r="Q132" s="22">
-        <v>100</v>
+        <v>99.999790372123101</v>
       </c>
       <c r="R132" s="23" t="s">
         <v>34</v>
@@ -11310,7 +11301,7 @@
         <v>475</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>476</v>
@@ -11318,44 +11309,44 @@
       <c r="E133" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="F133" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H133" s="10" t="s">
+      <c r="F133" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H133" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I133" s="10" t="s">
+      <c r="I133" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J133" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K133" s="10">
+      <c r="J133" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="K133" s="24">
         <v>2020</v>
       </c>
       <c r="L133" s="22">
-        <v>96.296296296296305</v>
+        <v>79.629629629629704</v>
       </c>
       <c r="M133" s="22">
-        <v>98.299667324130695</v>
+        <v>63.5521296573949</v>
       </c>
       <c r="N133" s="22">
-        <v>99.200848391297797</v>
+        <v>59.415742272634702</v>
       </c>
       <c r="O133" s="22">
-        <v>95.683453237410106</v>
+        <v>55.395683453237403</v>
       </c>
       <c r="P133" s="22">
-        <v>99.146781678711704</v>
+        <v>78.264811250845298</v>
       </c>
       <c r="Q133" s="22">
-        <v>99.999790372123101</v>
-      </c>
-      <c r="R133" s="23" t="s">
-        <v>34</v>
+        <v>59.167092025487797</v>
+      </c>
+      <c r="R133" s="25" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
@@ -11364,13 +11355,13 @@
         <v>478</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D134" s="21" t="s">
         <v>479</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F134" s="24" t="s">
         <v>43</v>
@@ -11385,100 +11376,100 @@
         <v>25</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K134" s="24">
         <v>2020</v>
       </c>
       <c r="L134" s="22">
-        <v>79.629629629629704</v>
+        <v>81.481481481481495</v>
       </c>
       <c r="M134" s="22">
-        <v>63.5521296573949</v>
+        <v>63.328406807838803</v>
       </c>
       <c r="N134" s="22">
-        <v>59.415742272634702</v>
+        <v>59.862884353708601</v>
       </c>
       <c r="O134" s="22">
-        <v>55.395683453237403</v>
+        <v>58.273381294963997</v>
       </c>
       <c r="P134" s="22">
-        <v>78.264811250845298</v>
+        <v>79.175400690149502</v>
       </c>
       <c r="Q134" s="22">
-        <v>59.167092025487797</v>
+        <v>60.295257558950503</v>
       </c>
       <c r="R134" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>450</v>
       </c>
       <c r="D135" s="21" t="s">
         <v>482</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I135" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J135" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="K135" s="24">
-        <v>2020</v>
+      <c r="J135" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K135" s="10">
+        <v>2019</v>
       </c>
       <c r="L135" s="22">
-        <v>81.481481481481495</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M135" s="22">
-        <v>63.328406807838803</v>
+        <v>99.732292587672802</v>
       </c>
       <c r="N135" s="22">
-        <v>59.862884353708601</v>
+        <v>99.904575518134195</v>
       </c>
       <c r="O135" s="22">
-        <v>58.273381294963997</v>
+        <v>98.561151079136707</v>
       </c>
       <c r="P135" s="22">
-        <v>79.175400690149502</v>
+        <v>99.998790004664897</v>
       </c>
       <c r="Q135" s="22">
-        <v>60.295257558950503</v>
-      </c>
-      <c r="R135" s="25" t="s">
-        <v>463</v>
+        <v>100</v>
+      </c>
+      <c r="R135" s="23" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="19" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>38</v>
@@ -11517,7 +11508,7 @@
         <v>100</v>
       </c>
       <c r="R136" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="105" x14ac:dyDescent="0.35">
@@ -11526,7 +11517,7 @@
         <v>488</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D137" s="21" t="s">
         <v>489</v>
@@ -11571,16 +11562,16 @@
         <v>100</v>
       </c>
       <c r="R137" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
       <c r="B138" s="19" t="s">
         <v>491</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D138" s="21" t="s">
         <v>492</v>
@@ -11625,16 +11616,16 @@
         <v>100</v>
       </c>
       <c r="R138" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="19" t="s">
         <v>494</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>495</v>
@@ -11679,7 +11670,7 @@
         <v>100</v>
       </c>
       <c r="R139" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -11688,7 +11679,7 @@
         <v>497</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D140" s="21" t="s">
         <v>498</v>
@@ -11733,7 +11724,7 @@
         <v>100</v>
       </c>
       <c r="R140" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -11742,7 +11733,7 @@
         <v>500</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>501</v>
@@ -11787,16 +11778,16 @@
         <v>100</v>
       </c>
       <c r="R141" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="19" t="s">
         <v>503</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D142" s="21" t="s">
         <v>504</v>
@@ -11841,34 +11832,34 @@
         <v>100</v>
       </c>
       <c r="R142" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="19" t="s">
         <v>506</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>24</v>
+        <v>510</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="J143" s="10" t="s">
         <v>61</v>
@@ -11876,50 +11867,50 @@
       <c r="K143" s="10">
         <v>2019</v>
       </c>
-      <c r="L143" s="22">
-        <v>98.148148148148195</v>
-      </c>
-      <c r="M143" s="22">
-        <v>99.732292587672802</v>
-      </c>
-      <c r="N143" s="22">
-        <v>99.904575518134195</v>
-      </c>
-      <c r="O143" s="22">
-        <v>98.561151079136707</v>
-      </c>
-      <c r="P143" s="22">
-        <v>99.998790004664897</v>
-      </c>
-      <c r="Q143" s="22">
-        <v>100</v>
+      <c r="L143" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="M143" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="N143" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="O143" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="P143" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q143" s="22" t="s">
+        <v>511</v>
       </c>
       <c r="R143" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="19" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C144" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="I144" s="10" t="s">
         <v>151</v>
@@ -11931,25 +11922,25 @@
         <v>2019</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N144" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O144" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P144" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q144" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R144" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -11958,7 +11949,7 @@
         <v>515</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D145" s="21" t="s">
         <v>516</v>
@@ -11973,7 +11964,7 @@
         <v>43</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I145" s="10" t="s">
         <v>151</v>
@@ -11985,25 +11976,25 @@
         <v>2019</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N145" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P145" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q145" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R145" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -12012,13 +12003,13 @@
         <v>518</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D146" s="21" t="s">
         <v>519</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>43</v>
@@ -12027,7 +12018,7 @@
         <v>43</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I146" s="10" t="s">
         <v>151</v>
@@ -12039,49 +12030,49 @@
         <v>2019</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N146" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O146" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P146" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q146" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R146" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D147" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="E147" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="F147" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H147" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="I147" s="10" t="s">
         <v>151</v>
@@ -12093,25 +12084,25 @@
         <v>2019</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M147" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N147" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O147" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P147" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q147" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R147" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -12120,13 +12111,13 @@
         <v>523</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D148" s="21" t="s">
         <v>524</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>43</v>
@@ -12135,7 +12126,7 @@
         <v>43</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I148" s="10" t="s">
         <v>151</v>
@@ -12147,49 +12138,49 @@
         <v>2019</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N148" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O148" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P148" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q148" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R148" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D149" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="E149" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H149" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="I149" s="10" t="s">
         <v>151</v>
@@ -12201,25 +12192,25 @@
         <v>2019</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M149" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N149" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O149" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P149" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q149" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R149" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -12228,13 +12219,13 @@
         <v>528</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D150" s="21" t="s">
         <v>529</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>43</v>
@@ -12243,7 +12234,7 @@
         <v>43</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I150" s="10" t="s">
         <v>151</v>
@@ -12255,49 +12246,49 @@
         <v>2019</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M150" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N150" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O150" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P150" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q150" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R150" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D151" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="E151" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H151" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="D151" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H151" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="I151" s="10" t="s">
         <v>151</v>
@@ -12309,25 +12300,25 @@
         <v>2019</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M151" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N151" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O151" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P151" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q151" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R151" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -12336,13 +12327,13 @@
         <v>533</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D152" s="21" t="s">
         <v>534</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>43</v>
@@ -12351,7 +12342,7 @@
         <v>43</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I152" s="10" t="s">
         <v>151</v>
@@ -12363,49 +12354,49 @@
         <v>2019</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N152" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O152" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P152" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q152" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R152" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D153" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="E153" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H153" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="D153" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H153" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="I153" s="10" t="s">
         <v>151</v>
@@ -12417,25 +12408,25 @@
         <v>2019</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M153" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N153" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O153" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P153" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q153" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R153" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -12444,7 +12435,7 @@
         <v>538</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D154" s="21" t="s">
         <v>539</v>
@@ -12459,7 +12450,7 @@
         <v>49</v>
       </c>
       <c r="H154" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I154" s="10" t="s">
         <v>151</v>
@@ -12471,94 +12462,94 @@
         <v>2019</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M154" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N154" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O154" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P154" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q154" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R154" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="19" t="s">
         <v>541</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>513</v>
+        <v>44</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="K155" s="10">
         <v>2019</v>
       </c>
-      <c r="L155" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="M155" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="N155" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="O155" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="P155" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q155" s="22" t="s">
-        <v>514</v>
+      <c r="L155" s="22">
+        <v>98.148148148148195</v>
+      </c>
+      <c r="M155" s="22">
+        <v>99.481179953430299</v>
+      </c>
+      <c r="N155" s="22">
+        <v>98.572391456313198</v>
+      </c>
+      <c r="O155" s="22">
+        <v>95.683453237410106</v>
+      </c>
+      <c r="P155" s="22">
+        <v>99.148449692757893</v>
+      </c>
+      <c r="Q155" s="22">
+        <v>99.998298653836997</v>
       </c>
       <c r="R155" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="19" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>43</v>
@@ -12567,13 +12558,13 @@
         <v>43</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="K156" s="10">
         <v>2019</v>
@@ -12582,31 +12573,31 @@
         <v>98.148148148148195</v>
       </c>
       <c r="M156" s="22">
-        <v>99.481179953430299</v>
+        <v>99.732292587672802</v>
       </c>
       <c r="N156" s="22">
-        <v>98.572391456313198</v>
+        <v>99.904575518134195</v>
       </c>
       <c r="O156" s="22">
-        <v>95.683453237410106</v>
+        <v>35.251798561151098</v>
       </c>
       <c r="P156" s="22">
-        <v>99.148449692757893</v>
+        <v>24.087856736699401</v>
       </c>
       <c r="Q156" s="22">
-        <v>99.998298653836997</v>
+        <v>28.6156498039193</v>
       </c>
       <c r="R156" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D157" s="21" t="s">
         <v>550</v>
@@ -12641,26 +12632,26 @@
       <c r="N157" s="22">
         <v>99.904575518134195</v>
       </c>
-      <c r="O157" s="22">
-        <v>35.251798561151098</v>
-      </c>
-      <c r="P157" s="22">
-        <v>24.087856736699401</v>
-      </c>
-      <c r="Q157" s="22">
-        <v>28.6156498039193</v>
+      <c r="O157" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="P157" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q157" s="22" t="s">
+        <v>511</v>
       </c>
       <c r="R157" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="19" t="s">
         <v>552</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D158" s="21" t="s">
         <v>553</v>
@@ -12695,17 +12686,17 @@
       <c r="N158" s="22">
         <v>99.904575518134195</v>
       </c>
-      <c r="O158" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="P158" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q158" s="22" t="s">
-        <v>514</v>
+      <c r="O158" s="22">
+        <v>98.561151079136707</v>
+      </c>
+      <c r="P158" s="22">
+        <v>99.998790004664897</v>
+      </c>
+      <c r="Q158" s="22">
+        <v>100</v>
       </c>
       <c r="R158" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -12714,7 +12705,7 @@
         <v>555</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D159" s="21" t="s">
         <v>556</v>
@@ -12750,25 +12741,25 @@
         <v>99.904575518134195</v>
       </c>
       <c r="O159" s="22">
-        <v>98.561151079136707</v>
+        <v>97.841726618705096</v>
       </c>
       <c r="P159" s="22">
-        <v>99.998790004664897</v>
+        <v>77.464185735308405</v>
       </c>
       <c r="Q159" s="22">
-        <v>100</v>
+        <v>81.493563572101493</v>
       </c>
       <c r="R159" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="19" t="s">
         <v>558</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D160" s="21" t="s">
         <v>559</v>
@@ -12804,25 +12795,25 @@
         <v>99.904575518134195</v>
       </c>
       <c r="O160" s="22">
-        <v>97.841726618705096</v>
+        <v>98.561151079136707</v>
       </c>
       <c r="P160" s="22">
-        <v>77.464185735308405</v>
+        <v>99.998790004664897</v>
       </c>
       <c r="Q160" s="22">
-        <v>81.493563572101493</v>
+        <v>100</v>
       </c>
       <c r="R160" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="19" t="s">
         <v>561</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D161" s="21" t="s">
         <v>562</v>
@@ -12858,25 +12849,25 @@
         <v>99.904575518134195</v>
       </c>
       <c r="O161" s="22">
-        <v>98.561151079136707</v>
+        <v>97.122302158273399</v>
       </c>
       <c r="P161" s="22">
-        <v>99.998790004664897</v>
+        <v>94.423524752472005</v>
       </c>
       <c r="Q161" s="22">
-        <v>100</v>
+        <v>83.0653080158378</v>
       </c>
       <c r="R161" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="19" t="s">
         <v>564</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>565</v>
@@ -12885,10 +12876,10 @@
         <v>566</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H162" s="10" t="s">
         <v>24</v>
@@ -12912,25 +12903,25 @@
         <v>99.904575518134195</v>
       </c>
       <c r="O162" s="22">
-        <v>97.122302158273399</v>
+        <v>98.561151079136707</v>
       </c>
       <c r="P162" s="22">
-        <v>94.423524752472005</v>
+        <v>99.998790004664897</v>
       </c>
       <c r="Q162" s="22">
-        <v>83.0653080158378</v>
+        <v>100</v>
       </c>
       <c r="R162" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D163" s="21" t="s">
         <v>568</v>
@@ -12975,7 +12966,7 @@
         <v>100</v>
       </c>
       <c r="R163" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -12984,13 +12975,13 @@
         <v>570</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D164" s="21" t="s">
         <v>571</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>38</v>
@@ -13029,70 +13020,70 @@
         <v>100</v>
       </c>
       <c r="R164" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="C165" s="12" t="s">
         <v>573</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>549</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>574</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H165" s="10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>61</v>
+        <v>459</v>
       </c>
       <c r="K165" s="10">
         <v>2019</v>
       </c>
       <c r="L165" s="22">
-        <v>98.148148148148195</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="M165" s="22">
-        <v>99.732292587672802</v>
+        <v>96.164807928937705</v>
       </c>
       <c r="N165" s="22">
-        <v>99.904575518134195</v>
+        <v>97.537435312822197</v>
       </c>
       <c r="O165" s="22">
-        <v>98.561151079136707</v>
+        <v>88.489208633093497</v>
       </c>
       <c r="P165" s="22">
-        <v>99.998790004664897</v>
+        <v>98.865738314873298</v>
       </c>
       <c r="Q165" s="22">
-        <v>100</v>
+        <v>99.905539745937006</v>
       </c>
       <c r="R165" s="23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D166" s="21" t="s">
         <v>577</v>
@@ -13113,46 +13104,46 @@
         <v>45</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>462</v>
+        <v>61</v>
       </c>
       <c r="K166" s="10">
         <v>2019</v>
       </c>
       <c r="L166" s="22">
-        <v>88.8888888888889</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M166" s="22">
-        <v>96.164807928937705</v>
+        <v>99.992517839640996</v>
       </c>
       <c r="N166" s="22">
-        <v>97.537435312822197</v>
+        <v>99.958118990839296</v>
       </c>
       <c r="O166" s="22">
-        <v>88.489208633093497</v>
+        <v>56.834532374100696</v>
       </c>
       <c r="P166" s="22">
-        <v>98.865738314873298</v>
+        <v>78.020047379432796</v>
       </c>
       <c r="Q166" s="22">
-        <v>99.905539745937006</v>
+        <v>47.238816657230998</v>
       </c>
       <c r="R166" s="23" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="19" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>43</v>
@@ -13167,46 +13158,46 @@
         <v>45</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K167" s="10">
         <v>2019</v>
       </c>
       <c r="L167" s="22">
-        <v>98.148148148148195</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M167" s="22">
-        <v>99.992517839640996</v>
+        <v>92.837284889669604</v>
       </c>
       <c r="N167" s="22">
-        <v>99.958118990839296</v>
+        <v>97.095910638598099</v>
       </c>
       <c r="O167" s="22">
-        <v>56.834532374100696</v>
+        <v>93.525179856115102</v>
       </c>
       <c r="P167" s="22">
-        <v>78.020047379432796</v>
+        <v>99.145279268283701</v>
       </c>
       <c r="Q167" s="22">
-        <v>47.238816657230998</v>
+        <v>99.994305671226002</v>
       </c>
       <c r="R167" s="23" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>43</v>
@@ -13227,40 +13218,40 @@
         <v>2019</v>
       </c>
       <c r="L168" s="22">
-        <v>96.296296296296305</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M168" s="22">
-        <v>92.837284889669604</v>
+        <v>99.588117640085699</v>
       </c>
       <c r="N168" s="22">
-        <v>97.095910638598099</v>
+        <v>99.681755904264605</v>
       </c>
       <c r="O168" s="22">
-        <v>93.525179856115102</v>
+        <v>90.647482014388501</v>
       </c>
       <c r="P168" s="22">
-        <v>99.145279268283701</v>
+        <v>98.496445921724799</v>
       </c>
       <c r="Q168" s="22">
-        <v>99.994305671226002</v>
+        <v>99.297228970868105</v>
       </c>
       <c r="R168" s="23" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="19" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>43</v>
@@ -13275,148 +13266,148 @@
         <v>45</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K169" s="10">
         <v>2019</v>
       </c>
       <c r="L169" s="22">
-        <v>98.148148148148195</v>
+        <v>85.185185185185205</v>
       </c>
       <c r="M169" s="22">
-        <v>99.588117640085699</v>
+        <v>89.109030505262595</v>
       </c>
       <c r="N169" s="22">
-        <v>99.681755904264605</v>
+        <v>95.742710399371703</v>
       </c>
       <c r="O169" s="22">
-        <v>90.647482014388501</v>
+        <v>84.172661870503603</v>
       </c>
       <c r="P169" s="22">
-        <v>98.496445921724799</v>
+        <v>98.213327460966795</v>
       </c>
       <c r="Q169" s="22">
-        <v>99.297228970868105</v>
+        <v>99.207889184556606</v>
       </c>
       <c r="R169" s="23" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="F170" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G170" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H170" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G170" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I170" s="10" t="s">
+      <c r="I170" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J170" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K170" s="10">
+      <c r="J170" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="K170" s="24">
         <v>2019</v>
       </c>
       <c r="L170" s="22">
-        <v>85.185185185185205</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M170" s="22">
-        <v>89.109030505262595</v>
+        <v>96.7254008000113</v>
       </c>
       <c r="N170" s="22">
-        <v>95.742710399371703</v>
+        <v>97.646624634372102</v>
       </c>
       <c r="O170" s="22">
-        <v>84.172661870503603</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P170" s="22">
-        <v>98.213327460966795</v>
+        <v>74.6284133237058</v>
       </c>
       <c r="Q170" s="22">
-        <v>99.207889184556606</v>
-      </c>
-      <c r="R170" s="23" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>79.831546936596894</v>
+      </c>
+      <c r="R170" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D171" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="C171" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="D171" s="21" t="s">
+      <c r="E171" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="E171" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="F171" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H171" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I171" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J171" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="K171" s="24">
+      <c r="F171" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J171" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="K171" s="10">
         <v>2019</v>
       </c>
       <c r="L171" s="22">
-        <v>90.740740740740804</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="M171" s="22">
-        <v>96.7254008000113</v>
+        <v>96.164807928937705</v>
       </c>
       <c r="N171" s="22">
-        <v>97.646624634372102</v>
+        <v>97.537435312822197</v>
       </c>
       <c r="O171" s="22">
-        <v>77.697841726618705</v>
+        <v>88.489208633093497</v>
       </c>
       <c r="P171" s="22">
-        <v>74.6284133237058</v>
+        <v>98.865738314873298</v>
       </c>
       <c r="Q171" s="22">
-        <v>79.831546936596894</v>
-      </c>
-      <c r="R171" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+        <v>99.905539745937006</v>
+      </c>
+      <c r="R171" s="23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="19" t="s">
         <v>597</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D172" s="21" t="s">
         <v>598</v>
@@ -13437,40 +13428,40 @@
         <v>25</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>462</v>
+        <v>61</v>
       </c>
       <c r="K172" s="10">
         <v>2019</v>
       </c>
       <c r="L172" s="22">
-        <v>88.8888888888889</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M172" s="22">
-        <v>96.164807928937705</v>
+        <v>99.992517839640996</v>
       </c>
       <c r="N172" s="22">
-        <v>97.537435312822197</v>
+        <v>99.958118990839296</v>
       </c>
       <c r="O172" s="22">
-        <v>88.489208633093497</v>
+        <v>58.9928057553957</v>
       </c>
       <c r="P172" s="22">
-        <v>98.865738314873298</v>
+        <v>78.869855454961893</v>
       </c>
       <c r="Q172" s="22">
-        <v>99.905539745937006</v>
+        <v>47.238816657230998</v>
       </c>
       <c r="R172" s="23" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="19" t="s">
         <v>600</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D173" s="21" t="s">
         <v>601</v>
@@ -13491,46 +13482,46 @@
         <v>25</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K173" s="10">
         <v>2019</v>
       </c>
       <c r="L173" s="22">
-        <v>98.148148148148195</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M173" s="22">
-        <v>99.992517839640996</v>
+        <v>92.837284889669604</v>
       </c>
       <c r="N173" s="22">
-        <v>99.958118990839296</v>
+        <v>97.095910638598099</v>
       </c>
       <c r="O173" s="22">
-        <v>58.9928057553957</v>
+        <v>94.244604316546798</v>
       </c>
       <c r="P173" s="22">
-        <v>78.869855454961893</v>
+        <v>99.548671158477404</v>
       </c>
       <c r="Q173" s="22">
-        <v>47.238816657230998</v>
+        <v>99.994305671226002</v>
       </c>
       <c r="R173" s="23" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="19" t="s">
         <v>603</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D174" s="21" t="s">
         <v>604</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>38</v>
@@ -13551,40 +13542,40 @@
         <v>2019</v>
       </c>
       <c r="L174" s="22">
-        <v>96.296296296296305</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M174" s="22">
-        <v>92.837284889669604</v>
+        <v>99.588117640085699</v>
       </c>
       <c r="N174" s="22">
-        <v>97.095910638598099</v>
+        <v>99.681755904264605</v>
       </c>
       <c r="O174" s="22">
-        <v>94.244604316546798</v>
+        <v>90.647482014388501</v>
       </c>
       <c r="P174" s="22">
-        <v>99.548671158477404</v>
+        <v>98.496445921724799</v>
       </c>
       <c r="Q174" s="22">
-        <v>99.994305671226002</v>
+        <v>99.297228970868105</v>
       </c>
       <c r="R174" s="23" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D175" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="C175" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="D175" s="21" t="s">
-        <v>607</v>
-      </c>
       <c r="E175" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>38</v>
@@ -13599,157 +13590,157 @@
         <v>25</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K175" s="10">
         <v>2019</v>
       </c>
       <c r="L175" s="22">
-        <v>98.148148148148195</v>
+        <v>85.185185185185205</v>
       </c>
       <c r="M175" s="22">
-        <v>99.588117640085699</v>
+        <v>89.109030505262595</v>
       </c>
       <c r="N175" s="22">
-        <v>99.681755904264605</v>
+        <v>95.742710399371703</v>
       </c>
       <c r="O175" s="22">
-        <v>90.647482014388501</v>
+        <v>84.172661870503603</v>
       </c>
       <c r="P175" s="22">
-        <v>98.496445921724799</v>
+        <v>98.213327460966795</v>
       </c>
       <c r="Q175" s="22">
-        <v>99.297228970868105</v>
+        <v>99.207889184556606</v>
       </c>
       <c r="R175" s="23" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D176" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="C176" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>609</v>
-      </c>
       <c r="E176" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="F176" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="F176" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G176" s="10" t="s">
+      <c r="G176" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H176" s="10" t="s">
+      <c r="H176" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I176" s="10" t="s">
+      <c r="I176" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J176" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K176" s="10">
+      <c r="J176" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="K176" s="24">
         <v>2019</v>
       </c>
       <c r="L176" s="22">
-        <v>85.185185185185205</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M176" s="22">
-        <v>89.109030505262595</v>
+        <v>96.7254008000113</v>
       </c>
       <c r="N176" s="22">
-        <v>95.742710399371703</v>
+        <v>97.646624634372102</v>
       </c>
       <c r="O176" s="22">
-        <v>84.172661870503603</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P176" s="22">
-        <v>98.213327460966795</v>
+        <v>74.6284133237058</v>
       </c>
       <c r="Q176" s="22">
-        <v>99.207889184556606</v>
-      </c>
-      <c r="R176" s="23" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>79.831546936596894</v>
+      </c>
+      <c r="R176" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="C177" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>576</v>
       </c>
       <c r="D177" s="21" t="s">
         <v>611</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="F177" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G177" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H177" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H177" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I177" s="24" t="s">
+      <c r="I177" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J177" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="K177" s="24">
+      <c r="J177" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K177" s="10">
         <v>2019</v>
       </c>
       <c r="L177" s="22">
-        <v>90.740740740740804</v>
+        <v>100</v>
       </c>
       <c r="M177" s="22">
-        <v>96.7254008000113</v>
+        <v>100</v>
       </c>
       <c r="N177" s="22">
-        <v>97.646624634372102</v>
+        <v>100</v>
       </c>
       <c r="O177" s="22">
-        <v>77.697841726618705</v>
+        <v>100</v>
       </c>
       <c r="P177" s="22">
-        <v>74.6284133237058</v>
+        <v>100</v>
       </c>
       <c r="Q177" s="22">
-        <v>79.831546936596894</v>
-      </c>
-      <c r="R177" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="R177" s="23" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="19" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C178" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="F178" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="E178" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>616</v>
       </c>
       <c r="G178" s="10" t="s">
         <v>23</v>
@@ -13776,16 +13767,16 @@
         <v>100</v>
       </c>
       <c r="O178" s="22">
-        <v>100</v>
+        <v>99.280575539568403</v>
       </c>
       <c r="P178" s="22">
-        <v>100</v>
+        <v>99.999387560390403</v>
       </c>
       <c r="Q178" s="22">
         <v>100</v>
       </c>
       <c r="R178" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
@@ -13794,7 +13785,7 @@
         <v>618</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D179" s="21" t="s">
         <v>619</v>
@@ -13803,7 +13794,7 @@
         <v>620</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>23</v>
@@ -13839,16 +13830,16 @@
         <v>100</v>
       </c>
       <c r="R179" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="19" t="s">
         <v>621</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D180" s="21" t="s">
         <v>622</v>
@@ -13857,7 +13848,7 @@
         <v>623</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>23</v>
@@ -13884,16 +13875,16 @@
         <v>100</v>
       </c>
       <c r="O180" s="22">
-        <v>99.280575539568403</v>
+        <v>100</v>
       </c>
       <c r="P180" s="22">
-        <v>99.999387560390403</v>
+        <v>100</v>
       </c>
       <c r="Q180" s="22">
         <v>100</v>
       </c>
       <c r="R180" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -13902,7 +13893,7 @@
         <v>624</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D181" s="21" t="s">
         <v>625</v>
@@ -13911,7 +13902,7 @@
         <v>626</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>23</v>
@@ -13929,34 +13920,34 @@
         <v>2019</v>
       </c>
       <c r="L181" s="22">
-        <v>100</v>
+        <v>79.629629629629704</v>
       </c>
       <c r="M181" s="22">
-        <v>100</v>
+        <v>92.641810129895205</v>
       </c>
       <c r="N181" s="22">
-        <v>100</v>
+        <v>86.532278625992404</v>
       </c>
       <c r="O181" s="22">
-        <v>100</v>
+        <v>79.856115107913695</v>
       </c>
       <c r="P181" s="22">
-        <v>100</v>
+        <v>98.692591215380205</v>
       </c>
       <c r="Q181" s="22">
-        <v>100</v>
+        <v>97.973631904876697</v>
       </c>
       <c r="R181" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="19" t="s">
         <v>627</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D182" s="21" t="s">
         <v>628</v>
@@ -13965,10 +13956,10 @@
         <v>629</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>616</v>
+        <v>38</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H182" s="10" t="s">
         <v>24</v>
@@ -13977,46 +13968,46 @@
         <v>25</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>61</v>
+        <v>630</v>
       </c>
       <c r="K182" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="L182" s="22">
-        <v>79.629629629629704</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="M182" s="22">
-        <v>92.641810129895205</v>
+        <v>82.903086885225505</v>
       </c>
       <c r="N182" s="22">
-        <v>86.532278625992404</v>
+        <v>91.054379317263695</v>
       </c>
       <c r="O182" s="22">
-        <v>79.856115107913695</v>
+        <v>81.294964028777002</v>
       </c>
       <c r="P182" s="22">
-        <v>98.692591215380205</v>
+        <v>95.959762571618896</v>
       </c>
       <c r="Q182" s="22">
-        <v>97.973631904876697</v>
+        <v>98.525527145877803</v>
       </c>
       <c r="R182" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="19" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F183" s="10" t="s">
         <v>38</v>
@@ -14031,31 +14022,31 @@
         <v>25</v>
       </c>
       <c r="J183" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K183" s="10">
         <v>2018</v>
       </c>
       <c r="L183" s="22">
-        <v>74.074074074074105</v>
+        <v>70.370370370370395</v>
       </c>
       <c r="M183" s="22">
-        <v>82.903086885225505</v>
+        <v>82.7927389095085</v>
       </c>
       <c r="N183" s="22">
-        <v>91.054379317263695</v>
+        <v>90.5850509593336</v>
       </c>
       <c r="O183" s="22">
-        <v>81.294964028777002</v>
+        <v>74.820143884892104</v>
       </c>
       <c r="P183" s="22">
-        <v>95.959762571618896</v>
+        <v>95.807879199103496</v>
       </c>
       <c r="Q183" s="22">
-        <v>98.525527145877803</v>
+        <v>97.952777229149206</v>
       </c>
       <c r="R183" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="184" spans="1:18" ht="105" x14ac:dyDescent="0.35">
@@ -14064,7 +14055,7 @@
         <v>634</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D184" s="21" t="s">
         <v>635</v>
@@ -14085,31 +14076,31 @@
         <v>25</v>
       </c>
       <c r="J184" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K184" s="10">
         <v>2018</v>
       </c>
       <c r="L184" s="22">
-        <v>70.370370370370395</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="M184" s="22">
-        <v>82.7927389095085</v>
+        <v>82.903086885225505</v>
       </c>
       <c r="N184" s="22">
-        <v>90.5850509593336</v>
+        <v>91.054379317263695</v>
       </c>
       <c r="O184" s="22">
-        <v>74.820143884892104</v>
+        <v>81.294964028777002</v>
       </c>
       <c r="P184" s="22">
-        <v>95.807879199103496</v>
+        <v>95.959762571618896</v>
       </c>
       <c r="Q184" s="22">
-        <v>97.952777229149206</v>
+        <v>98.525527145877803</v>
       </c>
       <c r="R184" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="185" spans="1:18" ht="105" x14ac:dyDescent="0.35">
@@ -14118,7 +14109,7 @@
         <v>637</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D185" s="21" t="s">
         <v>638</v>
@@ -14139,7 +14130,7 @@
         <v>25</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K185" s="10">
         <v>2018</v>
@@ -14163,7 +14154,7 @@
         <v>98.525527145877803</v>
       </c>
       <c r="R185" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="186" spans="1:18" ht="105" x14ac:dyDescent="0.35">
@@ -14172,7 +14163,7 @@
         <v>640</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D186" s="21" t="s">
         <v>641</v>
@@ -14193,31 +14184,31 @@
         <v>25</v>
       </c>
       <c r="J186" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K186" s="10">
         <v>2018</v>
       </c>
       <c r="L186" s="22">
-        <v>74.074074074074105</v>
+        <v>70.370370370370395</v>
       </c>
       <c r="M186" s="22">
-        <v>82.903086885225505</v>
+        <v>81.403706552136597</v>
       </c>
       <c r="N186" s="22">
-        <v>91.054379317263695</v>
+        <v>90.407835994613905</v>
       </c>
       <c r="O186" s="22">
-        <v>81.294964028777002</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P186" s="22">
-        <v>95.959762571618896</v>
+        <v>95.8235704475603</v>
       </c>
       <c r="Q186" s="22">
-        <v>98.525527145877803</v>
+        <v>98.307975057834398</v>
       </c>
       <c r="R186" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="187" spans="1:18" ht="105" x14ac:dyDescent="0.35">
@@ -14226,7 +14217,7 @@
         <v>643</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D187" s="21" t="s">
         <v>644</v>
@@ -14247,31 +14238,31 @@
         <v>25</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K187" s="10">
         <v>2018</v>
       </c>
       <c r="L187" s="22">
-        <v>70.370370370370395</v>
+        <v>59.259259259259302</v>
       </c>
       <c r="M187" s="22">
-        <v>81.403706552136597</v>
+        <v>77.311866570297298</v>
       </c>
       <c r="N187" s="22">
-        <v>90.407835994613905</v>
+        <v>87.466665154820802</v>
       </c>
       <c r="O187" s="22">
-        <v>77.697841726618705</v>
+        <v>68.345323741007206</v>
       </c>
       <c r="P187" s="22">
-        <v>95.8235704475603</v>
+        <v>95.013598607277004</v>
       </c>
       <c r="Q187" s="22">
-        <v>98.307975057834398</v>
+        <v>97.171022267627805</v>
       </c>
       <c r="R187" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="105" x14ac:dyDescent="0.35">
@@ -14279,128 +14270,128 @@
         <v>646</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D188" s="21" t="s">
         <v>647</v>
       </c>
       <c r="E188" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="F188" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="F188" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="G188" s="10" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="H188" s="10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="K188" s="10">
         <v>2018</v>
       </c>
       <c r="L188" s="22">
-        <v>59.259259259259302</v>
+        <v>83.3333333333334</v>
       </c>
       <c r="M188" s="22">
-        <v>77.311866570297298</v>
+        <v>89.515242110212796</v>
       </c>
       <c r="N188" s="22">
-        <v>87.466665154820802</v>
+        <v>96.112476361172199</v>
       </c>
       <c r="O188" s="22">
-        <v>68.345323741007206</v>
+        <v>87.7697841726619</v>
       </c>
       <c r="P188" s="22">
-        <v>95.013598607277004</v>
+        <v>99.408394954209498</v>
       </c>
       <c r="Q188" s="22">
-        <v>97.171022267627805</v>
+        <v>99.191647759672307</v>
       </c>
       <c r="R188" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="B189" s="19" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="H189" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J189" s="10" t="s">
-        <v>652</v>
+        <v>61</v>
       </c>
       <c r="K189" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L189" s="22">
-        <v>83.3333333333334</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="M189" s="22">
-        <v>89.515242110212796</v>
+        <v>94.728100171111805</v>
       </c>
       <c r="N189" s="22">
-        <v>96.112476361172199</v>
+        <v>97.648311280527594</v>
       </c>
       <c r="O189" s="22">
-        <v>87.7697841726619</v>
+        <v>86.330935251798607</v>
       </c>
       <c r="P189" s="22">
-        <v>99.408394954209498</v>
+        <v>99.075243835509696</v>
       </c>
       <c r="Q189" s="22">
-        <v>99.191647759672307</v>
+        <v>99.377930460443693</v>
       </c>
       <c r="R189" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B190" s="19" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>49</v>
       </c>
       <c r="H190" s="10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I190" s="10" t="s">
         <v>25</v>
@@ -14430,30 +14421,30 @@
         <v>99.377930460443693</v>
       </c>
       <c r="R190" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="191" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B191" s="19" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H191" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I191" s="10" t="s">
         <v>25</v>
@@ -14465,33 +14456,33 @@
         <v>2019</v>
       </c>
       <c r="L191" s="22">
-        <v>74.074074074074105</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M191" s="22">
-        <v>94.728100171111805</v>
+        <v>99.153185348443003</v>
       </c>
       <c r="N191" s="22">
-        <v>97.648311280527594</v>
+        <v>99.8285571665877</v>
       </c>
       <c r="O191" s="22">
-        <v>86.330935251798607</v>
+        <v>92.086330935251794</v>
       </c>
       <c r="P191" s="22">
-        <v>99.075243835509696</v>
+        <v>98.948106609422894</v>
       </c>
       <c r="Q191" s="22">
-        <v>99.377930460443693</v>
+        <v>99.516198155947194</v>
       </c>
       <c r="R191" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B192" s="19" t="s">
         <v>661</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D192" s="21" t="s">
         <v>662</v>
@@ -14500,10 +14491,10 @@
         <v>663</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H192" s="10" t="s">
         <v>24</v>
@@ -14518,92 +14509,92 @@
         <v>2019</v>
       </c>
       <c r="L192" s="22">
-        <v>98.148148148148195</v>
+        <v>100</v>
       </c>
       <c r="M192" s="22">
-        <v>99.153185348443003</v>
+        <v>100</v>
       </c>
       <c r="N192" s="22">
-        <v>99.8285571665877</v>
+        <v>100</v>
       </c>
       <c r="O192" s="22">
-        <v>92.086330935251794</v>
+        <v>97.122302158273399</v>
       </c>
       <c r="P192" s="22">
-        <v>98.948106609422894</v>
+        <v>99.997045273968197</v>
       </c>
       <c r="Q192" s="22">
-        <v>99.516198155947194</v>
+        <v>99.994691461993796</v>
       </c>
       <c r="R192" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="193" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="193" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B193" s="19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E193" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G193" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H193" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J193" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="K193" s="24">
+        <v>2015</v>
+      </c>
+      <c r="L193" s="22">
+        <v>90.740740740740804</v>
+      </c>
+      <c r="M193" s="22">
+        <v>95.485969626984996</v>
+      </c>
+      <c r="N193" s="22">
+        <v>96.152457639321497</v>
+      </c>
+      <c r="O193" s="22">
+        <v>89.928057553956904</v>
+      </c>
+      <c r="P193" s="22">
+        <v>99.955535438109806</v>
+      </c>
+      <c r="Q193" s="22">
+        <v>99.986758090204205</v>
+      </c>
+      <c r="R193" s="25" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="194" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="B194" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="C194" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="F193" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="G193" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H193" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I193" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J193" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K193" s="10">
-        <v>2019</v>
-      </c>
-      <c r="L193" s="22">
-        <v>100</v>
-      </c>
-      <c r="M193" s="22">
-        <v>100</v>
-      </c>
-      <c r="N193" s="22">
-        <v>100</v>
-      </c>
-      <c r="O193" s="22">
-        <v>97.122302158273399</v>
-      </c>
-      <c r="P193" s="22">
-        <v>99.997045273968197</v>
-      </c>
-      <c r="Q193" s="22">
-        <v>99.994691461993796</v>
-      </c>
-      <c r="R193" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="194" spans="2:18" ht="147" x14ac:dyDescent="0.35">
-      <c r="B194" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>669</v>
-      </c>
       <c r="D194" s="21" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F194" s="24" t="s">
         <v>38</v>
@@ -14618,7 +14609,7 @@
         <v>25</v>
       </c>
       <c r="J194" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K194" s="24">
         <v>2015</v>
@@ -14642,15 +14633,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R194" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="195" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="195" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B195" s="19" t="s">
         <v>674</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D195" s="21" t="s">
         <v>675</v>
@@ -14671,7 +14662,7 @@
         <v>25</v>
       </c>
       <c r="J195" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K195" s="24">
         <v>2015</v>
@@ -14695,7 +14686,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R195" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="196" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
@@ -14703,7 +14694,7 @@
         <v>677</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D196" s="21" t="s">
         <v>678</v>
@@ -14724,7 +14715,7 @@
         <v>25</v>
       </c>
       <c r="J196" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K196" s="24">
         <v>2015</v>
@@ -14748,21 +14739,21 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R196" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="197" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="197" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B197" s="19" t="s">
         <v>680</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E197" s="21" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F197" s="24" t="s">
         <v>38</v>
@@ -14777,7 +14768,7 @@
         <v>25</v>
       </c>
       <c r="J197" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K197" s="24">
         <v>2015</v>
@@ -14801,15 +14792,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R197" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="198" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B198" s="19" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D198" s="21" t="s">
         <v>685</v>
@@ -14830,7 +14821,7 @@
         <v>25</v>
       </c>
       <c r="J198" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K198" s="24">
         <v>2015</v>
@@ -14854,7 +14845,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R198" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -14862,7 +14853,7 @@
         <v>687</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D199" s="21" t="s">
         <v>688</v>
@@ -14883,7 +14874,7 @@
         <v>25</v>
       </c>
       <c r="J199" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K199" s="24">
         <v>2015</v>
@@ -14907,15 +14898,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R199" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="200" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="200" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B200" s="19" t="s">
         <v>690</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D200" s="21" t="s">
         <v>691</v>
@@ -14936,7 +14927,7 @@
         <v>25</v>
       </c>
       <c r="J200" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K200" s="24">
         <v>2015</v>
@@ -14960,15 +14951,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R200" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="201" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="201" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B201" s="19" t="s">
         <v>693</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D201" s="21" t="s">
         <v>694</v>
@@ -14989,7 +14980,7 @@
         <v>25</v>
       </c>
       <c r="J201" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K201" s="24">
         <v>2015</v>
@@ -15013,7 +15004,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R201" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="202" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -15021,7 +15012,7 @@
         <v>696</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D202" s="21" t="s">
         <v>697</v>
@@ -15042,7 +15033,7 @@
         <v>25</v>
       </c>
       <c r="J202" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K202" s="24">
         <v>2015</v>
@@ -15066,15 +15057,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R202" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="203" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="203" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B203" s="19" t="s">
         <v>699</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D203" s="21" t="s">
         <v>700</v>
@@ -15095,7 +15086,7 @@
         <v>25</v>
       </c>
       <c r="J203" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K203" s="24">
         <v>2015</v>
@@ -15119,15 +15110,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R203" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="204" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="204" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B204" s="19" t="s">
         <v>702</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D204" s="21" t="s">
         <v>703</v>
@@ -15148,7 +15139,7 @@
         <v>25</v>
       </c>
       <c r="J204" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K204" s="24">
         <v>2015</v>
@@ -15172,15 +15163,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R204" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="205" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="205" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B205" s="19" t="s">
         <v>705</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D205" s="21" t="s">
         <v>706</v>
@@ -15201,7 +15192,7 @@
         <v>25</v>
       </c>
       <c r="J205" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K205" s="24">
         <v>2015</v>
@@ -15225,7 +15216,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R205" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="206" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -15233,7 +15224,7 @@
         <v>708</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D206" s="21" t="s">
         <v>709</v>
@@ -15254,7 +15245,7 @@
         <v>25</v>
       </c>
       <c r="J206" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K206" s="24">
         <v>2015</v>
@@ -15278,7 +15269,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R206" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="207" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -15286,7 +15277,7 @@
         <v>711</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D207" s="21" t="s">
         <v>712</v>
@@ -15307,7 +15298,7 @@
         <v>25</v>
       </c>
       <c r="J207" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K207" s="24">
         <v>2015</v>
@@ -15331,15 +15322,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R207" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="208" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="208" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B208" s="19" t="s">
         <v>714</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D208" s="21" t="s">
         <v>715</v>
@@ -15360,7 +15351,7 @@
         <v>25</v>
       </c>
       <c r="J208" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K208" s="24">
         <v>2015</v>
@@ -15384,7 +15375,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R208" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="209" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -15392,7 +15383,7 @@
         <v>717</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D209" s="21" t="s">
         <v>718</v>
@@ -15413,7 +15404,7 @@
         <v>25</v>
       </c>
       <c r="J209" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K209" s="24">
         <v>2015</v>
@@ -15437,7 +15428,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R209" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="210" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -15445,7 +15436,7 @@
         <v>720</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D210" s="21" t="s">
         <v>721</v>
@@ -15466,7 +15457,7 @@
         <v>25</v>
       </c>
       <c r="J210" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K210" s="24">
         <v>2015</v>
@@ -15490,15 +15481,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R210" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="211" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="211" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B211" s="19" t="s">
         <v>723</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D211" s="21" t="s">
         <v>724</v>
@@ -15519,7 +15510,7 @@
         <v>25</v>
       </c>
       <c r="J211" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K211" s="24">
         <v>2015</v>
@@ -15543,15 +15534,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R211" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="212" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="212" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B212" s="19" t="s">
         <v>726</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D212" s="21" t="s">
         <v>727</v>
@@ -15572,7 +15563,7 @@
         <v>25</v>
       </c>
       <c r="J212" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K212" s="24">
         <v>2015</v>
@@ -15596,7 +15587,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R212" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="213" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -15604,7 +15595,7 @@
         <v>729</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D213" s="21" t="s">
         <v>730</v>
@@ -15625,7 +15616,7 @@
         <v>25</v>
       </c>
       <c r="J213" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K213" s="24">
         <v>2015</v>
@@ -15649,7 +15640,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R213" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="214" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -15657,7 +15648,7 @@
         <v>732</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D214" s="21" t="s">
         <v>733</v>
@@ -15678,7 +15669,7 @@
         <v>25</v>
       </c>
       <c r="J214" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K214" s="24">
         <v>2015</v>
@@ -15702,7 +15693,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R214" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="215" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -15710,7 +15701,7 @@
         <v>735</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D215" s="21" t="s">
         <v>736</v>
@@ -15731,7 +15722,7 @@
         <v>25</v>
       </c>
       <c r="J215" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K215" s="24">
         <v>2015</v>
@@ -15755,15 +15746,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R215" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="216" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="216" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B216" s="19" t="s">
         <v>738</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D216" s="21" t="s">
         <v>739</v>
@@ -15784,7 +15775,7 @@
         <v>25</v>
       </c>
       <c r="J216" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K216" s="24">
         <v>2015</v>
@@ -15808,7 +15799,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R216" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="217" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -15816,7 +15807,7 @@
         <v>741</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D217" s="21" t="s">
         <v>742</v>
@@ -15837,7 +15828,7 @@
         <v>25</v>
       </c>
       <c r="J217" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K217" s="24">
         <v>2015</v>
@@ -15861,7 +15852,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R217" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="218" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -15869,7 +15860,7 @@
         <v>744</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D218" s="21" t="s">
         <v>745</v>
@@ -15890,7 +15881,7 @@
         <v>25</v>
       </c>
       <c r="J218" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K218" s="24">
         <v>2015</v>
@@ -15914,7 +15905,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R218" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="219" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -15922,7 +15913,7 @@
         <v>747</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D219" s="21" t="s">
         <v>748</v>
@@ -15943,7 +15934,7 @@
         <v>25</v>
       </c>
       <c r="J219" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K219" s="24">
         <v>2015</v>
@@ -15967,15 +15958,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R219" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="220" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="220" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B220" s="19" t="s">
         <v>750</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D220" s="21" t="s">
         <v>751</v>
@@ -15996,7 +15987,7 @@
         <v>25</v>
       </c>
       <c r="J220" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K220" s="24">
         <v>2015</v>
@@ -16020,7 +16011,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R220" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="221" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -16028,7 +16019,7 @@
         <v>753</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D221" s="21" t="s">
         <v>754</v>
@@ -16049,7 +16040,7 @@
         <v>25</v>
       </c>
       <c r="J221" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K221" s="24">
         <v>2015</v>
@@ -16073,15 +16064,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R221" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="222" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="222" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B222" s="19" t="s">
         <v>756</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D222" s="21" t="s">
         <v>757</v>
@@ -16102,7 +16093,7 @@
         <v>25</v>
       </c>
       <c r="J222" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K222" s="24">
         <v>2015</v>
@@ -16126,7 +16117,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R222" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="223" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16134,13 +16125,13 @@
         <v>759</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F223" s="24" t="s">
         <v>38</v>
@@ -16155,7 +16146,7 @@
         <v>25</v>
       </c>
       <c r="J223" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K223" s="24">
         <v>2015</v>
@@ -16179,15 +16170,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R223" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="224" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B224" s="19" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D224" s="21" t="s">
         <v>764</v>
@@ -16208,7 +16199,7 @@
         <v>25</v>
       </c>
       <c r="J224" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K224" s="24">
         <v>2015</v>
@@ -16232,7 +16223,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R224" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="225" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16240,7 +16231,7 @@
         <v>766</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D225" s="21" t="s">
         <v>767</v>
@@ -16261,7 +16252,7 @@
         <v>25</v>
       </c>
       <c r="J225" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K225" s="24">
         <v>2015</v>
@@ -16285,7 +16276,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R225" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="226" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16293,7 +16284,7 @@
         <v>769</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D226" s="21" t="s">
         <v>770</v>
@@ -16314,7 +16305,7 @@
         <v>25</v>
       </c>
       <c r="J226" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K226" s="24">
         <v>2015</v>
@@ -16338,7 +16329,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R226" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="227" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16346,7 +16337,7 @@
         <v>772</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D227" s="21" t="s">
         <v>773</v>
@@ -16367,7 +16358,7 @@
         <v>25</v>
       </c>
       <c r="J227" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K227" s="24">
         <v>2015</v>
@@ -16391,7 +16382,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R227" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="228" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16399,7 +16390,7 @@
         <v>775</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D228" s="21" t="s">
         <v>776</v>
@@ -16420,7 +16411,7 @@
         <v>25</v>
       </c>
       <c r="J228" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K228" s="24">
         <v>2015</v>
@@ -16444,7 +16435,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R228" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="229" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16452,7 +16443,7 @@
         <v>778</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D229" s="21" t="s">
         <v>779</v>
@@ -16473,7 +16464,7 @@
         <v>25</v>
       </c>
       <c r="J229" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K229" s="24">
         <v>2015</v>
@@ -16497,7 +16488,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R229" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="230" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16505,7 +16496,7 @@
         <v>781</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D230" s="21" t="s">
         <v>782</v>
@@ -16526,7 +16517,7 @@
         <v>25</v>
       </c>
       <c r="J230" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K230" s="24">
         <v>2015</v>
@@ -16550,7 +16541,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R230" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="231" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16558,7 +16549,7 @@
         <v>784</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D231" s="21" t="s">
         <v>785</v>
@@ -16579,7 +16570,7 @@
         <v>25</v>
       </c>
       <c r="J231" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K231" s="24">
         <v>2015</v>
@@ -16603,7 +16594,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R231" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="232" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16611,7 +16602,7 @@
         <v>787</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D232" s="21" t="s">
         <v>788</v>
@@ -16632,7 +16623,7 @@
         <v>25</v>
       </c>
       <c r="J232" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K232" s="24">
         <v>2015</v>
@@ -16656,7 +16647,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R232" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="233" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16664,7 +16655,7 @@
         <v>790</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D233" s="21" t="s">
         <v>791</v>
@@ -16685,7 +16676,7 @@
         <v>25</v>
       </c>
       <c r="J233" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K233" s="24">
         <v>2015</v>
@@ -16709,7 +16700,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R233" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="234" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16717,7 +16708,7 @@
         <v>793</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D234" s="21" t="s">
         <v>794</v>
@@ -16738,7 +16729,7 @@
         <v>25</v>
       </c>
       <c r="J234" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K234" s="24">
         <v>2015</v>
@@ -16762,7 +16753,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R234" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="235" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16770,7 +16761,7 @@
         <v>796</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D235" s="21" t="s">
         <v>797</v>
@@ -16791,7 +16782,7 @@
         <v>25</v>
       </c>
       <c r="J235" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K235" s="24">
         <v>2015</v>
@@ -16815,7 +16806,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R235" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="236" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16823,7 +16814,7 @@
         <v>799</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D236" s="21" t="s">
         <v>800</v>
@@ -16844,7 +16835,7 @@
         <v>25</v>
       </c>
       <c r="J236" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K236" s="24">
         <v>2015</v>
@@ -16868,7 +16859,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R236" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="237" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16876,7 +16867,7 @@
         <v>802</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D237" s="21" t="s">
         <v>803</v>
@@ -16897,7 +16888,7 @@
         <v>25</v>
       </c>
       <c r="J237" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K237" s="24">
         <v>2015</v>
@@ -16921,7 +16912,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R237" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="238" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16929,7 +16920,7 @@
         <v>805</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D238" s="21" t="s">
         <v>806</v>
@@ -16950,7 +16941,7 @@
         <v>25</v>
       </c>
       <c r="J238" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K238" s="24">
         <v>2015</v>
@@ -16974,7 +16965,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R238" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="239" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -16982,7 +16973,7 @@
         <v>808</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D239" s="21" t="s">
         <v>809</v>
@@ -17003,7 +16994,7 @@
         <v>25</v>
       </c>
       <c r="J239" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K239" s="24">
         <v>2015</v>
@@ -17027,7 +17018,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R239" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="240" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17035,7 +17026,7 @@
         <v>811</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D240" s="21" t="s">
         <v>812</v>
@@ -17056,7 +17047,7 @@
         <v>25</v>
       </c>
       <c r="J240" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K240" s="24">
         <v>2015</v>
@@ -17080,7 +17071,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R240" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="241" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17088,7 +17079,7 @@
         <v>814</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D241" s="21" t="s">
         <v>815</v>
@@ -17109,7 +17100,7 @@
         <v>25</v>
       </c>
       <c r="J241" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K241" s="24">
         <v>2015</v>
@@ -17133,7 +17124,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R241" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="242" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17141,7 +17132,7 @@
         <v>817</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D242" s="21" t="s">
         <v>818</v>
@@ -17162,7 +17153,7 @@
         <v>25</v>
       </c>
       <c r="J242" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K242" s="24">
         <v>2015</v>
@@ -17186,7 +17177,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R242" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="243" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17194,7 +17185,7 @@
         <v>820</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D243" s="21" t="s">
         <v>821</v>
@@ -17215,7 +17206,7 @@
         <v>25</v>
       </c>
       <c r="J243" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K243" s="24">
         <v>2015</v>
@@ -17239,7 +17230,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R243" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="244" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17247,7 +17238,7 @@
         <v>823</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D244" s="21" t="s">
         <v>824</v>
@@ -17268,7 +17259,7 @@
         <v>25</v>
       </c>
       <c r="J244" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K244" s="24">
         <v>2015</v>
@@ -17292,7 +17283,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R244" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="245" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17300,7 +17291,7 @@
         <v>826</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D245" s="21" t="s">
         <v>827</v>
@@ -17321,7 +17312,7 @@
         <v>25</v>
       </c>
       <c r="J245" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K245" s="24">
         <v>2015</v>
@@ -17345,7 +17336,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R245" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="246" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17353,7 +17344,7 @@
         <v>829</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D246" s="21" t="s">
         <v>830</v>
@@ -17374,7 +17365,7 @@
         <v>25</v>
       </c>
       <c r="J246" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K246" s="24">
         <v>2015</v>
@@ -17398,15 +17389,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R246" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="247" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="247" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B247" s="19" t="s">
         <v>832</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D247" s="21" t="s">
         <v>833</v>
@@ -17427,7 +17418,7 @@
         <v>25</v>
       </c>
       <c r="J247" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K247" s="24">
         <v>2015</v>
@@ -17451,15 +17442,15 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R247" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="248" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="248" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B248" s="19" t="s">
         <v>835</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D248" s="21" t="s">
         <v>836</v>
@@ -17480,7 +17471,7 @@
         <v>25</v>
       </c>
       <c r="J248" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K248" s="24">
         <v>2015</v>
@@ -17504,21 +17495,21 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R248" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="249" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="249" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B249" s="19" t="s">
         <v>838</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="D249" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="E249" s="21" t="s">
+      <c r="D249" s="26" t="s">
         <v>840</v>
+      </c>
+      <c r="E249" s="26" t="s">
+        <v>841</v>
       </c>
       <c r="F249" s="24" t="s">
         <v>38</v>
@@ -17533,45 +17524,45 @@
         <v>25</v>
       </c>
       <c r="J249" s="24" t="s">
-        <v>672</v>
+        <v>842</v>
       </c>
       <c r="K249" s="24">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="L249" s="22">
-        <v>90.740740740740804</v>
+        <v>94.4444444444445</v>
       </c>
       <c r="M249" s="22">
-        <v>95.485969626984996</v>
+        <v>99.684014009388207</v>
       </c>
       <c r="N249" s="22">
-        <v>96.152457639321497</v>
+        <v>99.5068057057576</v>
       </c>
       <c r="O249" s="22">
         <v>89.928057553956904</v>
       </c>
       <c r="P249" s="22">
-        <v>99.955535438109806</v>
+        <v>99.953979407682397</v>
       </c>
       <c r="Q249" s="22">
-        <v>99.986758090204205</v>
-      </c>
-      <c r="R249" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="250" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+        <v>99.986365245283906</v>
+      </c>
+      <c r="R249" s="27" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="250" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B250" s="19" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F250" s="24" t="s">
         <v>38</v>
@@ -17586,7 +17577,7 @@
         <v>25</v>
       </c>
       <c r="J250" s="24" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K250" s="24">
         <v>2019</v>
@@ -17610,7 +17601,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R250" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="251" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -17618,7 +17609,7 @@
         <v>847</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D251" s="26" t="s">
         <v>848</v>
@@ -17639,7 +17630,7 @@
         <v>25</v>
       </c>
       <c r="J251" s="24" t="s">
-        <v>845</v>
+        <v>61</v>
       </c>
       <c r="K251" s="24">
         <v>2019</v>
@@ -17663,7 +17654,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R251" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="252" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -17671,7 +17662,7 @@
         <v>850</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D252" s="26" t="s">
         <v>851</v>
@@ -17716,7 +17707,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R252" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="253" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -17724,7 +17715,7 @@
         <v>853</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D253" s="26" t="s">
         <v>854</v>
@@ -17769,7 +17760,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R253" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="254" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -17777,7 +17768,7 @@
         <v>856</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D254" s="26" t="s">
         <v>857</v>
@@ -17822,7 +17813,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R254" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="255" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -17830,7 +17821,7 @@
         <v>859</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D255" s="26" t="s">
         <v>860</v>
@@ -17851,7 +17842,7 @@
         <v>25</v>
       </c>
       <c r="J255" s="24" t="s">
-        <v>61</v>
+        <v>842</v>
       </c>
       <c r="K255" s="24">
         <v>2019</v>
@@ -17875,7 +17866,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R255" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="256" spans="2:18" ht="84" x14ac:dyDescent="0.35">
@@ -17883,7 +17874,7 @@
         <v>862</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D256" s="26" t="s">
         <v>863</v>
@@ -17904,7 +17895,7 @@
         <v>25</v>
       </c>
       <c r="J256" s="24" t="s">
-        <v>845</v>
+        <v>61</v>
       </c>
       <c r="K256" s="24">
         <v>2019</v>
@@ -17928,7 +17919,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R256" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="257" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17936,7 +17927,7 @@
         <v>865</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>866</v>
@@ -17981,7 +17972,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R257" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="258" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17989,7 +17980,7 @@
         <v>868</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D258" s="26" t="s">
         <v>869</v>
@@ -18034,7 +18025,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R258" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="259" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18042,7 +18033,7 @@
         <v>871</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D259" s="26" t="s">
         <v>872</v>
@@ -18087,15 +18078,15 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R259" s="27" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B260" s="19" t="s">
         <v>874</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D260" s="26" t="s">
         <v>875</v>
@@ -18104,16 +18095,16 @@
         <v>876</v>
       </c>
       <c r="F260" s="24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G260" s="24" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H260" s="24" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I260" s="24" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J260" s="24" t="s">
         <v>61</v>
@@ -18131,24 +18122,24 @@
         <v>99.5068057057576</v>
       </c>
       <c r="O260" s="22">
-        <v>89.928057553956904</v>
+        <v>86.330935251798607</v>
       </c>
       <c r="P260" s="22">
-        <v>99.953979407682397</v>
+        <v>99.102961336818197</v>
       </c>
       <c r="Q260" s="22">
         <v>99.986365245283906</v>
       </c>
       <c r="R260" s="27" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B261" s="19" t="s">
         <v>877</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D261" s="26" t="s">
         <v>878</v>
@@ -18169,7 +18160,7 @@
         <v>45</v>
       </c>
       <c r="J261" s="24" t="s">
-        <v>61</v>
+        <v>842</v>
       </c>
       <c r="K261" s="24">
         <v>2019</v>
@@ -18193,7 +18184,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R261" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="262" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18201,7 +18192,7 @@
         <v>880</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D262" s="26" t="s">
         <v>881</v>
@@ -18222,7 +18213,7 @@
         <v>45</v>
       </c>
       <c r="J262" s="24" t="s">
-        <v>845</v>
+        <v>61</v>
       </c>
       <c r="K262" s="24">
         <v>2019</v>
@@ -18246,7 +18237,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R262" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="263" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18254,7 +18245,7 @@
         <v>883</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D263" s="26" t="s">
         <v>884</v>
@@ -18299,7 +18290,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R263" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="264" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18307,7 +18298,7 @@
         <v>886</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D264" s="26" t="s">
         <v>887</v>
@@ -18352,7 +18343,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R264" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="265" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18360,7 +18351,7 @@
         <v>889</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D265" s="26" t="s">
         <v>890</v>
@@ -18405,7 +18396,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R265" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="266" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18413,7 +18404,7 @@
         <v>892</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D266" s="26" t="s">
         <v>893</v>
@@ -18434,7 +18425,7 @@
         <v>45</v>
       </c>
       <c r="J266" s="24" t="s">
-        <v>61</v>
+        <v>842</v>
       </c>
       <c r="K266" s="24">
         <v>2019</v>
@@ -18458,7 +18449,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R266" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18467,7 +18458,7 @@
         <v>895</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D267" s="26" t="s">
         <v>896</v>
@@ -18488,7 +18479,7 @@
         <v>45</v>
       </c>
       <c r="J267" s="24" t="s">
-        <v>845</v>
+        <v>61</v>
       </c>
       <c r="K267" s="24">
         <v>2019</v>
@@ -18512,7 +18503,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R267" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="268" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18521,7 +18512,7 @@
         <v>898</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D268" s="26" t="s">
         <v>899</v>
@@ -18566,7 +18557,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R268" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18574,7 +18565,7 @@
         <v>901</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D269" s="26" t="s">
         <v>902</v>
@@ -18619,7 +18610,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R269" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="270" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -18627,7 +18618,7 @@
         <v>904</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D270" s="26" t="s">
         <v>905</v>
@@ -18672,33 +18663,33 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R270" s="27" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B271" s="19" t="s">
         <v>907</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="D271" s="26" t="s">
+        <v>839</v>
+      </c>
+      <c r="D271" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="E271" s="26" t="s">
+      <c r="E271" s="21" t="s">
         <v>909</v>
       </c>
       <c r="F271" s="24" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G271" s="24" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H271" s="24" t="s">
         <v>44</v>
       </c>
       <c r="I271" s="24" t="s">
-        <v>45</v>
+        <v>910</v>
       </c>
       <c r="J271" s="24" t="s">
         <v>61</v>
@@ -18706,40 +18697,40 @@
       <c r="K271" s="24">
         <v>2019</v>
       </c>
-      <c r="L271" s="22">
-        <v>94.4444444444445</v>
-      </c>
-      <c r="M271" s="22">
-        <v>99.684014009388207</v>
-      </c>
-      <c r="N271" s="22">
-        <v>99.5068057057576</v>
-      </c>
-      <c r="O271" s="22">
-        <v>86.330935251798607</v>
-      </c>
-      <c r="P271" s="22">
-        <v>99.102961336818197</v>
-      </c>
-      <c r="Q271" s="22">
-        <v>99.986365245283906</v>
-      </c>
-      <c r="R271" s="27" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="L271" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="M271" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="N271" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="O271" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="P271" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q271" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="R271" s="25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B272" s="19" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E272" s="21" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F272" s="24" t="s">
         <v>60</v>
@@ -18751,7 +18742,7 @@
         <v>44</v>
       </c>
       <c r="I272" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J272" s="24" t="s">
         <v>61</v>
@@ -18760,25 +18751,25 @@
         <v>2019</v>
       </c>
       <c r="L272" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M272" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N272" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O272" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P272" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q272" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R272" s="25" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="273" spans="2:18" ht="147" x14ac:dyDescent="0.35">
@@ -18786,7 +18777,7 @@
         <v>915</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D273" s="21" t="s">
         <v>916</v>
@@ -18804,7 +18795,7 @@
         <v>44</v>
       </c>
       <c r="I273" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J273" s="24" t="s">
         <v>61</v>
@@ -18813,33 +18804,33 @@
         <v>2019</v>
       </c>
       <c r="L273" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M273" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N273" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O273" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P273" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q273" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R273" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="274" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="274" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B274" s="19" t="s">
         <v>918</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D274" s="21" t="s">
         <v>919</v>
@@ -18857,7 +18848,7 @@
         <v>44</v>
       </c>
       <c r="I274" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J274" s="24" t="s">
         <v>61</v>
@@ -18866,25 +18857,25 @@
         <v>2019</v>
       </c>
       <c r="L274" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M274" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N274" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O274" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P274" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q274" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R274" s="25" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="275" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
@@ -18892,7 +18883,7 @@
         <v>921</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D275" s="21" t="s">
         <v>922</v>
@@ -18910,7 +18901,7 @@
         <v>44</v>
       </c>
       <c r="I275" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J275" s="24" t="s">
         <v>61</v>
@@ -18919,33 +18910,33 @@
         <v>2019</v>
       </c>
       <c r="L275" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M275" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N275" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O275" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P275" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q275" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R275" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="276" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="276" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B276" s="19" t="s">
         <v>924</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D276" s="21" t="s">
         <v>925</v>
@@ -18963,7 +18954,7 @@
         <v>44</v>
       </c>
       <c r="I276" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J276" s="24" t="s">
         <v>61</v>
@@ -18972,33 +18963,33 @@
         <v>2019</v>
       </c>
       <c r="L276" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M276" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N276" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O276" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P276" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q276" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R276" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="277" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="277" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B277" s="19" t="s">
         <v>927</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D277" s="21" t="s">
         <v>928</v>
@@ -19016,7 +19007,7 @@
         <v>44</v>
       </c>
       <c r="I277" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J277" s="24" t="s">
         <v>61</v>
@@ -19025,33 +19016,33 @@
         <v>2019</v>
       </c>
       <c r="L277" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M277" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N277" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O277" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P277" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q277" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R277" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="278" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="278" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B278" s="19" t="s">
         <v>930</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D278" s="21" t="s">
         <v>931</v>
@@ -19069,7 +19060,7 @@
         <v>44</v>
       </c>
       <c r="I278" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J278" s="24" t="s">
         <v>61</v>
@@ -19078,25 +19069,25 @@
         <v>2019</v>
       </c>
       <c r="L278" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M278" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N278" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O278" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P278" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q278" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R278" s="25" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="279" spans="2:18" ht="147" x14ac:dyDescent="0.35">
@@ -19104,7 +19095,7 @@
         <v>933</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D279" s="21" t="s">
         <v>934</v>
@@ -19122,7 +19113,7 @@
         <v>44</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J279" s="24" t="s">
         <v>61</v>
@@ -19131,33 +19122,33 @@
         <v>2019</v>
       </c>
       <c r="L279" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M279" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N279" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O279" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P279" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q279" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R279" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="280" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="280" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B280" s="19" t="s">
         <v>936</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D280" s="21" t="s">
         <v>937</v>
@@ -19175,7 +19166,7 @@
         <v>44</v>
       </c>
       <c r="I280" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J280" s="24" t="s">
         <v>61</v>
@@ -19184,33 +19175,33 @@
         <v>2019</v>
       </c>
       <c r="L280" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M280" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N280" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O280" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P280" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q280" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R280" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="281" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="281" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B281" s="19" t="s">
         <v>939</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>940</v>
@@ -19228,7 +19219,7 @@
         <v>44</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J281" s="24" t="s">
         <v>61</v>
@@ -19237,33 +19228,33 @@
         <v>2019</v>
       </c>
       <c r="L281" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M281" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N281" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O281" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P281" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q281" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R281" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="282" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="282" spans="2:18" ht="147" x14ac:dyDescent="0.35">
       <c r="B282" s="19" t="s">
         <v>942</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D282" s="21" t="s">
         <v>943</v>
@@ -19281,7 +19272,7 @@
         <v>44</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J282" s="24" t="s">
         <v>61</v>
@@ -19290,95 +19281,95 @@
         <v>2019</v>
       </c>
       <c r="L282" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M282" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N282" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O282" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P282" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q282" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R282" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="283" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="283" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B283" s="19" t="s">
         <v>945</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>842</v>
+        <v>946</v>
       </c>
       <c r="D283" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="E283" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="F283" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="G283" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H283" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I283" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J283" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K283" s="24">
+        <v>2020</v>
+      </c>
+      <c r="L283" s="22">
+        <v>96.296296296296305</v>
+      </c>
+      <c r="M283" s="22">
+        <v>99.147545314925694</v>
+      </c>
+      <c r="N283" s="22">
+        <v>99.822191544570202</v>
+      </c>
+      <c r="O283" s="22">
+        <v>93.525179856115102</v>
+      </c>
+      <c r="P283" s="22">
+        <v>99.960474892320093</v>
+      </c>
+      <c r="Q283" s="22">
+        <v>99.992295382983102</v>
+      </c>
+      <c r="R283" s="25" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="284" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+      <c r="B284" s="28" t="s">
+        <v>951</v>
+      </c>
+      <c r="C284" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="E283" s="21" t="s">
-        <v>947</v>
-      </c>
-      <c r="F283" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G283" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H283" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="J283" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K283" s="24">
-        <v>2019</v>
-      </c>
-      <c r="L283" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="M283" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="N283" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="O283" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="P283" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q283" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="R283" s="25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="284" spans="2:18" ht="42" x14ac:dyDescent="0.35">
-      <c r="B284" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="C284" s="12" t="s">
+      <c r="D284" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="E284" s="21" t="s">
+        <v>953</v>
+      </c>
+      <c r="F284" s="24" t="s">
         <v>949</v>
-      </c>
-      <c r="D284" s="21" t="s">
-        <v>950</v>
-      </c>
-      <c r="E284" s="21" t="s">
-        <v>951</v>
-      </c>
-      <c r="F284" s="24" t="s">
-        <v>952</v>
       </c>
       <c r="G284" s="24" t="s">
         <v>49</v>
@@ -19396,25 +19387,25 @@
         <v>2020</v>
       </c>
       <c r="L284" s="22">
-        <v>96.296296296296305</v>
+        <v>87.037037037037095</v>
       </c>
       <c r="M284" s="22">
-        <v>99.147545314925694</v>
+        <v>97.598589076723798</v>
       </c>
       <c r="N284" s="22">
-        <v>99.822191544570202</v>
+        <v>99.298851333225898</v>
       </c>
       <c r="O284" s="22">
-        <v>93.525179856115102</v>
+        <v>87.050359712230204</v>
       </c>
       <c r="P284" s="22">
-        <v>99.960474892320093</v>
+        <v>99.538714220897404</v>
       </c>
       <c r="Q284" s="22">
-        <v>99.992295382983102</v>
+        <v>99.984094045866996</v>
       </c>
       <c r="R284" s="25" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="285" spans="2:18" ht="42" x14ac:dyDescent="0.35">
@@ -19422,7 +19413,7 @@
         <v>954</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D285" s="21" t="s">
         <v>955</v>
@@ -19431,7 +19422,7 @@
         <v>956</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G285" s="24" t="s">
         <v>49</v>
@@ -19443,108 +19434,71 @@
         <v>25</v>
       </c>
       <c r="J285" s="24" t="s">
-        <v>54</v>
+        <v>957</v>
       </c>
       <c r="K285" s="24">
         <v>2020</v>
       </c>
       <c r="L285" s="22">
-        <v>87.037037037037095</v>
+        <v>18.518518518518501</v>
       </c>
       <c r="M285" s="22">
-        <v>97.598589076723798</v>
+        <v>24.603350666494201</v>
       </c>
       <c r="N285" s="22">
-        <v>99.298851333225898</v>
+        <v>50.370183806678398</v>
       </c>
       <c r="O285" s="22">
-        <v>87.050359712230204</v>
+        <v>62.589928057553998</v>
       </c>
       <c r="P285" s="22">
-        <v>99.538714220897404</v>
+        <v>93.026850148479497</v>
       </c>
       <c r="Q285" s="22">
-        <v>99.984094045866996</v>
+        <v>97.736540452902105</v>
       </c>
       <c r="R285" s="25" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="286" spans="2:18" ht="42" x14ac:dyDescent="0.35">
-      <c r="B286" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="C286" s="12" t="s">
-        <v>949</v>
-      </c>
-      <c r="D286" s="21" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="286" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C286" s="20"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="21"/>
+      <c r="F286" s="10"/>
+      <c r="G286" s="10"/>
+      <c r="H286" s="10"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="10"/>
+      <c r="K286" s="10"/>
+      <c r="L286" s="22"/>
+      <c r="M286" s="22"/>
+      <c r="N286" s="22"/>
+      <c r="O286" s="22"/>
+      <c r="P286" s="22"/>
+      <c r="Q286" s="22"/>
+      <c r="R286" s="27"/>
+    </row>
+    <row r="287" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B287" s="29" t="s">
         <v>958</v>
       </c>
-      <c r="E286" s="21" t="s">
-        <v>959</v>
-      </c>
-      <c r="F286" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="G286" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H286" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J286" s="24" t="s">
-        <v>960</v>
-      </c>
-      <c r="K286" s="24">
-        <v>2020</v>
-      </c>
-      <c r="L286" s="22">
-        <v>18.518518518518501</v>
-      </c>
-      <c r="M286" s="22">
-        <v>24.603350666494201</v>
-      </c>
-      <c r="N286" s="22">
-        <v>50.370183806678398</v>
-      </c>
-      <c r="O286" s="22">
-        <v>62.589928057553998</v>
-      </c>
-      <c r="P286" s="22">
-        <v>93.026850148479497</v>
-      </c>
-      <c r="Q286" s="22">
-        <v>97.736540452902105</v>
-      </c>
-      <c r="R286" s="25" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="287" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C287" s="20"/>
-      <c r="D287" s="21"/>
-      <c r="E287" s="21"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
-      <c r="H287" s="10"/>
-      <c r="I287" s="10"/>
-      <c r="J287" s="10"/>
-      <c r="K287" s="10"/>
-      <c r="L287" s="22"/>
-      <c r="M287" s="22"/>
-      <c r="N287" s="22"/>
-      <c r="O287" s="22"/>
-      <c r="P287" s="22"/>
-      <c r="Q287" s="22"/>
-      <c r="R287" s="27"/>
-    </row>
-    <row r="288" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B288" s="29" t="s">
-        <v>961</v>
-      </c>
+      <c r="C287" s="30"/>
+      <c r="D287" s="30"/>
+      <c r="E287" s="30"/>
+      <c r="F287" s="30"/>
+      <c r="G287" s="30"/>
+      <c r="H287" s="30"/>
+      <c r="I287" s="30"/>
+      <c r="J287" s="30"/>
+      <c r="K287" s="30"/>
+      <c r="L287" s="30"/>
+      <c r="M287"/>
+      <c r="N287"/>
+      <c r="O287"/>
+    </row>
+    <row r="288" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B288" s="2"/>
       <c r="C288" s="30"/>
       <c r="D288" s="30"/>
       <c r="E288" s="30"/>
@@ -19560,44 +19514,28 @@
       <c r="O288"/>
     </row>
     <row r="289" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B289" s="2"/>
-      <c r="C289" s="30"/>
-      <c r="D289" s="30"/>
-      <c r="E289" s="30"/>
-      <c r="F289" s="30"/>
-      <c r="G289" s="30"/>
-      <c r="H289" s="30"/>
-      <c r="I289" s="30"/>
-      <c r="J289" s="30"/>
-      <c r="K289" s="30"/>
-      <c r="L289" s="30"/>
+      <c r="B289" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C289"/>
+      <c r="E289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+      <c r="L289"/>
       <c r="M289"/>
       <c r="N289"/>
       <c r="O289"/>
     </row>
     <row r="290" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B290" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="C290"/>
-      <c r="E290"/>
-      <c r="J290"/>
-      <c r="K290"/>
-      <c r="L290"/>
-      <c r="M290"/>
-      <c r="N290"/>
-      <c r="O290"/>
-    </row>
-    <row r="291" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B291" s="2" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B288" r:id="rId1"/>
-    <hyperlink ref="B290" r:id="rId2"/>
-    <hyperlink ref="B291" r:id="rId3"/>
+    <hyperlink ref="B287" r:id="rId1"/>
+    <hyperlink ref="B289" r:id="rId2"/>
+    <hyperlink ref="B290" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/DDAf_2022_Liste_des_indicateurs.xlsx
+++ b/DDAf_2022_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Liste_des_indicateurs.xlsx
+++ b/DDAf_2022_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
